--- a/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
@@ -1,82 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4D00407E-C395-4D48-B7F2-FB7AAC7029DE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F76105-6BB6-49D4-8EEF-17720DF45A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="8" tabRatio="618" windowHeight="12456" windowWidth="23256" xWindow="-23148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" r:id="rId1" sheetId="66"/>
-    <sheet name="AutoIncrement" r:id="rId2" sheetId="14"/>
-    <sheet name="TC09-Create New User" r:id="rId3" sheetId="18"/>
-    <sheet name="TC14n15" r:id="rId4" sheetId="65"/>
-    <sheet name="TC019-Activate User" r:id="rId5" sheetId="61"/>
-    <sheet name="TC021-Forget Password" r:id="rId6" sheetId="59"/>
-    <sheet name="TC033" r:id="rId7" sheetId="19"/>
-    <sheet name="TC033_ETAnWeek" r:id="rId8" sheetId="20"/>
-    <sheet name="TC34" r:id="rId9" sheetId="9"/>
-    <sheet name="TC35-Contract Parts Info" r:id="rId10" sheetId="6"/>
-    <sheet name="TC35" r:id="rId11" sheetId="3"/>
-    <sheet name="TC038" r:id="rId12" sheetId="21"/>
-    <sheet name="TC039" r:id="rId13" sheetId="23"/>
-    <sheet name="S13_TC40" r:id="rId14" sheetId="44"/>
-    <sheet name="TC041 - Place Order (Regular)" r:id="rId15" sheetId="2"/>
-    <sheet name="TC041-Inbound Date" r:id="rId16" sheetId="13"/>
-    <sheet name="TC42" r:id="rId17" sheetId="4"/>
-    <sheet name="TC44" r:id="rId18" sheetId="5"/>
-    <sheet name="TC47-Change Order" r:id="rId19" sheetId="7"/>
-    <sheet name="TC47-Change Inbound Dates" r:id="rId20" sheetId="8"/>
-    <sheet name="TC48" r:id="rId21" sheetId="10"/>
-    <sheet name="TC049" r:id="rId22" sheetId="24"/>
-    <sheet name="TC050" r:id="rId23" sheetId="25"/>
-    <sheet name="TC52-Download Obound Form" r:id="rId24" sheetId="11"/>
-    <sheet name="TC52-Upload Obound Form" r:id="rId25" sheetId="12"/>
-    <sheet name="TC52-Upload Obound Setup" r:id="rId26" sheetId="17"/>
-    <sheet name="TC52-Autogen Outbound Data" r:id="rId27" sheetId="57"/>
-    <sheet name="TC053" r:id="rId28" sheetId="26"/>
-    <sheet name="TC054" r:id="rId29" sheetId="27"/>
-    <sheet name="TC55" r:id="rId30" sheetId="22"/>
-    <sheet name="TC56-Custom Invoice Exp" r:id="rId31" sheetId="15"/>
-    <sheet name="TC57-Custom Invoice Imp" r:id="rId32" sheetId="16"/>
-    <sheet name="TC58n59" r:id="rId33" sheetId="28"/>
-    <sheet name="TC62" r:id="rId34" sheetId="51"/>
-    <sheet name="TC62-Setup Data" r:id="rId35" sheetId="55"/>
-    <sheet name="TC063" r:id="rId36" sheetId="29"/>
-    <sheet name="TC64n65_ForecastContainer" r:id="rId37" sheetId="37"/>
-    <sheet name="TC64n65_ForecastContainer-Manua" r:id="rId38" sheetId="47"/>
-    <sheet name="TC64n65_NonFContainer" r:id="rId39" sheetId="38"/>
-    <sheet name="TC067" r:id="rId40" sheetId="30"/>
-    <sheet name="TC068" r:id="rId41" sheetId="31"/>
-    <sheet name="TC069" r:id="rId42" sheetId="52"/>
-    <sheet name="TC070" r:id="rId43" sheetId="54"/>
-    <sheet name="TC072" r:id="rId44" sheetId="45"/>
-    <sheet name="TC073n074_ForecastContainer" r:id="rId45" sheetId="32"/>
-    <sheet name="TC073n074_Forecast-Manual" r:id="rId46" sheetId="48"/>
-    <sheet name="TC073n074_NonFContainer" r:id="rId47" sheetId="39"/>
-    <sheet name="TC075" r:id="rId48" sheetId="46"/>
-    <sheet name="TC076n077_ForecastContainer" r:id="rId49" sheetId="40"/>
-    <sheet name="TC076n077_Forecast-Manaul" r:id="rId50" sheetId="49"/>
-    <sheet name="TC076n077_NonFContainer" r:id="rId51" sheetId="41"/>
-    <sheet name="TC078" r:id="rId52" sheetId="58"/>
-    <sheet name="TC079" r:id="rId53" sheetId="34"/>
-    <sheet name="TC080" r:id="rId54" sheetId="35"/>
-    <sheet name="TC82-New Buyer GR Invoice" r:id="rId55" sheetId="64"/>
-    <sheet name="TC83-Inbound Shipping Details" r:id="rId56" sheetId="56"/>
-    <sheet name="TC084n085_ForecastContainer" r:id="rId57" sheetId="42"/>
-    <sheet name="TC084n085_Forecast-Manual" r:id="rId58" sheetId="50"/>
-    <sheet name="TC084n085_NonFContainer" r:id="rId59" sheetId="43"/>
-    <sheet name="TC086" r:id="rId60" sheetId="62"/>
+    <sheet name="Indicator" sheetId="66" r:id="rId1"/>
+    <sheet name="AutoIncrement" sheetId="14" r:id="rId2"/>
+    <sheet name="TC09-Create New User" sheetId="18" r:id="rId3"/>
+    <sheet name="TC14n15" sheetId="65" r:id="rId4"/>
+    <sheet name="TC019-Activate User" sheetId="61" r:id="rId5"/>
+    <sheet name="TC021-Forget Password" sheetId="59" r:id="rId6"/>
+    <sheet name="TC033" sheetId="19" r:id="rId7"/>
+    <sheet name="TC033_ETAnWeek" sheetId="20" r:id="rId8"/>
+    <sheet name="TC34" sheetId="9" r:id="rId9"/>
+    <sheet name="TC35-Contract Parts Info" sheetId="6" r:id="rId10"/>
+    <sheet name="TC35" sheetId="3" r:id="rId11"/>
+    <sheet name="TC038" sheetId="21" r:id="rId12"/>
+    <sheet name="TC039" sheetId="23" r:id="rId13"/>
+    <sheet name="S13_TC40" sheetId="44" r:id="rId14"/>
+    <sheet name="TC041 - Place Order (Regular)" sheetId="2" r:id="rId15"/>
+    <sheet name="TC041-Inbound Date" sheetId="13" r:id="rId16"/>
+    <sheet name="TC42" sheetId="4" r:id="rId17"/>
+    <sheet name="TC44" sheetId="5" r:id="rId18"/>
+    <sheet name="TC47-Change Order" sheetId="7" r:id="rId19"/>
+    <sheet name="TC47-Change Inbound Dates" sheetId="8" r:id="rId20"/>
+    <sheet name="TC48" sheetId="10" r:id="rId21"/>
+    <sheet name="TC049" sheetId="24" r:id="rId22"/>
+    <sheet name="TC050" sheetId="25" r:id="rId23"/>
+    <sheet name="TC52-Download Obound Form" sheetId="11" r:id="rId24"/>
+    <sheet name="TC52-Upload Obound Form" sheetId="12" r:id="rId25"/>
+    <sheet name="TC52-Upload Obound Setup" sheetId="17" r:id="rId26"/>
+    <sheet name="TC52-Autogen Outbound Data" sheetId="57" r:id="rId27"/>
+    <sheet name="TC053" sheetId="26" r:id="rId28"/>
+    <sheet name="TC054" sheetId="27" r:id="rId29"/>
+    <sheet name="TC55" sheetId="22" r:id="rId30"/>
+    <sheet name="TC56-Custom Invoice Exp" sheetId="15" r:id="rId31"/>
+    <sheet name="TC57-Custom Invoice Imp" sheetId="16" r:id="rId32"/>
+    <sheet name="TC58n59" sheetId="28" r:id="rId33"/>
+    <sheet name="TC62" sheetId="51" r:id="rId34"/>
+    <sheet name="TC62-Setup Data" sheetId="55" r:id="rId35"/>
+    <sheet name="TC063" sheetId="29" r:id="rId36"/>
+    <sheet name="TC64n65_ForecastContainer" sheetId="37" r:id="rId37"/>
+    <sheet name="TC64n65_ForecastContainer-Manua" sheetId="47" r:id="rId38"/>
+    <sheet name="TC64n65_NonFContainer" sheetId="38" r:id="rId39"/>
+    <sheet name="TC067" sheetId="30" r:id="rId40"/>
+    <sheet name="TC068" sheetId="31" r:id="rId41"/>
+    <sheet name="TC069" sheetId="52" r:id="rId42"/>
+    <sheet name="TC070" sheetId="54" r:id="rId43"/>
+    <sheet name="TC072" sheetId="45" r:id="rId44"/>
+    <sheet name="TC073n074_ForecastContainer" sheetId="32" r:id="rId45"/>
+    <sheet name="TC073n074_Forecast-Manual" sheetId="48" r:id="rId46"/>
+    <sheet name="TC073n074_NonFContainer" sheetId="39" r:id="rId47"/>
+    <sheet name="TC075" sheetId="46" r:id="rId48"/>
+    <sheet name="TC076n077_ForecastContainer" sheetId="40" r:id="rId49"/>
+    <sheet name="TC076n077_Forecast-Manaul" sheetId="49" r:id="rId50"/>
+    <sheet name="TC076n077_NonFContainer" sheetId="41" r:id="rId51"/>
+    <sheet name="TC078" sheetId="58" r:id="rId52"/>
+    <sheet name="TC079" sheetId="34" r:id="rId53"/>
+    <sheet name="TC080" sheetId="35" r:id="rId54"/>
+    <sheet name="TC82-New Buyer GR Invoice" sheetId="64" r:id="rId55"/>
+    <sheet name="TC83-Inbound Shipping Details" sheetId="56" r:id="rId56"/>
+    <sheet name="TC084n085_ForecastContainer" sheetId="42" r:id="rId57"/>
+    <sheet name="TC084n085_Forecast-Manual" sheetId="50" r:id="rId58"/>
+    <sheet name="TC084n085_NonFContainer" sheetId="43" r:id="rId59"/>
+    <sheet name="TC086" sheetId="62" r:id="rId60"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="303">
   <si>
     <t>Color</t>
   </si>
@@ -436,9 +436,6 @@
     <t>ContractRouteCode</t>
   </si>
   <si>
-    <t>R-PK-CUS-POC-2309005</t>
-  </si>
-  <si>
     <t>Firm</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
   </si>
   <si>
     <t>TW PORT</t>
-  </si>
-  <si>
-    <t>CR-PK-CUS-POC-2309002</t>
   </si>
   <si>
     <t>Contract route id</t>
@@ -1707,506 +1701,506 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="173">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="7" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="7" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="13" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="0" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="0" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="8" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="12" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="16" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="22" fillId="11" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="10" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="25" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="26" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="3" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="15" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="14" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="8" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="14" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="10" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="9" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="8" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" borderId="24" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="27" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" borderId="29" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="30" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="31" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="11" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="32" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="6" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2223,10 +2217,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2261,7 +2255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2296,7 +2290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2390,21 +2384,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2421,7 +2415,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2473,15 +2467,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
-  <dimension ref="B1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -2489,13 +2483,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row ht="15" r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
@@ -2533,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15" r="6" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="162"/>
       <c r="C6" s="163" t="s">
         <v>9</v>
@@ -2543,27 +2537,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="51.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -2611,7 +2605,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2629,47 +2623,47 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="68.44140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="68.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="44.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -2743,22 +2737,22 @@
         <v>112</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C2" s="23" t="str">
         <f>"CNTWSUP-PKCUS-"&amp;'TC35'!K2&amp;"-0"&amp;AutoIncrement!A2</f>
         <v>CNTWSUP-PKCUS-TB8-008</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>115</v>
       </c>
       <c r="F2" s="23">
         <v>1</v>
@@ -2788,10 +2782,10 @@
         <v>TB60BL8(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</v>
       </c>
       <c r="N2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>117</v>
       </c>
       <c r="P2" s="23" t="str">
         <f>'TC033'!A2&amp;"("&amp;'TC033'!A2&amp;")"</f>
@@ -2802,7 +2796,7 @@
         <v>RD-05-TB808</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S2" s="23" t="s">
         <v>67</v>
@@ -2811,26 +2805,26 @@
         <v>68</v>
       </c>
       <c r="U2" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="W2" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="23" t="s">
-        <v>121</v>
-      </c>
       <c r="X2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -2838,42 +2832,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="1" max="2" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="D1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="E1" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="G1" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="H1" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="124" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="125" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-2310028</v>
@@ -2894,7 +2888,7 @@
         <v>CNTWSUP-PKCUS-TB8-008</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="57" t="s">
         <v>67</v>
@@ -2904,7 +2898,7 @@
         <v>CNTWSUP-PKCUS TB8</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-2310028</v>
@@ -2925,7 +2919,7 @@
         <v>CNTWSUP-PKCUS-TB8-008</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="51" t="s">
         <v>67</v>
@@ -2935,7 +2929,7 @@
         <v>CNTWSUP-PKCUS TB8</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-2310028</v>
@@ -2956,7 +2950,7 @@
         <v>CNTWSUP-PKCUS-TB8-008</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>67</v>
@@ -2967,57 +2961,57 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="49" t="s">
+      <c r="H1" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="126" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-2310028</v>
@@ -3038,7 +3032,7 @@
         <v>CNTWSUP-PKCUS-TB8-008</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="57" t="s">
         <v>68</v>
@@ -3069,7 +3063,7 @@
         <v>CNTWSUP-PKCUS-TB8-008</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="51" t="s">
         <v>68</v>
@@ -3079,7 +3073,7 @@
         <v>CNTWSUP-PKCUS TB8</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-2310028</v>
@@ -3100,7 +3094,7 @@
         <v>CNTWSUP-PKCUS-TB8-008</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>68</v>
@@ -3111,54 +3105,54 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="E1" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="38" t="str">
         <f>"Cargo Status Setting for PK-CUS-POC-"&amp;'TC35'!K2&amp;"-"&amp;AutoIncrement!A2</f>
@@ -3168,7 +3162,7 @@
         <v>68</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2" s="39" t="str">
         <f>'TC35'!C2</f>
@@ -3176,13 +3170,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13:G14"/>
@@ -3190,24 +3184,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3238,7 +3232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="60">
         <v>3</v>
       </c>
@@ -3253,48 +3247,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="42" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>09 Dec 2023</v>
+        <v>31 Dec 2023</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -3302,7 +3296,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3310,10 +3304,10 @@
         <v>33</v>
       </c>
       <c r="B1" s="128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3323,13 +3317,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -3337,18 +3331,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3358,13 +3352,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -3372,21 +3366,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="3" max="4" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3415,7 +3409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3431,26 +3425,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103" t="s">
         <v>11</v>
       </c>
@@ -3461,25 +3455,25 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="102" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B2" s="32">
         <v>8</v>
       </c>
       <c r="C2" s="169" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
@@ -3487,44 +3481,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" s="115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+3), "dd MMM yyyy")</f>
-        <v>12 Dec 2023</v>
+        <v>03 Jan 2024</v>
       </c>
       <c r="C2" s="32" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+5), "dd MMM yyyy")</f>
-        <v>14 Dec 2023</v>
+        <v>05 Jan 2024</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
@@ -3532,18 +3526,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3553,124 +3547,124 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="O1" s="49" t="s">
         <v>164</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="P1" s="49" t="s">
         <v>103</v>
       </c>
       <c r="Q1" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="T1" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="U1" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="V1" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="W1" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="X1" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="W1" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="X1" s="50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.5" r="2" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTB8-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -3684,7 +3678,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -3709,10 +3703,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R2" s="57">
         <v>0</v>
@@ -3721,13 +3715,13 @@
         <v>150</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U2" s="57">
         <v>0</v>
       </c>
       <c r="V2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W2" s="57">
         <v>150</v>
@@ -3749,7 +3743,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -3774,10 +3768,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R3" s="51">
         <v>0</v>
@@ -3786,20 +3780,20 @@
         <v>100</v>
       </c>
       <c r="T3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U3" s="51">
         <v>50</v>
       </c>
       <c r="V3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W3" s="51">
         <v>150</v>
       </c>
       <c r="X3" s="67"/>
     </row>
-    <row ht="15" r="4" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -3814,7 +3808,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -3839,10 +3833,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R4" s="35">
         <v>0</v>
@@ -3851,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U4" s="35">
         <v>50</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W4" s="35">
         <v>50</v>
@@ -3865,123 +3859,123 @@
       <c r="X4" s="36"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
-  <dimension ref="A1:Z4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="26" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="129" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="J1" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="54" t="s">
-        <v>183</v>
-      </c>
       <c r="K1" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="M1" s="54" t="s">
+      <c r="N1" s="54" t="s">
         <v>164</v>
-      </c>
-      <c r="N1" s="54" t="s">
-        <v>166</v>
       </c>
       <c r="O1" s="54" t="s">
         <v>103</v>
       </c>
       <c r="P1" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="T1" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="U1" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="V1" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="W1" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="X1" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="Y1" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="X1" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y1" s="55" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTB8-2310001</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -3995,7 +3989,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I2" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -4017,10 +4011,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P2" s="51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="51">
         <v>0</v>
@@ -4035,13 +4029,13 @@
         <v>150</v>
       </c>
       <c r="U2" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V2" s="51">
         <v>0</v>
       </c>
       <c r="W2" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X2" s="51">
         <v>150</v>
@@ -4063,7 +4057,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -4085,10 +4079,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q3" s="51">
         <v>0</v>
@@ -4103,20 +4097,20 @@
         <v>100</v>
       </c>
       <c r="U3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V3" s="51">
         <v>50</v>
       </c>
       <c r="W3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X3" s="51">
         <v>150</v>
       </c>
       <c r="Y3" s="67"/>
     </row>
-    <row ht="15" r="4" spans="1:25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -4131,7 +4125,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -4153,10 +4147,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="35">
         <v>0</v>
@@ -4171,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V4" s="35">
         <v>50</v>
       </c>
       <c r="W4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X4" s="35">
         <v>50</v>
@@ -4185,13 +4179,13 @@
       <c r="Y4" s="36"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -4199,34 +4193,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="114" t="s">
         <v>194</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="114" t="s">
-        <v>196</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -4237,61 +4230,61 @@
         <v>68</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E2" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"dd/m/yyyy")</f>
-        <v>09/10/2023</v>
+        <v>31/10/2023</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="E1" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="G1" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4300,24 +4293,24 @@
       </c>
       <c r="B2" s="130" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231009-08</v>
+        <v>o-CNTW-SUP-POC-231031-08</v>
       </c>
       <c r="C2" s="131" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="D2" s="131" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" s="131" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231009-08</v>
+        <v>O-231031-08</v>
       </c>
       <c r="F2" s="131" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G2" s="132" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -4326,57 +4319,57 @@
       </c>
       <c r="B3" s="133" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231009-08</v>
+        <v>o-CNTW-SUP-POC-231031-08</v>
       </c>
       <c r="C3" s="134" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E3" s="134" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231009-08</v>
+        <v>O-231031-08</v>
       </c>
       <c r="F3" s="134" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G3" s="135" t="s">
         <v>33</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="136" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231009-08</v>
+        <v>o-CNTW-SUP-POC-231031-08</v>
       </c>
       <c r="C4" s="137" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="137" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231009-08</v>
+        <v>O-231031-08</v>
       </c>
       <c r="F4" s="137" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G4" s="138" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4385,36 +4378,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!A2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400BBE19-7391-40E2-B8EE-A3263958B10A}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400BBE19-7391-40E2-B8EE-A3263958B10A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
@@ -4422,145 +4415,145 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="139" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>215</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BCD4A-9E59-457E-8F07-757864EE6B7B}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BCD4A-9E59-457E-8F07-757864EE6B7B}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="J1" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>183</v>
-      </c>
       <c r="K1" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>164</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="O1" s="49" t="s">
         <v>103</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="T1" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="U1" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="V1" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="W1" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="W1" s="50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTB8-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -4574,7 +4567,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -4596,10 +4589,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q2" s="57">
         <v>150</v>
@@ -4614,16 +4607,16 @@
         <v>150</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V2" s="57">
         <v>0</v>
       </c>
       <c r="W2" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row ht="28.8" r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -4638,7 +4631,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -4660,10 +4653,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="51">
         <v>150</v>
@@ -4678,16 +4671,16 @@
         <v>100</v>
       </c>
       <c r="U3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V3" s="51">
         <v>50</v>
       </c>
       <c r="W3" s="67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row ht="29.4" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -4702,7 +4695,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -4724,10 +4717,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="35">
         <v>50</v>
@@ -4742,127 +4735,127 @@
         <v>0</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V4" s="35">
         <v>50</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D7E12-5300-4A09-AA7E-C1C955B569DD}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D7E12-5300-4A09-AA7E-C1C955B569DD}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="O1" s="49" t="s">
         <v>164</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="P1" s="49" t="s">
         <v>103</v>
       </c>
       <c r="Q1" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="T1" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="U1" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="V1" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="W1" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="V1" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="W1" s="75" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTB8-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -4876,7 +4869,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -4901,10 +4894,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R2" s="57">
         <v>0</v>
@@ -4913,13 +4906,13 @@
         <v>150</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U2" s="57">
         <v>0</v>
       </c>
       <c r="V2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W2" s="71">
         <v>150</v>
@@ -4940,7 +4933,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -4965,10 +4958,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R3" s="51">
         <v>0</v>
@@ -4977,19 +4970,19 @@
         <v>100</v>
       </c>
       <c r="T3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U3" s="51">
         <v>50</v>
       </c>
       <c r="V3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W3" s="67">
         <v>150</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5004,7 +4997,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -5029,10 +5022,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R4" s="35">
         <v>0</v>
@@ -5041,45 +5034,45 @@
         <v>0</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U4" s="35">
         <v>50</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W4" s="36">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF25709-9C2B-4E3D-B69D-6D4636930677}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF25709-9C2B-4E3D-B69D-6D4636930677}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="41.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="48.44140625" collapsed="true"/>
+    <col min="1" max="2" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="48.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -5111,7 +5104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="58.2" r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -5148,15 +5141,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2" xr:uid="{4D98E823-CA4F-482C-9BAD-E97C9E972293}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4D98E823-CA4F-482C-9BAD-E97C9E972293}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4216E-849B-435B-9F17-D9E1A9EDF9D8}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4216E-849B-435B-9F17-D9E1A9EDF9D8}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5164,33 +5157,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="139" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1701B649-547E-4FB3-9112-ED34471CFB15}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1701B649-547E-4FB3-9112-ED34471CFB15}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -5198,18 +5191,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -5219,14 +5212,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF9481-7D4D-4350-A942-13BCBB2DB6C8}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF9481-7D4D-4350-A942-13BCBB2DB6C8}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5234,18 +5227,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -5255,398 +5248,398 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03306B6-D5F9-45C7-B4C8-70393277B99F}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03306B6-D5F9-45C7-B4C8-70393277B99F}">
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="31" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18.75" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="49" t="s">
+      <c r="E1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="S1" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="V1" s="126" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" s="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V3" s="67" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="15" r="4" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D772A37-567D-4E83-92B1-382F9C11B95F}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D772A37-567D-4E83-92B1-382F9C11B95F}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="G1" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="141" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="I1" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="J1" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="K1" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="L1" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="M1" s="86" t="s">
         <v>253</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="N1" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="O1" s="87" t="s">
         <v>255</v>
-      </c>
-      <c r="N1" s="86" t="s">
-        <v>256</v>
-      </c>
-      <c r="O1" s="87" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -5656,34 +5649,34 @@
         <v>87</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" s="57" t="s">
         <v>87</v>
       </c>
       <c r="F2" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="84">
+        <f ca="1">TODAY()-2</f>
+        <v>45228</v>
+      </c>
+      <c r="H2" s="84">
+        <f ca="1">TODAY()</f>
+        <v>45230</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="84">
+        <f ca="1">TODAY()-2</f>
+        <v>45228</v>
+      </c>
+      <c r="K2" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="84" t="n">
-        <f ca="1">TODAY()-2</f>
-        <v>45206.0</v>
-      </c>
-      <c r="H2" s="84" t="n">
-        <f ca="1">TODAY()</f>
-        <v>45208.0</v>
-      </c>
-      <c r="I2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>259</v>
-      </c>
-      <c r="J2" s="84" t="n">
-        <f ca="1">TODAY()-2</f>
-        <v>45206.0</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>261</v>
       </c>
       <c r="M2" s="83">
         <v>1</v>
@@ -5698,44 +5691,44 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" s="78" t="n">
+        <v>224</v>
+      </c>
+      <c r="G3" s="78">
         <f ca="1">TODAY()-2</f>
-        <v>45206.0</v>
-      </c>
-      <c r="H3" s="78" t="n">
+        <v>45228</v>
+      </c>
+      <c r="H3" s="78">
         <f ca="1">TODAY()</f>
-        <v>45208.0</v>
+        <v>45230</v>
       </c>
       <c r="I3" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="78">
+        <f ca="1">TODAY()-2</f>
+        <v>45228</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" s="77" t="s">
         <v>259</v>
-      </c>
-      <c r="J3" s="78" t="n">
-        <f ca="1">TODAY()-2</f>
-        <v>45206.0</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="L3" s="77" t="s">
-        <v>261</v>
       </c>
       <c r="M3" s="77">
         <v>1</v>
@@ -5747,44 +5740,44 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="81" t="n">
+        <v>224</v>
+      </c>
+      <c r="G4" s="81">
         <f ca="1">TODAY()-2</f>
-        <v>45206.0</v>
-      </c>
-      <c r="H4" s="81" t="n">
+        <v>45228</v>
+      </c>
+      <c r="H4" s="81">
         <f ca="1">TODAY()</f>
-        <v>45208.0</v>
+        <v>45230</v>
       </c>
       <c r="I4" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="81">
+        <f ca="1">TODAY()-2</f>
+        <v>45228</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" s="80" t="s">
         <v>259</v>
-      </c>
-      <c r="J4" s="81" t="n">
-        <f ca="1">TODAY()-2</f>
-        <v>45206.0</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>261</v>
       </c>
       <c r="M4" s="80">
         <v>1</v>
@@ -5798,13 +5791,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD02FE-AA4B-428E-9B78-278B57847991}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD02FE-AA4B-428E-9B78-278B57847991}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -5812,42 +5805,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="3.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="B2" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>259</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>261</v>
       </c>
       <c r="D2" s="23">
         <v>1</v>
@@ -5860,13 +5853,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0AD79-4FCB-46DC-A08C-112B19B717BD}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0AD79-4FCB-46DC-A08C-112B19B717BD}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -5874,137 +5867,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="26.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="27.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="1" max="1" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="142" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="D1" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="142" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="143" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>269</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348AADB4-8411-4027-B481-AA1BBB3ACA38}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348AADB4-8411-4027-B481-AA1BBB3ACA38}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="9" max="15" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
+    <col min="9" max="15" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="G1" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -6015,140 +6008,140 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E62800-D4A5-472B-9BE2-2F94BD717192}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E62800-D4A5-472B-9BE2-2F94BD717192}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="G1" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -6159,295 +6152,296 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FF13D-341C-43F0-8A8A-D4F730016CCF}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FF13D-341C-43F0-8A8A-D4F730016CCF}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="40.5546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="40.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="146" t="s">
+      <c r="E1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="F1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="S1" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="V1" s="126" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="1" max="2" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -6457,8 +6451,11 @@
       <c r="C1" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="str">
         <f>"PK-SUP-POC-"&amp;AutoIncrement!B2</f>
         <v>PK-SUP-POC-8</v>
@@ -6471,111 +6468,115 @@
         <f>"PK-CUS by Upload S13-"&amp;AutoIncrement!B2</f>
         <v>PK-CUS by Upload S13-8</v>
       </c>
+      <c r="D2" t="str">
+        <f>'TC09-Create New User'!$D$2</f>
+        <v>PK-CUS-POC-S13-8</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808944C-B0B2-4920-AD71-CE618523B6BF}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808944C-B0B2-4920-AD71-CE618523B6BF}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="148" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="148" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="148" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>183</v>
-      </c>
       <c r="K1" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>164</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="O1" s="49" t="s">
         <v>103</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="T1" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="U1" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="V1" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="W1" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="W1" s="50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTB8-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -6589,7 +6590,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -6611,10 +6612,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q2" s="57">
         <v>150</v>
@@ -6629,16 +6630,16 @@
         <v>150</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V2" s="57">
         <v>0</v>
       </c>
       <c r="W2" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row ht="28.8" r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -6653,7 +6654,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -6675,10 +6676,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="51">
         <v>150</v>
@@ -6693,16 +6694,16 @@
         <v>100</v>
       </c>
       <c r="U3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V3" s="51">
         <v>50</v>
       </c>
       <c r="W3" s="67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row ht="29.4" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6717,7 +6718,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -6739,10 +6740,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="35">
         <v>50</v>
@@ -6757,23 +6758,23 @@
         <v>0</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V4" s="35">
         <v>50</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F40A71-BF3A-496C-A7FF-1B4DB5531565}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F40A71-BF3A-496C-A7FF-1B4DB5531565}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
@@ -6781,97 +6782,97 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="46.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="O1" s="49" t="s">
         <v>164</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="P1" s="49" t="s">
         <v>103</v>
       </c>
       <c r="Q1" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="T1" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="U1" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="V1" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="W1" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="V1" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="W1" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTB8-2310001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6885,7 +6886,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I2" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -6910,10 +6911,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R2" s="57">
         <v>0</v>
@@ -6922,13 +6923,13 @@
         <v>150</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U2" s="57">
         <v>0</v>
       </c>
       <c r="V2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W2" s="71">
         <v>150</v>
@@ -6948,7 +6949,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -6973,10 +6974,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R3" s="51">
         <v>0</v>
@@ -6985,19 +6986,19 @@
         <v>100</v>
       </c>
       <c r="T3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U3" s="51">
         <v>50</v>
       </c>
       <c r="V3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W3" s="67">
         <v>150</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7012,7 +7013,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -7037,10 +7038,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R4" s="35">
         <v>0</v>
@@ -7049,26 +7050,26 @@
         <v>0</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U4" s="35">
         <v>50</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W4" s="36">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0931027-A5AD-49AE-810F-7FADA3157995}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0931027-A5AD-49AE-810F-7FADA3157995}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -7076,31 +7077,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="149" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="149" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="149" t="s">
-        <v>201</v>
-      </c>
       <c r="D1" s="116" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E1" s="149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F1" s="149" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>23</v>
@@ -7112,14 +7113,14 @@
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231009-08</v>
+        <v>o-CNTW-SUP-POC-231031-08</v>
       </c>
       <c r="C2" s="62" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
         <v/>
       </c>
       <c r="D2" s="62" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E2" s="94" t="str">
         <f>'TC52-Autogen Outbound Data'!$C$2</f>
@@ -7130,7 +7131,7 @@
         <v>Oct 19, 2023</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -7139,14 +7140,14 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231009-08</v>
+        <v>o-CNTW-SUP-POC-231031-08</v>
       </c>
       <c r="C3" s="28" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E3" s="92" t="str">
         <f>'TC52-Autogen Outbound Data'!C$2</f>
@@ -7158,20 +7159,20 @@
       </c>
       <c r="G3" s="59"/>
     </row>
-    <row ht="15" r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231009-08</v>
+        <v>o-CNTW-SUP-POC-231031-08</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E4" s="93" t="str">
         <f>'TC52-Autogen Outbound Data'!C$2</f>
@@ -7185,14 +7186,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6DCE6-F15B-496A-A206-2533B2496A1A}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6DCE6-F15B-496A-A206-2533B2496A1A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -7200,25 +7201,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D1" s="115" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -7236,13 +7237,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B90B1-1C0F-4D16-8A2E-70D3AF44BB6D}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B90B1-1C0F-4D16-8A2E-70D3AF44BB6D}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
@@ -7250,22 +7251,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C1" s="115" t="s">
         <v>93</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -7279,93 +7280,93 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D05459-7404-4903-8ECD-BB35C359893B}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D05459-7404-4903-8ECD-BB35C359893B}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="G1" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -7376,129 +7377,129 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1DACA5-2EF3-4469-B44A-F4DA1792D9DF}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1DACA5-2EF3-4469-B44A-F4DA1792D9DF}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="G1" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -7509,282 +7510,282 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B7B88-2829-4C6F-982F-5A668DC56303}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B7B88-2829-4C6F-982F-5A668DC56303}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="146" t="s">
+      <c r="E1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="F1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="S1" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="V1" s="126" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F1CFB-64E3-4394-A87B-83BC582160E0}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F1CFB-64E3-4394-A87B-83BC582160E0}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
@@ -7792,19 +7793,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -7814,91 +7815,91 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3AE7A-F993-419E-BE5E-9D8E310A742B}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3AE7A-F993-419E-BE5E-9D8E310A742B}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="G1" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -7909,50 +7910,50 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -7960,16 +7961,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="1" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="113" t="str">
         <f>'TC09-Create New User'!A1</f>
         <v>LoginID</v>
@@ -8002,7 +8003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="str">
         <f>'TC09-Create New User'!A2</f>
         <v>musyarustb2</v>
@@ -8036,100 +8037,100 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6107947-A69E-40DB-BE93-3997BF1B55A0}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6107947-A69E-40DB-BE93-3997BF1B55A0}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="G1" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -8140,303 +8141,303 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290B96C-15D8-4BA3-B982-FC9C29C6AD4B}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290B96C-15D8-4BA3-B982-FC9C29C6AD4B}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="146" t="s">
+      <c r="E1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="F1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="S1" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="U1" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="V1" s="126" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBE0E9-79E8-418F-9849-CFC8B8CDB64E}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBE0E9-79E8-418F-9849-CFC8B8CDB64E}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:13" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="str">
         <f>'TC069'!A1</f>
         <v>No</v>
@@ -8457,34 +8458,34 @@
         <v>InboundNo</v>
       </c>
       <c r="F1" s="114" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="114" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="I1" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="8">
         <f>'TC069'!A2</f>
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="150" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
@@ -8492,7 +8493,7 @@
       </c>
       <c r="C2" s="62" t="str">
         <f ca="1">'TC069'!B2</f>
-        <v>o-CNTW-SUP-POC-231009-08</v>
+        <v>o-CNTW-SUP-POC-231031-08</v>
       </c>
       <c r="D2" s="62" t="str">
         <f>'TC069'!C2</f>
@@ -8504,11 +8505,11 @@
       </c>
       <c r="F2" s="151" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231009-TB8-001</v>
+        <v>i-CNTW-SUP-POC-231031-TB8-001</v>
       </c>
       <c r="G2" s="62" t="str">
         <f ca="1">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>9 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
@@ -8524,9 +8525,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="9">
         <f>'TC069'!A3</f>
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="152" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
@@ -8534,7 +8535,7 @@
       </c>
       <c r="C3" s="28" t="str">
         <f ca="1">'TC069'!B3</f>
-        <v>o-CNTW-SUP-POC-231009-08</v>
+        <v>o-CNTW-SUP-POC-231031-08</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>'TC069'!C3</f>
@@ -8546,11 +8547,11 @@
       </c>
       <c r="F3" s="153" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231009-TB8-001</v>
+        <v>i-CNTW-SUP-POC-231031-TB8-001</v>
       </c>
       <c r="G3" s="28" t="str">
-        <f ca="1" ref="G3:G4" si="0" t="shared">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>9 Oct 2023</v>
+        <f t="shared" ref="G3:G4" ca="1" si="0">TEXT(TODAY(),"d mmm yyyy")</f>
+        <v>31 Oct 2023</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -8571,10 +8572,10 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:13" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="n">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <f>'TC069'!A4</f>
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="154" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
@@ -8582,7 +8583,7 @@
       </c>
       <c r="C4" s="29" t="str">
         <f ca="1">'TC069'!B4</f>
-        <v>o-CNTW-SUP-POC-231009-08</v>
+        <v>o-CNTW-SUP-POC-231031-08</v>
       </c>
       <c r="D4" s="29" t="str">
         <f>'TC069'!C4</f>
@@ -8594,11 +8595,11 @@
       </c>
       <c r="F4" s="155" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231009-TB8-001</v>
+        <v>i-CNTW-SUP-POC-231031-TB8-001</v>
       </c>
       <c r="G4" s="29" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>9 Oct 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31 Oct 2023</v>
       </c>
       <c r="H4" s="29">
         <v>1</v>
@@ -8621,109 +8622,109 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66732EE-4FDA-4DBC-BEA7-44295A7F0311}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66732EE-4FDA-4DBC-BEA7-44295A7F0311}">
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="49.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="19" max="20" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="O1" s="49" t="s">
         <v>164</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="P1" s="49" t="s">
         <v>103</v>
       </c>
       <c r="Q1" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="T1" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="U1" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="V1" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="V1" s="50" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTB8-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -8737,7 +8738,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -8762,10 +8763,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R2" s="57">
         <v>150</v>
@@ -8774,16 +8775,16 @@
         <v>150</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U2" s="57">
         <v>0</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row ht="28.8" r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -8798,7 +8799,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -8823,10 +8824,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R3" s="51">
         <v>150</v>
@@ -8835,16 +8836,16 @@
         <v>100</v>
       </c>
       <c r="T3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U3" s="51">
         <v>50</v>
       </c>
       <c r="V3" s="67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row ht="29.4" r="4" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -8859,7 +8860,7 @@
         <v>PK-CUS-TB8-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC44'!B2</f>
@@ -8884,10 +8885,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R4" s="35">
         <v>50</v>
@@ -8896,117 +8897,117 @@
         <v>0</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U4" s="35">
         <v>50</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BE75F-BAF6-44E6-8F2F-031535BEC4F7}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BE75F-BAF6-44E6-8F2F-031535BEC4F7}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="J1" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>183</v>
-      </c>
       <c r="K1" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>164</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="O1" s="49" t="s">
         <v>103</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="T1" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="U1" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="V1" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="W1" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="W1" s="50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTB8-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -9020,7 +9021,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -9042,10 +9043,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q2" s="57">
         <v>150</v>
@@ -9060,16 +9061,16 @@
         <v>150</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V2" s="57">
         <v>0</v>
       </c>
       <c r="W2" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row ht="28.8" r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -9084,7 +9085,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -9106,10 +9107,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="51">
         <v>150</v>
@@ -9124,16 +9125,16 @@
         <v>100</v>
       </c>
       <c r="U3" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V3" s="51">
         <v>50</v>
       </c>
       <c r="W3" s="67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row ht="29.4" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -9148,7 +9149,7 @@
         <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
@@ -9170,10 +9171,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="35">
         <v>50</v>
@@ -9188,23 +9189,23 @@
         <v>0</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V4" s="35">
         <v>50</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13277385-296B-48F5-ABFB-2898AB800E9A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13277385-296B-48F5-ABFB-2898AB800E9A}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -9212,33 +9213,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="139" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478A9AA-0EB8-4607-A679-CAA9C8DC9ACC}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478A9AA-0EB8-4607-A679-CAA9C8DC9ACC}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
@@ -9246,11 +9247,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="158" width="8.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="158" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="158" width="12.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="158" width="38.6640625" collapsed="true"/>
-    <col min="5" max="16384" style="158" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="8.88671875" style="158" collapsed="1"/>
+    <col min="2" max="2" width="16.109375" style="158" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" style="158" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.6640625" style="158" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="158" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -9258,16 +9259,16 @@
         <v>33</v>
       </c>
       <c r="B1" s="157" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C1" s="157" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D1" s="156" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E1" s="157" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -9276,14 +9277,14 @@
       </c>
       <c r="B2" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="C2" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D2="","",'TC52-Upload Obound Form'!D2)</f>
         <v>SEGU5069987</v>
       </c>
       <c r="D2" s="159" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E2" s="160" t="str">
         <f>'TC52-Upload Obound Form'!G2</f>
@@ -9296,14 +9297,14 @@
       </c>
       <c r="B3" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="C3" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D3="","",'TC52-Upload Obound Form'!D3)</f>
         <v>CNO1234</v>
       </c>
       <c r="D3" s="159" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>'TC52-Upload Obound Form'!G3</f>
@@ -9316,14 +9317,14 @@
       </c>
       <c r="B4" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="C4" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
         <v/>
       </c>
       <c r="D4" s="159" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E4" s="160" t="str">
         <f>'TC52-Upload Obound Form'!G4</f>
@@ -9332,91 +9333,91 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ABFAF8-D337-497A-8E07-5F791D04721C}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ABFAF8-D337-497A-8E07-5F791D04721C}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="6" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="G1" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -9427,126 +9428,126 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321F03C-7E3F-491D-84BC-0DD6B062080D}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321F03C-7E3F-491D-84BC-0DD6B062080D}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="G1" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -9557,299 +9558,299 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD6870-87F3-4941-BFA6-FB0F0EDE2000}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD6870-87F3-4941-BFA6-FB0F0EDE2000}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="49" t="s">
+      <c r="E1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="F1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="M1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="S1" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="V1" s="126" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="43.6640625" collapsed="true"/>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="43.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="113" t="s">
         <v>33</v>
       </c>
@@ -9896,7 +9897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row ht="29.4" r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -9943,13 +9944,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5B5AF-A084-4EF7-9F9D-0F10CC18FDD7}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5B5AF-A084-4EF7-9F9D-0F10CC18FDD7}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -9957,39 +9958,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.2" r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="C2" s="101" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -9998,71 +9999,71 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="C3" s="99" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231009-TB8-08</v>
+        <v>B-231031-TB8-08</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="39.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15" r="1" s="27" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="117" t="s">
         <v>39</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="2" s="27" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f>"CNTWSUP-PKCUS "&amp;AutoIncrement!C2</f>
         <v>CNTWSUP-PKCUS TB8</v>
@@ -10212,39 +10213,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="ETDWeekDay (click here to set ETD days)" location="RANGE!A1" ref="O1" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
-    <hyperlink display="Shipping Frequency Weeks (Click here to add week)" location="RANGE!A1" ref="X1" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
+    <hyperlink ref="O1" location="RANGE!A1" display="ETDWeekDay (click here to set ETD days)" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
+    <hyperlink ref="X1" location="RANGE!A1" display="Shipping Frequency Weeks (Click here to add week)" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="10.44140625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="27" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="11.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="11.33203125" collapsed="true"/>
-    <col min="12" max="14" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="27" width="29.88671875" collapsed="true"/>
-    <col min="16" max="16384" style="27" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="18.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.44140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.6640625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.6640625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.88671875" style="27" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="27" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>70</v>
       </c>
@@ -10291,7 +10292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>85</v>
       </c>
@@ -10340,13 +10341,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -10354,11 +10355,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -10376,11 +10377,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -10551,22 +10567,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C04EBEA-A692-4245-ACA9-C2F3A01D3C88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10583,21 +10601,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F76105-6BB6-49D4-8EEF-17720DF45A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0C7D6C-7621-4BF7-B883-C353F8F872A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="66" r:id="rId1"/>
@@ -994,16 +994,16 @@
     <t>StatusUpdate</t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>TB8</t>
-  </si>
-  <si>
     <t>R-PK-CUS-POC-2310039</t>
   </si>
   <si>
     <t>CR-PK-CUS-POC-2310028</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>TB9</t>
   </si>
 </sst>
 </file>
@@ -2545,7 +2545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2577,15 +2577,15 @@
       </c>
       <c r="B2" s="170" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614011"</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="C2" s="171" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TB9-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="172" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2594,15 +2594,15 @@
       </c>
       <c r="B3" s="170" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614012"</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="C3" s="171" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TB9-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="172" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2611,15 +2611,15 @@
       </c>
       <c r="B4" s="170" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614013"</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="C4" s="171" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TB9-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="172" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
       </c>
     </row>
   </sheetData>
@@ -2742,11 +2742,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" s="23" t="str">
         <f>"CNTWSUP-PKCUS-"&amp;'TC35'!K2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>CNTWSUP-PKCUS-TB8-008</v>
+        <v>CNTWSUP-PKCUS-TB9-009</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>113</v>
@@ -2771,15 +2771,15 @@
       </c>
       <c r="K2" s="23" t="str">
         <f>AutoIncrement!C2</f>
-        <v>TB8</v>
+        <v>TB9</v>
       </c>
       <c r="L2" s="23" t="str">
         <f>"CD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>CD-05-TB808</v>
+        <v>CD-05-TB909</v>
       </c>
       <c r="M2" s="23" t="str">
         <f>"TB60BL"&amp;AutoIncrement!$B$2&amp;"(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)"</f>
-        <v>TB60BL8(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</v>
+        <v>TB60BL5(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>115</v>
@@ -2789,11 +2789,11 @@
       </c>
       <c r="P2" s="23" t="str">
         <f>'TC033'!A2&amp;"("&amp;'TC033'!A2&amp;")"</f>
-        <v>CNTWSUP-PKCUS TB8(CNTWSUP-PKCUS TB8)</v>
+        <v>CNTWSUP-PKCUS TB9(CNTWSUP-PKCUS TB9)</v>
       </c>
       <c r="Q2" s="23" t="str">
         <f>"RD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>RD-05-TB808</v>
+        <v>RD-05-TB909</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>117</v>
@@ -2814,7 +2814,7 @@
         <v>120</v>
       </c>
       <c r="X2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2874,18 +2874,18 @@
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="C2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TB9-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="57" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB8-008</v>
+        <v>CNTWSUP-PKCUS-TB9-009</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>116</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="H2" s="71" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB8</v>
+        <v>CNTWSUP-PKCUS TB9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2905,18 +2905,18 @@
       </c>
       <c r="B3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="C3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TB9-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="51" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB8-008</v>
+        <v>CNTWSUP-PKCUS-TB9-009</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>116</v>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="H3" s="67" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB8</v>
+        <v>CNTWSUP-PKCUS TB9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2936,18 +2936,18 @@
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="C4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TB9-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="35" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB8-008</v>
+        <v>CNTWSUP-PKCUS-TB9-009</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>116</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB8</v>
+        <v>CNTWSUP-PKCUS TB9</v>
       </c>
     </row>
   </sheetData>
@@ -3018,18 +3018,18 @@
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="C2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="57" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB8-008</v>
+        <v>CNTWSUP-PKCUS-TB9-009</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>116</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H2" s="71" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB8</v>
+        <v>CNTWSUP-PKCUS TB9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3049,18 +3049,18 @@
       </c>
       <c r="B3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="C3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="51" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB8-008</v>
+        <v>CNTWSUP-PKCUS-TB9-009</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>116</v>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="H3" s="67" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB8</v>
+        <v>CNTWSUP-PKCUS TB9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3080,18 +3080,18 @@
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="C4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="35" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB8-008</v>
+        <v>CNTWSUP-PKCUS-TB9-009</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>116</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB8</v>
+        <v>CNTWSUP-PKCUS TB9</v>
       </c>
     </row>
   </sheetData>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C2" s="38" t="str">
         <f>"Cargo Status Setting for PK-CUS-POC-"&amp;'TC35'!K2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>Cargo Status Setting for PK-CUS-POC-TB8-08</v>
+        <v>Cargo Status Setting for PK-CUS-POC-TB9-09</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>68</v>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="F2" s="39" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB8-008</v>
+        <v>CNTWSUP-PKCUS-TB9-009</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B2" s="30" t="str">
         <f ca="1">"c"&amp;'TC35'!K2&amp;"-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">"s" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
     </row>
   </sheetData>
@@ -3433,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="102" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="169" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">"rc" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>rcTB8-2310001</v>
+        <v>rcTB9-2310001</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3661,7 @@
     <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>173</v>
@@ -3671,18 +3671,18 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="G2" s="70" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TB9-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>67</v>
@@ -3736,18 +3736,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="G3" s="66" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TB9-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>67</v>
@@ -3801,18 +3801,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="G4" s="68" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TB9-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>67</v>
@@ -3972,7 +3972,7 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>173</v>
@@ -3982,18 +3982,18 @@
       <c r="E2" s="51"/>
       <c r="F2" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="G2" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J2" s="52" t="s">
         <v>68</v>
@@ -4050,18 +4050,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>68</v>
@@ -4118,18 +4118,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>68</v>
@@ -4293,18 +4293,18 @@
       </c>
       <c r="B2" s="130" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231031-08</v>
+        <v>o-CNTW-SUP-POC-231031-09</v>
       </c>
       <c r="C2" s="131" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="D2" s="131" t="s">
         <v>203</v>
       </c>
       <c r="E2" s="131" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231031-08</v>
+        <v>O-231031-09</v>
       </c>
       <c r="F2" s="131" t="s">
         <v>204</v>
@@ -4319,18 +4319,18 @@
       </c>
       <c r="B3" s="133" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231031-08</v>
+        <v>o-CNTW-SUP-POC-231031-09</v>
       </c>
       <c r="C3" s="134" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="D3" s="134" t="s">
         <v>206</v>
       </c>
       <c r="E3" s="134" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231031-08</v>
+        <v>O-231031-09</v>
       </c>
       <c r="F3" s="134" t="s">
         <v>207</v>
@@ -4345,16 +4345,16 @@
       </c>
       <c r="B4" s="136" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231031-08</v>
+        <v>o-CNTW-SUP-POC-231031-09</v>
       </c>
       <c r="C4" s="137" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="137" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231031-08</v>
+        <v>O-231031-09</v>
       </c>
       <c r="F4" s="137" t="s">
         <v>204</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!A2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
     </row>
   </sheetData>
@@ -4550,7 +4550,7 @@
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>214</v>
@@ -4560,18 +4560,18 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>68</v>
@@ -4624,18 +4624,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>68</v>
@@ -4688,18 +4688,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>68</v>
@@ -4852,7 +4852,7 @@
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>173</v>
@@ -4862,18 +4862,18 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TB9-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>67</v>
@@ -4926,18 +4926,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TB9-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>67</v>
@@ -4990,18 +4990,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TB9-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>67</v>
@@ -5116,15 +5116,15 @@
       </c>
       <c r="D2" s="21" t="str">
         <f>"PK-CUS-POC-S13-"&amp;AutoIncrement!B2</f>
-        <v>PK-CUS-POC-S13-8</v>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="E2" s="21" t="str">
         <f>"PK-CUS by Upload S13-"&amp;AutoIncrement!B2</f>
-        <v>PK-CUS by Upload S13-8</v>
+        <v>PK-CUS by Upload S13-5</v>
       </c>
       <c r="F2" s="21" t="str">
         <f>D2&amp;" ( PK-CUS by Upload S13-"&amp;AutoIncrement!B2&amp;" )"</f>
-        <v>PK-CUS-POC-S13-8 ( PK-CUS by Upload S13-8 )</v>
+        <v>PK-CUS-POC-S13-5 ( PK-CUS by Upload S13-5 )</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>26</v>
@@ -5357,7 +5357,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -5427,7 +5427,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -5497,7 +5497,7 @@
     <row r="4" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35" t="s">
@@ -5639,7 +5639,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -5691,7 +5691,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -5743,7 +5743,7 @@
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="80" t="s">
@@ -5990,7 +5990,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -6134,7 +6134,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -6287,7 +6287,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -6357,7 +6357,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -6458,19 +6458,19 @@
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="str">
         <f>"PK-SUP-POC-"&amp;AutoIncrement!B2</f>
-        <v>PK-SUP-POC-8</v>
+        <v>PK-SUP-POC-5</v>
       </c>
       <c r="B2" s="21" t="str">
         <f>"PK-BU-POC-"&amp;AutoIncrement!B2</f>
-        <v>PK-BU-POC-8</v>
+        <v>PK-BU-POC-5</v>
       </c>
       <c r="C2" s="25" t="str">
         <f>"PK-CUS by Upload S13-"&amp;AutoIncrement!B2</f>
-        <v>PK-CUS by Upload S13-8</v>
+        <v>PK-CUS by Upload S13-5</v>
       </c>
       <c r="D2" t="str">
         <f>'TC09-Create New User'!$D$2</f>
-        <v>PK-CUS-POC-S13-8</v>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
     </row>
   </sheetData>
@@ -6573,7 +6573,7 @@
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>214</v>
@@ -6583,18 +6583,18 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>68</v>
@@ -6647,18 +6647,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>68</v>
@@ -6711,18 +6711,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>68</v>
@@ -6869,7 +6869,7 @@
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>215</v>
@@ -6879,18 +6879,18 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TB9-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>67</v>
@@ -6942,18 +6942,18 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TB9-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>67</v>
@@ -7006,18 +7006,18 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TB9-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>67</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231031-08</v>
+        <v>o-CNTW-SUP-POC-231031-09</v>
       </c>
       <c r="C2" s="62" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231031-08</v>
+        <v>o-CNTW-SUP-POC-231031-09</v>
       </c>
       <c r="C3" s="28" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231031-08</v>
+        <v>o-CNTW-SUP-POC-231031-09</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C2" s="32" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB8-008</v>
+        <v>CNTWSUP-PKCUS-TB9-009</v>
       </c>
     </row>
   </sheetData>
@@ -7359,7 +7359,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7492,7 +7492,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7644,7 +7644,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -7714,7 +7714,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -7892,7 +7892,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -8018,15 +8018,15 @@
       </c>
       <c r="D2" s="23" t="str">
         <f>'TC09-Create New User'!D2</f>
-        <v>PK-CUS-POC-S13-8</v>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="E2" s="23" t="str">
         <f>'TC09-Create New User'!E2</f>
-        <v>PK-CUS by Upload S13-8</v>
+        <v>PK-CUS by Upload S13-5</v>
       </c>
       <c r="F2" s="23" t="str">
         <f>'TC09-Create New User'!F2</f>
-        <v>PK-CUS-POC-S13-8 ( PK-CUS by Upload S13-8 )</v>
+        <v>PK-CUS-POC-S13-5 ( PK-CUS by Upload S13-5 )</v>
       </c>
       <c r="G2" s="23" t="str">
         <f>'TC09-Create New User'!G2</f>
@@ -8123,7 +8123,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -8273,7 +8273,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -8343,7 +8343,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -8489,11 +8489,11 @@
       </c>
       <c r="B2" s="150" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="C2" s="62" t="str">
         <f ca="1">'TC069'!B2</f>
-        <v>o-CNTW-SUP-POC-231031-08</v>
+        <v>o-CNTW-SUP-POC-231031-09</v>
       </c>
       <c r="D2" s="62" t="str">
         <f>'TC069'!C2</f>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="F2" s="151" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231031-TB8-001</v>
+        <v>i-CNTW-SUP-POC-231031-TB9-001</v>
       </c>
       <c r="G2" s="62" t="str">
         <f ca="1">TEXT(TODAY(),"d mmm yyyy")</f>
@@ -8531,11 +8531,11 @@
       </c>
       <c r="B3" s="152" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="C3" s="28" t="str">
         <f ca="1">'TC069'!B3</f>
-        <v>o-CNTW-SUP-POC-231031-08</v>
+        <v>o-CNTW-SUP-POC-231031-09</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>'TC069'!C3</f>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="F3" s="153" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231031-TB8-001</v>
+        <v>i-CNTW-SUP-POC-231031-TB9-001</v>
       </c>
       <c r="G3" s="28" t="str">
         <f t="shared" ref="G3:G4" ca="1" si="0">TEXT(TODAY(),"d mmm yyyy")</f>
@@ -8579,11 +8579,11 @@
       </c>
       <c r="B4" s="154" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="C4" s="29" t="str">
         <f ca="1">'TC069'!B4</f>
-        <v>o-CNTW-SUP-POC-231031-08</v>
+        <v>o-CNTW-SUP-POC-231031-09</v>
       </c>
       <c r="D4" s="29" t="str">
         <f>'TC069'!C4</f>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="F4" s="155" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231031-TB8-001</v>
+        <v>i-CNTW-SUP-POC-231031-TB9-001</v>
       </c>
       <c r="G4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -8721,7 +8721,7 @@
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>214</v>
@@ -8731,18 +8731,18 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TB9-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>67</v>
@@ -8792,18 +8792,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TB9-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>67</v>
@@ -8853,18 +8853,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TB9-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>67</v>
@@ -9004,7 +9004,7 @@
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB8-2310001</v>
+        <v>sTB9-2310001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>214</v>
@@ -9014,18 +9014,18 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB8scenario1320230614011</v>
+        <v>TB9scenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>68</v>
@@ -9078,18 +9078,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB8scenario1320230614012</v>
+        <v>TB9scenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>68</v>
@@ -9142,18 +9142,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB8scenario1320230614013</v>
+        <v>TB9scenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB8-2310001</v>
+        <v>cTB9-2310001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>68</v>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="B2" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="C2" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D2="","",'TC52-Upload Obound Form'!D2)</f>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B3" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="C3" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D3="","",'TC52-Upload Obound Form'!D3)</f>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="B4" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="C4" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
@@ -9410,7 +9410,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9540,7 +9540,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9689,7 +9689,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -9759,7 +9759,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -9915,15 +9915,15 @@
       </c>
       <c r="E2" s="23" t="str">
         <f>'TC09-Create New User'!D2</f>
-        <v>PK-CUS-POC-S13-8</v>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="F2" s="23" t="str">
         <f>'TC09-Create New User'!E2</f>
-        <v>PK-CUS by Upload S13-8</v>
+        <v>PK-CUS by Upload S13-5</v>
       </c>
       <c r="G2" s="23" t="str">
         <f>'TC09-Create New User'!F2</f>
-        <v>PK-CUS-POC-S13-8 ( PK-CUS by Upload S13-8 )</v>
+        <v>PK-CUS-POC-S13-5 ( PK-CUS by Upload S13-5 )</v>
       </c>
       <c r="H2" s="23" t="str">
         <f>'TC09-Create New User'!G2</f>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="C2" s="101" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="C3" s="99" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB8-08</v>
+        <v>B-231031-TB9-09</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="30" t="s">
@@ -10140,11 +10140,11 @@
     <row r="2" spans="1:24" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f>"CNTWSUP-PKCUS "&amp;AutoIncrement!C2</f>
-        <v>CNTWSUP-PKCUS TB8</v>
+        <v>CNTWSUP-PKCUS TB9</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>A2</f>
-        <v>CNTWSUP-PKCUS TB8</v>
+        <v>CNTWSUP-PKCUS TB9</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>63</v>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="B2" s="33" t="str">
         <f>"RequestPartTB-"&amp;AutoIncrement!A2</f>
-        <v>RequestPartTB-08</v>
+        <v>RequestPartTB-09</v>
       </c>
     </row>
   </sheetData>
@@ -10382,12 +10382,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10396,7 +10390,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -10567,16 +10561,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10584,7 +10575,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C04EBEA-A692-4245-ACA9-C2F3A01D3C88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10601,4 +10592,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0C7D6C-7621-4BF7-B883-C353F8F872A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141CD7D2-270D-4DCE-9AE9-83F72C805FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="66" r:id="rId1"/>
@@ -74,6 +74,20 @@
     <sheet name="TC084n085_NonFContainer" sheetId="43" r:id="rId59"/>
     <sheet name="TC086" sheetId="62" r:id="rId60"/>
   </sheets>
+  <definedNames>
+    <definedName name="activeFlagListArr">#REF!</definedName>
+    <definedName name="activeFlagStrArr">#REF!</definedName>
+    <definedName name="CURRENCY_CODE">#REF!</definedName>
+    <definedName name="findAllUomArr">#REF!</definedName>
+    <definedName name="PAIRED_FLAG">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName name="pairedPartsFlagStrArr">#REF!</definedName>
+    <definedName name="partsTypeArr">#REF!</definedName>
+    <definedName name="REPACKING_TYPE">#REF!</definedName>
+    <definedName name="rolledPartsFlagArr">#REF!</definedName>
+    <definedName name="rolledPartsUomArr">#REF!</definedName>
+    <definedName name="UOM_CODE">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -95,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="303">
   <si>
     <t>Color</t>
   </si>
@@ -997,13 +1011,13 @@
     <t>R-PK-CUS-POC-2310039</t>
   </si>
   <si>
-    <t>CR-PK-CUS-POC-2310028</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>TB9</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>CR-PK-CUS-POC-S13-5-2311001</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1027,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,6 +1160,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1700,9 +1721,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2195,9 +2217,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{5BE18606-4F8F-4CCD-9137-17B790CEBD76}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2543,10 +2566,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,15 +2603,15 @@
       </c>
       <c r="B2" s="170" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614011"</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="C2" s="171" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>PK-CUS-TB9-scenario13-20230604-001</v>
+        <v>PK-CUS-TBA-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="172" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2594,15 +2620,15 @@
       </c>
       <c r="B3" s="170" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614012"</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="C3" s="171" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>PK-CUS-TB9-scenario13-20230604-002</v>
+        <v>PK-CUS-TBA-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="172" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2611,15 +2637,15 @@
       </c>
       <c r="B4" s="170" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614013"</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="C4" s="171" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>PK-CUS-TB9-scenario13-20230604-003</v>
+        <v>PK-CUS-TBA-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="172" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-003</v>
       </c>
     </row>
   </sheetData>
@@ -2629,9 +2655,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -2746,7 +2775,7 @@
       </c>
       <c r="C2" s="23" t="str">
         <f>"CNTWSUP-PKCUS-"&amp;'TC35'!K2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>CNTWSUP-PKCUS-TB9-009</v>
+        <v>CNTWSUP-PKCUS-TBA-010</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>113</v>
@@ -2771,15 +2800,15 @@
       </c>
       <c r="K2" s="23" t="str">
         <f>AutoIncrement!C2</f>
-        <v>TB9</v>
+        <v>TBA</v>
       </c>
       <c r="L2" s="23" t="str">
         <f>"CD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>CD-05-TB909</v>
+        <v>CD-05-TBA10</v>
       </c>
       <c r="M2" s="23" t="str">
-        <f>"TB60BL"&amp;AutoIncrement!$B$2&amp;"(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)"</f>
-        <v>TB60BL5(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</v>
+        <f>"TB60BL"&amp;AutoIncrement!$A$2&amp;"(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)"</f>
+        <v>TB60BL10(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>115</v>
@@ -2789,11 +2818,11 @@
       </c>
       <c r="P2" s="23" t="str">
         <f>'TC033'!A2&amp;"("&amp;'TC033'!A2&amp;")"</f>
-        <v>CNTWSUP-PKCUS TB9(CNTWSUP-PKCUS TB9)</v>
+        <v>CNTWSUP-PKCUS TBA(CNTWSUP-PKCUS TBA)</v>
       </c>
       <c r="Q2" s="23" t="str">
         <f>"RD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>RD-05-TB909</v>
+        <v>RD-05-TBA10</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>117</v>
@@ -2801,8 +2830,9 @@
       <c r="S2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="23" t="s">
-        <v>68</v>
+      <c r="T2" s="23" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="U2" s="23" t="s">
         <v>118</v>
@@ -2814,7 +2844,7 @@
         <v>120</v>
       </c>
       <c r="X2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2870,22 +2900,22 @@
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-2310028</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="C2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB9-scenario13-20230604-001</v>
+        <v>PK-CUS-TBA-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="57" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB9-009</v>
+        <v>CNTWSUP-PKCUS-TBA-010</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>116</v>
@@ -2895,28 +2925,28 @@
       </c>
       <c r="H2" s="71" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB9</v>
+        <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-2310028</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="C3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB9-scenario13-20230604-002</v>
+        <v>PK-CUS-TBA-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="51" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB9-009</v>
+        <v>CNTWSUP-PKCUS-TBA-010</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>116</v>
@@ -2926,28 +2956,28 @@
       </c>
       <c r="H3" s="67" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB9</v>
+        <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-2310028</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="C4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB9-scenario13-20230604-003</v>
+        <v>PK-CUS-TBA-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="35" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB9-009</v>
+        <v>CNTWSUP-PKCUS-TBA-010</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>116</v>
@@ -2957,7 +2987,7 @@
       </c>
       <c r="H4" s="36" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB9</v>
+        <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +3000,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3014,94 +3044,97 @@
     <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-2310028</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="C2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="57" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB9-009</v>
+        <v>CNTWSUP-PKCUS-TBA-010</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="57" t="s">
-        <v>68</v>
+      <c r="G2" s="57" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="H2" s="71" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB9</v>
+        <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-2310028</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="C3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="51" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB9-009</v>
+        <v>CNTWSUP-PKCUS-TBA-010</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>68</v>
+      <c r="G3" s="57" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="H3" s="67" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB9</v>
+        <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-2310028</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="C4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="35" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB9-009</v>
+        <v>CNTWSUP-PKCUS-TBA-010</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>68</v>
+      <c r="G4" s="57" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="H4" s="36" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TB9</v>
+        <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3147,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3156,17 +3189,18 @@
       </c>
       <c r="C2" s="38" t="str">
         <f>"Cargo Status Setting for PK-CUS-POC-"&amp;'TC35'!K2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>Cargo Status Setting for PK-CUS-POC-TB9-09</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>68</v>
+        <v>Cargo Status Setting for PK-CUS-POC-TBA-10</v>
+      </c>
+      <c r="D2" s="38" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>139</v>
       </c>
       <c r="F2" s="39" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB9-009</v>
+        <v>CNTWSUP-PKCUS-TBA-010</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3312,7 @@
       </c>
       <c r="B2" s="42" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>31 Dec 2023</v>
+        <v>01 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3347,7 @@
       </c>
       <c r="B2" s="30" t="str">
         <f ca="1">"c"&amp;'TC35'!K2&amp;"-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>cTB9-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3382,7 @@
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">"s" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
     </row>
   </sheetData>
@@ -3433,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3457,13 +3491,13 @@
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" s="32">
         <v>5</v>
       </c>
       <c r="C2" s="169" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3503,11 +3537,11 @@
       </c>
       <c r="B2" s="23" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+3), "dd MMM yyyy")</f>
-        <v>03 Jan 2024</v>
+        <v>04 Jan 2024</v>
       </c>
       <c r="C2" s="32" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+5), "dd MMM yyyy")</f>
-        <v>05 Jan 2024</v>
+        <v>06 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3577,7 @@
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">"rc" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>rcTB9-2310001</v>
+        <v>rcTBA-2311001</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3695,7 @@
     <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>173</v>
@@ -3671,18 +3705,18 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="G2" s="70" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB9-scenario13-20230604-001</v>
+        <v>PK-CUS-TBA-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>67</v>
@@ -3736,18 +3770,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="G3" s="66" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB9-scenario13-20230604-002</v>
+        <v>PK-CUS-TBA-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>67</v>
@@ -3801,18 +3835,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="G4" s="68" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB9-scenario13-20230604-003</v>
+        <v>PK-CUS-TBA-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>67</v>
@@ -3867,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,7 +4006,7 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>173</v>
@@ -3982,21 +4016,22 @@
       <c r="E2" s="51"/>
       <c r="F2" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="G2" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J2" s="52" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K2" s="51">
         <v>10</v>
@@ -4050,21 +4085,22 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J3" s="52" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K3" s="51">
         <v>10</v>
@@ -4118,21 +4154,22 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J4" s="52" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K4" s="35">
         <v>10</v>
@@ -4188,13 +4225,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -4223,18 +4261,20 @@
       <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>68</v>
+      <c r="B2" s="23" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
+      </c>
+      <c r="C2" s="23" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>195</v>
       </c>
       <c r="E2" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"dd/m/yyyy")</f>
-        <v>31/10/2023</v>
+        <v>01/11/2023</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>196</v>
@@ -4249,7 +4289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4293,18 +4333,18 @@
       </c>
       <c r="B2" s="130" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231031-09</v>
+        <v>o-CNTW-SUP-POC-231101-10</v>
       </c>
       <c r="C2" s="131" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="D2" s="131" t="s">
         <v>203</v>
       </c>
       <c r="E2" s="131" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231031-09</v>
+        <v>O-231101-10</v>
       </c>
       <c r="F2" s="131" t="s">
         <v>204</v>
@@ -4319,18 +4359,18 @@
       </c>
       <c r="B3" s="133" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231031-09</v>
+        <v>o-CNTW-SUP-POC-231101-10</v>
       </c>
       <c r="C3" s="134" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="D3" s="134" t="s">
         <v>206</v>
       </c>
       <c r="E3" s="134" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231031-09</v>
+        <v>O-231101-10</v>
       </c>
       <c r="F3" s="134" t="s">
         <v>207</v>
@@ -4345,16 +4385,16 @@
       </c>
       <c r="B4" s="136" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231031-09</v>
+        <v>o-CNTW-SUP-POC-231101-10</v>
       </c>
       <c r="C4" s="137" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="137" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231031-09</v>
+        <v>O-231101-10</v>
       </c>
       <c r="F4" s="137" t="s">
         <v>204</v>
@@ -4397,7 +4437,7 @@
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!A2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +4499,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4550,7 +4590,7 @@
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>214</v>
@@ -4560,21 +4600,22 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J2" s="56" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K2" s="57">
         <v>10</v>
@@ -4624,21 +4665,22 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J3" s="56" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K3" s="51">
         <v>10</v>
@@ -4688,21 +4730,22 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J4" s="56" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K4" s="35">
         <v>10</v>
@@ -4753,7 +4796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D7E12-5300-4A09-AA7E-C1C955B569DD}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4852,7 +4895,7 @@
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>173</v>
@@ -4862,18 +4905,18 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB9-scenario13-20230604-001</v>
+        <v>PK-CUS-TBA-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>67</v>
@@ -4926,18 +4969,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB9-scenario13-20230604-002</v>
+        <v>PK-CUS-TBA-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>67</v>
@@ -4990,18 +5033,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB9-scenario13-20230604-003</v>
+        <v>PK-CUS-TBA-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>67</v>
@@ -5151,7 +5194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4216E-849B-435B-9F17-D9E1A9EDF9D8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5357,7 +5400,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -5427,7 +5470,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -5497,7 +5540,7 @@
     <row r="4" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35" t="s">
@@ -5639,7 +5682,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -5659,18 +5702,18 @@
       </c>
       <c r="G2" s="84">
         <f ca="1">TODAY()-2</f>
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="H2" s="84">
         <f ca="1">TODAY()</f>
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="I2" s="83" t="s">
         <v>257</v>
       </c>
       <c r="J2" s="84">
         <f ca="1">TODAY()-2</f>
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="K2" s="83" t="s">
         <v>258</v>
@@ -5691,7 +5734,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -5711,18 +5754,18 @@
       </c>
       <c r="G3" s="78">
         <f ca="1">TODAY()-2</f>
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="H3" s="78">
         <f ca="1">TODAY()</f>
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="I3" s="77" t="s">
         <v>257</v>
       </c>
       <c r="J3" s="78">
         <f ca="1">TODAY()-2</f>
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="K3" s="77" t="s">
         <v>258</v>
@@ -5743,7 +5786,7 @@
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="80" t="s">
@@ -5760,18 +5803,18 @@
       </c>
       <c r="G4" s="81">
         <f ca="1">TODAY()-2</f>
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="H4" s="81">
         <f ca="1">TODAY()</f>
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="I4" s="80" t="s">
         <v>257</v>
       </c>
       <c r="J4" s="81">
         <f ca="1">TODAY()-2</f>
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="K4" s="80" t="s">
         <v>258</v>
@@ -5915,7 +5958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348AADB4-8411-4027-B481-AA1BBB3ACA38}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -5990,7 +6033,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -6134,7 +6177,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -6287,7 +6330,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -6357,7 +6400,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -6431,14 +6474,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="39.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6482,8 +6525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808944C-B0B2-4920-AD71-CE618523B6BF}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6496,6 +6539,7 @@
     <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -6573,7 +6617,7 @@
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>214</v>
@@ -6583,21 +6627,22 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J2" s="56" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K2" s="57">
         <v>10</v>
@@ -6647,21 +6692,22 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J3" s="56" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K3" s="51">
         <v>10</v>
@@ -6711,21 +6757,22 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J4" s="56" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K4" s="35">
         <v>10</v>
@@ -6776,7 +6823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F40A71-BF3A-496C-A7FF-1B4DB5531565}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -6869,7 +6916,7 @@
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>215</v>
@@ -6879,18 +6926,18 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB9-scenario13-20230604-001</v>
+        <v>PK-CUS-TBA-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>67</v>
@@ -6942,18 +6989,18 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB9-scenario13-20230604-002</v>
+        <v>PK-CUS-TBA-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>67</v>
@@ -7006,18 +7053,18 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB9-scenario13-20230604-003</v>
+        <v>PK-CUS-TBA-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>67</v>
@@ -7113,7 +7160,7 @@
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231031-09</v>
+        <v>o-CNTW-SUP-POC-231101-10</v>
       </c>
       <c r="C2" s="62" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
@@ -7140,7 +7187,7 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231031-09</v>
+        <v>o-CNTW-SUP-POC-231101-10</v>
       </c>
       <c r="C3" s="28" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -7165,7 +7212,7 @@
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231031-09</v>
+        <v>o-CNTW-SUP-POC-231101-10</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7276,7 +7323,7 @@
       </c>
       <c r="C2" s="32" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB9-009</v>
+        <v>CNTWSUP-PKCUS-TBA-010</v>
       </c>
     </row>
   </sheetData>
@@ -7359,7 +7406,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7492,7 +7539,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7644,7 +7691,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -7714,7 +7761,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -7892,7 +7939,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -8123,7 +8170,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -8273,7 +8320,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -8343,7 +8390,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -8416,7 +8463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBE0E9-79E8-418F-9849-CFC8B8CDB64E}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8489,11 +8536,11 @@
       </c>
       <c r="B2" s="150" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="C2" s="62" t="str">
         <f ca="1">'TC069'!B2</f>
-        <v>o-CNTW-SUP-POC-231031-09</v>
+        <v>o-CNTW-SUP-POC-231101-10</v>
       </c>
       <c r="D2" s="62" t="str">
         <f>'TC069'!C2</f>
@@ -8505,11 +8552,11 @@
       </c>
       <c r="F2" s="151" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231031-TB9-001</v>
+        <v>i-CNTW-SUP-POC-231101-TBA-001</v>
       </c>
       <c r="G2" s="62" t="str">
         <f ca="1">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>31 Oct 2023</v>
+        <v>1 Nov 2023</v>
       </c>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
@@ -8531,11 +8578,11 @@
       </c>
       <c r="B3" s="152" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="C3" s="28" t="str">
         <f ca="1">'TC069'!B3</f>
-        <v>o-CNTW-SUP-POC-231031-09</v>
+        <v>o-CNTW-SUP-POC-231101-10</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>'TC069'!C3</f>
@@ -8547,11 +8594,11 @@
       </c>
       <c r="F3" s="153" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231031-TB9-001</v>
+        <v>i-CNTW-SUP-POC-231101-TBA-001</v>
       </c>
       <c r="G3" s="28" t="str">
         <f t="shared" ref="G3:G4" ca="1" si="0">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>31 Oct 2023</v>
+        <v>1 Nov 2023</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -8579,11 +8626,11 @@
       </c>
       <c r="B4" s="154" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="C4" s="29" t="str">
         <f ca="1">'TC069'!B4</f>
-        <v>o-CNTW-SUP-POC-231031-09</v>
+        <v>o-CNTW-SUP-POC-231101-10</v>
       </c>
       <c r="D4" s="29" t="str">
         <f>'TC069'!C4</f>
@@ -8595,11 +8642,11 @@
       </c>
       <c r="F4" s="155" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231031-TB9-001</v>
+        <v>i-CNTW-SUP-POC-231101-TBA-001</v>
       </c>
       <c r="G4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>31 Oct 2023</v>
+        <v>1 Nov 2023</v>
       </c>
       <c r="H4" s="29">
         <v>1</v>
@@ -8630,7 +8677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66732EE-4FDA-4DBC-BEA7-44295A7F0311}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -8721,7 +8768,7 @@
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>214</v>
@@ -8731,18 +8778,18 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TB9-scenario13-20230604-001</v>
+        <v>PK-CUS-TBA-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>67</v>
@@ -8792,18 +8839,18 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TB9-scenario13-20230604-002</v>
+        <v>PK-CUS-TBA-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>67</v>
@@ -8853,18 +8900,18 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TB9-scenario13-20230604-003</v>
+        <v>PK-CUS-TBA-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>67</v>
@@ -8915,8 +8962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BE75F-BAF6-44E6-8F2F-031535BEC4F7}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9004,7 +9051,7 @@
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB9-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>214</v>
@@ -9014,21 +9061,22 @@
       <c r="E2" s="57"/>
       <c r="F2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TB9scenario1320230614011</v>
+        <v>TBAscenario1320230614011</v>
       </c>
       <c r="G2" s="56" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="57" t="s">
         <v>174</v>
       </c>
       <c r="I2" s="57" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J2" s="56" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K2" s="57">
         <v>10</v>
@@ -9070,7 +9118,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -9078,21 +9126,22 @@
       <c r="E3" s="51"/>
       <c r="F3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TB9scenario1320230614012</v>
+        <v>TBAscenario1320230614012</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="51" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J3" s="56" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K3" s="51">
         <v>10</v>
@@ -9134,7 +9183,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -9142,21 +9191,22 @@
       <c r="E4" s="35"/>
       <c r="F4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TB9scenario1320230614013</v>
+        <v>TBAscenario1320230614013</v>
       </c>
       <c r="G4" s="53" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TB9-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TBA-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="35" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB9-2310001</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>68</v>
+        <v>cTBA-2311001</v>
+      </c>
+      <c r="J4" s="56" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K4" s="35">
         <v>10</v>
@@ -9277,7 +9327,7 @@
       </c>
       <c r="B2" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="C2" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D2="","",'TC52-Upload Obound Form'!D2)</f>
@@ -9297,7 +9347,7 @@
       </c>
       <c r="B3" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="C3" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D3="","",'TC52-Upload Obound Form'!D3)</f>
@@ -9317,7 +9367,7 @@
       </c>
       <c r="B4" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="C4" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
@@ -9410,7 +9460,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9540,7 +9590,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9603,7 +9653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD6870-87F3-4941-BFA6-FB0F0EDE2000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -9689,7 +9739,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -9759,7 +9809,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -9983,7 +10033,7 @@
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="C2" s="101" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9999,7 +10049,7 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="C3" s="99" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -10015,7 +10065,7 @@
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231031-TB9-09</v>
+        <v>B-231101-TBA-10</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="30" t="s">
@@ -10032,7 +10082,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10046,7 +10096,7 @@
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
@@ -10140,11 +10190,11 @@
     <row r="2" spans="1:24" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f>"CNTWSUP-PKCUS "&amp;AutoIncrement!C2</f>
-        <v>CNTWSUP-PKCUS TB9</v>
+        <v>CNTWSUP-PKCUS TBA</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>A2</f>
-        <v>CNTWSUP-PKCUS TB9</v>
+        <v>CNTWSUP-PKCUS TBA</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>63</v>
@@ -10163,8 +10213,9 @@
       <c r="I2" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="38" t="s">
-        <v>68</v>
+      <c r="J2" s="38" t="str">
+        <f>TC14n15!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
       </c>
       <c r="K2" s="38" t="s">
         <v>69</v>
@@ -10347,16 +10398,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10373,7 +10426,7 @@
       </c>
       <c r="B2" s="33" t="str">
         <f>"RequestPartTB-"&amp;AutoIncrement!A2</f>
-        <v>RequestPartTB-09</v>
+        <v>RequestPartTB-10</v>
       </c>
     </row>
   </sheetData>
@@ -10382,15 +10435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -10561,21 +10605,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C04EBEA-A692-4245-ACA9-C2F3A01D3C88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10594,11 +10639,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
@@ -1,78 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141CD7D2-270D-4DCE-9AE9-83F72C805FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D2F1ABC4-C184-452C-91E4-44D27ACBD9B2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="618" windowHeight="12456" windowWidth="23256" xWindow="-23148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" sheetId="66" r:id="rId1"/>
-    <sheet name="AutoIncrement" sheetId="14" r:id="rId2"/>
-    <sheet name="TC09-Create New User" sheetId="18" r:id="rId3"/>
-    <sheet name="TC14n15" sheetId="65" r:id="rId4"/>
-    <sheet name="TC019-Activate User" sheetId="61" r:id="rId5"/>
-    <sheet name="TC021-Forget Password" sheetId="59" r:id="rId6"/>
-    <sheet name="TC033" sheetId="19" r:id="rId7"/>
-    <sheet name="TC033_ETAnWeek" sheetId="20" r:id="rId8"/>
-    <sheet name="TC34" sheetId="9" r:id="rId9"/>
-    <sheet name="TC35-Contract Parts Info" sheetId="6" r:id="rId10"/>
-    <sheet name="TC35" sheetId="3" r:id="rId11"/>
-    <sheet name="TC038" sheetId="21" r:id="rId12"/>
-    <sheet name="TC039" sheetId="23" r:id="rId13"/>
-    <sheet name="S13_TC40" sheetId="44" r:id="rId14"/>
-    <sheet name="TC041 - Place Order (Regular)" sheetId="2" r:id="rId15"/>
-    <sheet name="TC041-Inbound Date" sheetId="13" r:id="rId16"/>
-    <sheet name="TC42" sheetId="4" r:id="rId17"/>
-    <sheet name="TC44" sheetId="5" r:id="rId18"/>
-    <sheet name="TC47-Change Order" sheetId="7" r:id="rId19"/>
-    <sheet name="TC47-Change Inbound Dates" sheetId="8" r:id="rId20"/>
-    <sheet name="TC48" sheetId="10" r:id="rId21"/>
-    <sheet name="TC049" sheetId="24" r:id="rId22"/>
-    <sheet name="TC050" sheetId="25" r:id="rId23"/>
-    <sheet name="TC52-Download Obound Form" sheetId="11" r:id="rId24"/>
-    <sheet name="TC52-Upload Obound Form" sheetId="12" r:id="rId25"/>
-    <sheet name="TC52-Upload Obound Setup" sheetId="17" r:id="rId26"/>
-    <sheet name="TC52-Autogen Outbound Data" sheetId="57" r:id="rId27"/>
-    <sheet name="TC053" sheetId="26" r:id="rId28"/>
-    <sheet name="TC054" sheetId="27" r:id="rId29"/>
-    <sheet name="TC55" sheetId="22" r:id="rId30"/>
-    <sheet name="TC56-Custom Invoice Exp" sheetId="15" r:id="rId31"/>
-    <sheet name="TC57-Custom Invoice Imp" sheetId="16" r:id="rId32"/>
-    <sheet name="TC58n59" sheetId="28" r:id="rId33"/>
-    <sheet name="TC62" sheetId="51" r:id="rId34"/>
-    <sheet name="TC62-Setup Data" sheetId="55" r:id="rId35"/>
-    <sheet name="TC063" sheetId="29" r:id="rId36"/>
-    <sheet name="TC64n65_ForecastContainer" sheetId="37" r:id="rId37"/>
-    <sheet name="TC64n65_ForecastContainer-Manua" sheetId="47" r:id="rId38"/>
-    <sheet name="TC64n65_NonFContainer" sheetId="38" r:id="rId39"/>
-    <sheet name="TC067" sheetId="30" r:id="rId40"/>
-    <sheet name="TC068" sheetId="31" r:id="rId41"/>
-    <sheet name="TC069" sheetId="52" r:id="rId42"/>
-    <sheet name="TC070" sheetId="54" r:id="rId43"/>
-    <sheet name="TC072" sheetId="45" r:id="rId44"/>
-    <sheet name="TC073n074_ForecastContainer" sheetId="32" r:id="rId45"/>
-    <sheet name="TC073n074_Forecast-Manual" sheetId="48" r:id="rId46"/>
-    <sheet name="TC073n074_NonFContainer" sheetId="39" r:id="rId47"/>
-    <sheet name="TC075" sheetId="46" r:id="rId48"/>
-    <sheet name="TC076n077_ForecastContainer" sheetId="40" r:id="rId49"/>
-    <sheet name="TC076n077_Forecast-Manaul" sheetId="49" r:id="rId50"/>
-    <sheet name="TC076n077_NonFContainer" sheetId="41" r:id="rId51"/>
-    <sheet name="TC078" sheetId="58" r:id="rId52"/>
-    <sheet name="TC079" sheetId="34" r:id="rId53"/>
-    <sheet name="TC080" sheetId="35" r:id="rId54"/>
-    <sheet name="TC82-New Buyer GR Invoice" sheetId="64" r:id="rId55"/>
-    <sheet name="TC83-Inbound Shipping Details" sheetId="56" r:id="rId56"/>
-    <sheet name="TC084n085_ForecastContainer" sheetId="42" r:id="rId57"/>
-    <sheet name="TC084n085_Forecast-Manual" sheetId="50" r:id="rId58"/>
-    <sheet name="TC084n085_NonFContainer" sheetId="43" r:id="rId59"/>
-    <sheet name="TC086" sheetId="62" r:id="rId60"/>
+    <sheet name="Indicator" r:id="rId1" sheetId="66"/>
+    <sheet name="AutoGen" r:id="rId2" sheetId="67"/>
+    <sheet name="AutoIncrement" r:id="rId3" sheetId="14"/>
+    <sheet name="TC09-Create New User" r:id="rId4" sheetId="18"/>
+    <sheet name="TC14n15" r:id="rId5" sheetId="65"/>
+    <sheet name="TC019-Activate User" r:id="rId6" sheetId="61"/>
+    <sheet name="TC021-Forget Password" r:id="rId7" sheetId="59"/>
+    <sheet name="TC033" r:id="rId8" sheetId="19"/>
+    <sheet name="TC033_ETAnWeek" r:id="rId9" sheetId="20"/>
+    <sheet name="TC34" r:id="rId10" sheetId="9"/>
+    <sheet name="TC35-Contract Parts Info" r:id="rId11" sheetId="6"/>
+    <sheet name="TC35" r:id="rId12" sheetId="3"/>
+    <sheet name="TC038" r:id="rId13" sheetId="21"/>
+    <sheet name="TC039" r:id="rId14" sheetId="23"/>
+    <sheet name="S13_TC40" r:id="rId15" sheetId="44"/>
+    <sheet name="TC041 - Place Order (Regular)" r:id="rId16" sheetId="2"/>
+    <sheet name="TC041-Inbound Date" r:id="rId17" sheetId="13"/>
+    <sheet name="TC42" r:id="rId18" sheetId="4"/>
+    <sheet name="TC44" r:id="rId19" sheetId="5"/>
+    <sheet name="TC47-Change Order" r:id="rId20" sheetId="7"/>
+    <sheet name="TC47-Change Inbound Dates" r:id="rId21" sheetId="8"/>
+    <sheet name="TC48" r:id="rId22" sheetId="10"/>
+    <sheet name="TC049" r:id="rId23" sheetId="24"/>
+    <sheet name="TC050" r:id="rId24" sheetId="25"/>
+    <sheet name="TC52-Download Obound Form" r:id="rId25" sheetId="11"/>
+    <sheet name="TC52-Upload Obound Form" r:id="rId26" sheetId="12"/>
+    <sheet name="TC52-Upload Obound Setup" r:id="rId27" sheetId="17"/>
+    <sheet name="TC52-Autogen Outbound Data" r:id="rId28" sheetId="57"/>
+    <sheet name="TC053" r:id="rId29" sheetId="26"/>
+    <sheet name="TC054" r:id="rId30" sheetId="27"/>
+    <sheet name="TC55" r:id="rId31" sheetId="22"/>
+    <sheet name="TC56-Custom Invoice Exp" r:id="rId32" sheetId="15"/>
+    <sheet name="TC57-Custom Invoice Imp" r:id="rId33" sheetId="16"/>
+    <sheet name="TC58n59" r:id="rId34" sheetId="28"/>
+    <sheet name="TC62" r:id="rId35" sheetId="51"/>
+    <sheet name="TC62-Setup Data" r:id="rId36" sheetId="55"/>
+    <sheet name="TC063" r:id="rId37" sheetId="29"/>
+    <sheet name="TC64n65_ForecastContainer" r:id="rId38" sheetId="37"/>
+    <sheet name="TC64n65_ForecastContainer-Manua" r:id="rId39" sheetId="47"/>
+    <sheet name="TC64n65_NonFContainer" r:id="rId40" sheetId="38"/>
+    <sheet name="TC067" r:id="rId41" sheetId="30"/>
+    <sheet name="TC068" r:id="rId42" sheetId="31"/>
+    <sheet name="TC069" r:id="rId43" sheetId="52"/>
+    <sheet name="TC070" r:id="rId44" sheetId="54"/>
+    <sheet name="TC072" r:id="rId45" sheetId="45"/>
+    <sheet name="TC073n074_ForecastContainer" r:id="rId46" sheetId="32"/>
+    <sheet name="TC073n074_Forecast-Manual" r:id="rId47" sheetId="48"/>
+    <sheet name="TC073n074_NonFContainer" r:id="rId48" sheetId="39"/>
+    <sheet name="TC075" r:id="rId49" sheetId="46"/>
+    <sheet name="TC076n077_ForecastContainer" r:id="rId50" sheetId="40"/>
+    <sheet name="TC076n077_Forecast-Manaul" r:id="rId51" sheetId="49"/>
+    <sheet name="TC076n077_NonFContainer" r:id="rId52" sheetId="41"/>
+    <sheet name="TC078" r:id="rId53" sheetId="58"/>
+    <sheet name="TC079" r:id="rId54" sheetId="34"/>
+    <sheet name="TC080" r:id="rId55" sheetId="35"/>
+    <sheet name="TC82-New Buyer GR Invoice" r:id="rId56" sheetId="64"/>
+    <sheet name="TC83-Inbound Shipping Details" r:id="rId57" sheetId="56"/>
+    <sheet name="TC084n085_ForecastContainer" r:id="rId58" sheetId="42"/>
+    <sheet name="TC084n085_Forecast-Manual" r:id="rId59" sheetId="50"/>
+    <sheet name="TC084n085_NonFContainer" r:id="rId60" sheetId="43"/>
+    <sheet name="TC086" r:id="rId61" sheetId="62"/>
   </sheets>
   <definedNames>
     <definedName name="activeFlagListArr">#REF!</definedName>
@@ -90,7 +91,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="304">
   <si>
     <t>Color</t>
   </si>
@@ -1018,6 +1019,9 @@
   </si>
   <si>
     <t>CR-PK-CUS-POC-S13-5-2311001</t>
+  </si>
+  <si>
+    <t>ContractRoute TC38</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,6 +1271,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1722,508 +1732,509 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="174">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="7" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="7" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="13" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="8" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="12" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="16" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="22" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="25" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="26" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="3" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="15" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="14" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="14" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="10" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="9" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="24" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="27" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="29" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="30" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="31" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="32" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="6" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{5BE18606-4F8F-4CCD-9137-17B790CEBD76}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2240,10 +2251,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2278,7 +2289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2313,7 +2324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2407,21 +2418,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2438,7 +2449,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2490,15 +2501,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -2506,13 +2517,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row ht="15" r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
@@ -2550,7 +2561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="6" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="162"/>
       <c r="C6" s="163" t="s">
         <v>9</v>
@@ -2560,16 +2571,54 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.5546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="str">
+        <f>"RequestPartTB-"&amp;AutoIncrement!A2</f>
+        <v>RequestPartTB-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D4"/>
@@ -2577,13 +2626,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -2631,7 +2680,7 @@
         <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2649,50 +2698,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="68.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="44.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="68.44140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -2766,7 +2815,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -2848,13 +2897,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
-  <dimension ref="A1:H4"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -2862,16 +2911,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>121</v>
       </c>
@@ -2897,7 +2946,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="19.5" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -2928,7 +2977,7 @@
         <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="27" r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -2959,7 +3008,7 @@
         <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="30" r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -2991,31 +3040,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
-  <dimension ref="A1:H4"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>121</v>
       </c>
@@ -3041,7 +3090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="12" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -3105,7 +3154,7 @@
         <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="16.5" r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -3138,29 +3187,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
-  <dimension ref="A1:F2"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>132</v>
       </c>
@@ -3180,7 +3229,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>67</v>
       </c>
@@ -3204,13 +3253,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13:G14"/>
@@ -3218,13 +3267,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
         <v>33</v>
       </c>
@@ -3266,7 +3315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="60">
         <v>3</v>
       </c>
@@ -3281,24 +3330,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>33</v>
       </c>
@@ -3306,7 +3355,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -3316,13 +3365,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -3330,7 +3379,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3341,7 +3390,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3351,13 +3400,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -3365,10 +3414,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3376,7 +3425,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3386,13 +3435,42 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC73214-8B66-4496-A999-3457BA70A84F}">
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="173" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -3400,10 +3478,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3443,7 +3521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3459,55 +3537,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="32">
-        <v>5</v>
-      </c>
-      <c r="C2" s="169" t="s">
-        <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
@@ -3515,12 +3551,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3531,7 +3567,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3546,13 +3582,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
@@ -3560,10 +3596,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3571,7 +3607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3581,44 +3617,44 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
-  <dimension ref="A1:X4"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>151</v>
       </c>
@@ -3692,7 +3728,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.5" r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTBA-2311001</v>
@@ -3827,7 +3863,7 @@
       </c>
       <c r="X3" s="67"/>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -3893,37 +3929,37 @@
       <c r="X4" s="36"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
-  <dimension ref="A1:Y4"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
@@ -4003,7 +4039,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTBA-2311001</v>
@@ -4146,7 +4182,7 @@
       </c>
       <c r="Y3" s="67"/>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -4216,13 +4252,13 @@
       <c r="Y4" s="36"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
-  <dimension ref="A1:F2"/>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
@@ -4230,14 +4266,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4257,7 +4293,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -4281,30 +4317,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
-  <dimension ref="A1:G4"/>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4379,7 +4415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4404,12 +4440,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4418,12 +4454,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4431,7 +4467,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -4441,13 +4477,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400BBE19-7391-40E2-B8EE-A3263958B10A}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400BBE19-7391-40E2-B8EE-A3263958B10A}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
@@ -4455,13 +4491,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4475,7 +4511,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -4490,33 +4526,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BCD4A-9E59-457E-8F07-757864EE6B7B}">
-  <dimension ref="A1:W4"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BCD4A-9E59-457E-8F07-757864EE6B7B}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>178</v>
       </c>
@@ -4587,7 +4623,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTBA-2311001</v>
@@ -4657,7 +4693,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -4722,7 +4758,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="29.4" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -4788,40 +4824,82 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D7E12-5300-4A09-AA7E-C1C955B569DD}">
-  <dimension ref="A1:W4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="32">
+        <v>5</v>
+      </c>
+      <c r="C2" s="169" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D7E12-5300-4A09-AA7E-C1C955B569DD}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>151</v>
       </c>
@@ -4892,7 +4970,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTBA-2311001</v>
@@ -5025,7 +5103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5090,109 +5168,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF25709-9C2B-4E3D-B69D-6D4636930677}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="48.44140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="21" t="str">
-        <f>"PK-CUS-POC-S13-"&amp;AutoIncrement!B2</f>
-        <v>PK-CUS-POC-S13-5</v>
-      </c>
-      <c r="E2" s="21" t="str">
-        <f>"PK-CUS by Upload S13-"&amp;AutoIncrement!B2</f>
-        <v>PK-CUS by Upload S13-5</v>
-      </c>
-      <c r="F2" s="21" t="str">
-        <f>D2&amp;" ( PK-CUS by Upload S13-"&amp;AutoIncrement!B2&amp;" )"</f>
-        <v>PK-CUS-POC-S13-5 ( PK-CUS by Upload S13-5 )</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4D98E823-CA4F-482C-9BAD-E97C9E972293}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4216E-849B-435B-9F17-D9E1A9EDF9D8}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4216E-849B-435B-9F17-D9E1A9EDF9D8}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5200,10 +5182,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -5211,7 +5193,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -5220,13 +5202,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1701B649-547E-4FB3-9112-ED34471CFB15}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1701B649-547E-4FB3-9112-ED34471CFB15}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -5234,10 +5216,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="24.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -5245,7 +5227,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -5255,14 +5237,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF9481-7D4D-4350-A942-13BCBB2DB6C8}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF9481-7D4D-4350-A942-13BCBB2DB6C8}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5270,10 +5252,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -5281,7 +5263,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -5291,45 +5273,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03306B6-D5F9-45C7-B4C8-70393277B99F}">
-  <dimension ref="A1:V4"/>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03306B6-D5F9-45C7-B4C8-70393277B99F}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="31" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="18.75" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>219</v>
       </c>
@@ -5397,7 +5379,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
         <v>B-231101-TBA-10</v>
@@ -5467,7 +5449,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
         <v>B-231101-TBA-10</v>
@@ -5537,7 +5519,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15" r="4" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
         <v>B-231101-TBA-10</v>
@@ -5605,34 +5587,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D772A37-567D-4E83-92B1-382F9C11B95F}">
-  <dimension ref="A1:O4"/>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D772A37-567D-4E83-92B1-382F9C11B95F}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>219</v>
       </c>
@@ -5700,20 +5682,20 @@
       <c r="F2" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="84">
+      <c r="G2" s="84" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
-      </c>
-      <c r="H2" s="84">
+        <v>45229.0</v>
+      </c>
+      <c r="H2" s="84" t="n">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45231.0</v>
       </c>
       <c r="I2" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="J2" s="84">
+      <c r="J2" s="84" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
+        <v>45229.0</v>
       </c>
       <c r="K2" s="83" t="s">
         <v>258</v>
@@ -5752,20 +5734,20 @@
       <c r="F3" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="78" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
-      </c>
-      <c r="H3" s="78">
+        <v>45229.0</v>
+      </c>
+      <c r="H3" s="78" t="n">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45231.0</v>
       </c>
       <c r="I3" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="J3" s="78">
+      <c r="J3" s="78" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
+        <v>45229.0</v>
       </c>
       <c r="K3" s="77" t="s">
         <v>258</v>
@@ -5783,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
         <v>B-231101-TBA-10</v>
@@ -5801,20 +5783,20 @@
       <c r="F4" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="81" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
-      </c>
-      <c r="H4" s="81">
+        <v>45229.0</v>
+      </c>
+      <c r="H4" s="81" t="n">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45231.0</v>
       </c>
       <c r="I4" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="81" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
+        <v>45229.0</v>
       </c>
       <c r="K4" s="80" t="s">
         <v>258</v>
@@ -5834,13 +5816,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD02FE-AA4B-428E-9B78-278B57847991}">
-  <dimension ref="A1:F2"/>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD02FE-AA4B-428E-9B78-278B57847991}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -5848,14 +5830,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="3.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>249</v>
       </c>
@@ -5875,7 +5857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>257</v>
       </c>
@@ -5896,13 +5878,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0AD79-4FCB-46DC-A08C-112B19B717BD}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0AD79-4FCB-46DC-A08C-112B19B717BD}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -5910,14 +5892,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="26.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="27.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>261</v>
       </c>
@@ -5931,7 +5913,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
@@ -5950,34 +5932,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348AADB4-8411-4027-B481-AA1BBB3ACA38}">
-  <dimension ref="A1:Q2"/>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348AADB4-8411-4027-B481-AA1BBB3ACA38}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="9" max="15" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>219</v>
       </c>
@@ -6030,7 +6012,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
         <v>B-231101-TBA-10</v>
@@ -6088,40 +6070,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E62800-D4A5-472B-9BE2-2F94BD717192}">
-  <dimension ref="A1:Q2"/>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E62800-D4A5-472B-9BE2-2F94BD717192}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>219</v>
       </c>
@@ -6174,7 +6156,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
         <v>B-231101-TBA-10</v>
@@ -6232,34 +6214,130 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FF13D-341C-43F0-8A8A-D4F730016CCF}">
-  <dimension ref="A1:V3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF25709-9C2B-4E3D-B69D-6D4636930677}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="48.44140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15" r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row ht="58.2" r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="21" t="str">
+        <f>"PK-CUS-POC-S13-"&amp;AutoIncrement!B2</f>
+        <v>PK-CUS-POC-S13-5</v>
+      </c>
+      <c r="E2" s="21" t="str">
+        <f>"PK-CUS by Upload S13-"&amp;AutoIncrement!B2</f>
+        <v>PK-CUS by Upload S13-5</v>
+      </c>
+      <c r="F2" s="21" t="str">
+        <f>D2&amp;" ( PK-CUS by Upload S13-"&amp;AutoIncrement!B2&amp;" )"</f>
+        <v>PK-CUS-POC-S13-5 ( PK-CUS by Upload S13-5 )</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2" xr:uid="{4D98E823-CA4F-482C-9BAD-E97C9E972293}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FF13D-341C-43F0-8A8A-D4F730016CCF}">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="40.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="40.5546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>219</v>
       </c>
@@ -6327,7 +6405,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
         <v>B-231101-TBA-10</v>
@@ -6397,7 +6475,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
         <v>B-231101-TBA-10</v>
@@ -6465,85 +6543,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808944C-B0B2-4920-AD71-CE618523B6BF}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="str">
-        <f>"PK-SUP-POC-"&amp;AutoIncrement!B2</f>
-        <v>PK-SUP-POC-5</v>
-      </c>
-      <c r="B2" s="21" t="str">
-        <f>"PK-BU-POC-"&amp;AutoIncrement!B2</f>
-        <v>PK-BU-POC-5</v>
-      </c>
-      <c r="C2" s="25" t="str">
-        <f>"PK-CUS by Upload S13-"&amp;AutoIncrement!B2</f>
-        <v>PK-CUS by Upload S13-5</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'TC09-Create New User'!$D$2</f>
-        <v>PK-CUS-POC-S13-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808944C-B0B2-4920-AD71-CE618523B6BF}">
-  <dimension ref="A1:W4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="31.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="147" t="s">
         <v>178</v>
       </c>
@@ -6614,7 +6640,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTBA-2311001</v>
@@ -6684,7 +6710,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -6749,7 +6775,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="29.4" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6815,13 +6841,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F40A71-BF3A-496C-A7FF-1B4DB5531565}">
-  <dimension ref="A1:W4"/>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F40A71-BF3A-496C-A7FF-1B4DB5531565}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
@@ -6829,20 +6855,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="46.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>151</v>
       </c>
@@ -6913,7 +6939,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTBA-2311001</v>
@@ -7045,7 +7071,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7110,13 +7136,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0931027-A5AD-49AE-810F-7FADA3157995}">
-  <dimension ref="A1:G4"/>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0931027-A5AD-49AE-810F-7FADA3157995}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -7124,14 +7150,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -7206,7 +7232,7 @@
       </c>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -7233,14 +7259,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="1200"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6DCE6-F15B-496A-A206-2533B2496A1A}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6DCE6-F15B-496A-A206-2533B2496A1A}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -7248,11 +7274,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -7266,7 +7292,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -7284,13 +7310,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B90B1-1C0F-4D16-8A2E-70D3AF44BB6D}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B90B1-1C0F-4D16-8A2E-70D3AF44BB6D}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
@@ -7298,11 +7324,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -7313,7 +7339,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -7327,30 +7353,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D05459-7404-4903-8ECD-BB35C359893B}">
-  <dimension ref="A1:Q2"/>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D05459-7404-4903-8ECD-BB35C359893B}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>219</v>
       </c>
@@ -7403,7 +7429,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
         <v>B-231101-TBA-10</v>
@@ -7461,29 +7487,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1DACA5-2EF3-4469-B44A-F4DA1792D9DF}">
-  <dimension ref="A1:Q2"/>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1DACA5-2EF3-4469-B44A-F4DA1792D9DF}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>219</v>
       </c>
@@ -7536,7 +7562,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
         <v>B-231101-TBA-10</v>
@@ -7594,33 +7620,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B7B88-2829-4C6F-982F-5A668DC56303}">
-  <dimension ref="A1:V3"/>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B7B88-2829-4C6F-982F-5A668DC56303}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>219</v>
       </c>
@@ -7688,7 +7714,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
         <v>B-231101-TBA-10</v>
@@ -7758,7 +7784,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
         <v>B-231101-TBA-10</v>
@@ -7826,13 +7852,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F1CFB-64E3-4394-A87B-83BC582160E0}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F1CFB-64E3-4394-A87B-83BC582160E0}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
@@ -7840,11 +7866,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -7852,7 +7878,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -7862,28 +7888,80 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3AE7A-F993-419E-BE5E-9D8E310A742B}">
-  <dimension ref="A1:Q2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="str">
+        <f>"PK-SUP-POC-"&amp;AutoIncrement!B2</f>
+        <v>PK-SUP-POC-5</v>
+      </c>
+      <c r="B2" s="21" t="str">
+        <f>"PK-BU-POC-"&amp;AutoIncrement!B2</f>
+        <v>PK-BU-POC-5</v>
+      </c>
+      <c r="C2" s="25" t="str">
+        <f>"PK-CUS by Upload S13-"&amp;AutoIncrement!B2</f>
+        <v>PK-CUS by Upload S13-5</v>
+      </c>
+      <c r="D2" t="str">
+        <f>'TC09-Create New User'!$D$2</f>
+        <v>PK-CUS-POC-S13-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3AE7A-F993-419E-BE5E-9D8E310A742B}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>219</v>
       </c>
@@ -7936,7 +8014,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
         <v>B-231101-TBA-10</v>
@@ -7994,127 +8072,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
-  <dimension ref="A1:H2"/>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6107947-A69E-40DB-BE93-3997BF1B55A0}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="str">
-        <f>'TC09-Create New User'!A1</f>
-        <v>LoginID</v>
-      </c>
-      <c r="B1" s="114" t="str">
-        <f>'TC09-Create New User'!B1</f>
-        <v>Username</v>
-      </c>
-      <c r="C1" s="114" t="str">
-        <f>'TC09-Create New User'!C1</f>
-        <v>Email</v>
-      </c>
-      <c r="D1" s="114" t="str">
-        <f>'TC09-Create New User'!D1</f>
-        <v>UserCompanyCode</v>
-      </c>
-      <c r="E1" s="114" t="str">
-        <f>'TC09-Create New User'!E1</f>
-        <v>UserCompanyName</v>
-      </c>
-      <c r="F1" s="114" t="str">
-        <f>'TC09-Create New User'!F1</f>
-        <v>DefaultCompany</v>
-      </c>
-      <c r="G1" s="114" t="str">
-        <f>'TC09-Create New User'!G1</f>
-        <v>UserRole</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="str">
-        <f>'TC09-Create New User'!A2</f>
-        <v>musyarustb2</v>
-      </c>
-      <c r="B2" s="23" t="str">
-        <f>'TC09-Create New User'!B2</f>
-        <v>musyarustb2</v>
-      </c>
-      <c r="C2" s="23" t="str">
-        <f>'TC09-Create New User'!C2</f>
-        <v>musyarustb2@outlook.com</v>
-      </c>
-      <c r="D2" s="23" t="str">
-        <f>'TC09-Create New User'!D2</f>
-        <v>PK-CUS-POC-S13-5</v>
-      </c>
-      <c r="E2" s="23" t="str">
-        <f>'TC09-Create New User'!E2</f>
-        <v>PK-CUS by Upload S13-5</v>
-      </c>
-      <c r="F2" s="23" t="str">
-        <f>'TC09-Create New User'!F2</f>
-        <v>PK-CUS-POC-S13-5 ( PK-CUS by Upload S13-5 )</v>
-      </c>
-      <c r="G2" s="23" t="str">
-        <f>'TC09-Create New User'!G2</f>
-        <v>RoleA</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6107947-A69E-40DB-BE93-3997BF1B55A0}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>219</v>
       </c>
@@ -8167,7 +8155,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
         <v>B-231101-TBA-10</v>
@@ -8225,31 +8213,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290B96C-15D8-4BA3-B982-FC9C29C6AD4B}">
-  <dimension ref="A1:V3"/>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290B96C-15D8-4BA3-B982-FC9C29C6AD4B}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>219</v>
       </c>
@@ -8317,7 +8305,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
         <v>B-231101-TBA-10</v>
@@ -8387,7 +8375,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
         <v>B-231101-TBA-10</v>
@@ -8455,36 +8443,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBE0E9-79E8-418F-9849-CFC8B8CDB64E}">
-  <dimension ref="A1:M4"/>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBE0E9-79E8-418F-9849-CFC8B8CDB64E}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:13" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="str">
         <f>'TC069'!A1</f>
         <v>No</v>
@@ -8530,9 +8518,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="8" t="n">
         <f>'TC069'!A2</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="150" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
@@ -8572,9 +8560,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="9" t="n">
         <f>'TC069'!A3</f>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="152" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
@@ -8597,7 +8585,7 @@
         <v>i-CNTW-SUP-POC-231101-TBA-001</v>
       </c>
       <c r="G3" s="28" t="str">
-        <f t="shared" ref="G3:G4" ca="1" si="0">TEXT(TODAY(),"d mmm yyyy")</f>
+        <f ca="1" ref="G3:G4" si="0" t="shared">TEXT(TODAY(),"d mmm yyyy")</f>
         <v>1 Nov 2023</v>
       </c>
       <c r="H3" s="28">
@@ -8619,10 +8607,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+    <row ht="15" r="4" spans="1:13" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="n">
         <f>'TC069'!A4</f>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="154" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
@@ -8645,7 +8633,7 @@
         <v>i-CNTW-SUP-POC-231101-TBA-001</v>
       </c>
       <c r="G4" s="29" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>1 Nov 2023</v>
       </c>
       <c r="H4" s="29">
@@ -8669,35 +8657,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66732EE-4FDA-4DBC-BEA7-44295A7F0311}">
-  <dimension ref="A1:V4"/>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66732EE-4FDA-4DBC-BEA7-44295A7F0311}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="49.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="49.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>151</v>
       </c>
@@ -8765,7 +8753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTBA-2311001</v>
@@ -8831,7 +8819,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -8892,7 +8880,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="29.4" r="4" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -8954,30 +8942,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BE75F-BAF6-44E6-8F2F-031535BEC4F7}">
-  <dimension ref="A1:W4"/>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BE75F-BAF6-44E6-8F2F-031535BEC4F7}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>178</v>
       </c>
@@ -9048,7 +9036,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTBA-2311001</v>
@@ -9118,7 +9106,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -9183,7 +9171,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="43.8" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -9249,13 +9237,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13277385-296B-48F5-ABFB-2898AB800E9A}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13277385-296B-48F5-ABFB-2898AB800E9A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -9263,10 +9251,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -9274,7 +9262,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -9283,13 +9271,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478A9AA-0EB8-4607-A679-CAA9C8DC9ACC}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478A9AA-0EB8-4607-A679-CAA9C8DC9ACC}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
@@ -9297,11 +9285,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="158" collapsed="1"/>
-    <col min="2" max="2" width="16.109375" style="158" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" style="158" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.6640625" style="158" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="158" collapsed="1"/>
+    <col min="1" max="1" style="158" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="158" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="158" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="158" width="38.6640625" collapsed="true"/>
+    <col min="5" max="16384" style="158" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -9383,28 +9371,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ABFAF8-D337-497A-8E07-5F791D04721C}">
-  <dimension ref="A1:Q2"/>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ABFAF8-D337-497A-8E07-5F791D04721C}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>219</v>
       </c>
@@ -9457,7 +9445,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
         <v>B-231101-TBA-10</v>
@@ -9515,26 +9503,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321F03C-7E3F-491D-84BC-0DD6B062080D}">
-  <dimension ref="A1:Q2"/>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321F03C-7E3F-491D-84BC-0DD6B062080D}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
         <v>219</v>
       </c>
@@ -9587,7 +9575,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
         <v>B-231101-TBA-10</v>
@@ -9645,30 +9633,120 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD6870-87F3-4941-BFA6-FB0F0EDE2000}">
-  <dimension ref="A1:V3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="113" t="str">
+        <f>'TC09-Create New User'!A1</f>
+        <v>LoginID</v>
+      </c>
+      <c r="B1" s="114" t="str">
+        <f>'TC09-Create New User'!B1</f>
+        <v>Username</v>
+      </c>
+      <c r="C1" s="114" t="str">
+        <f>'TC09-Create New User'!C1</f>
+        <v>Email</v>
+      </c>
+      <c r="D1" s="114" t="str">
+        <f>'TC09-Create New User'!D1</f>
+        <v>UserCompanyCode</v>
+      </c>
+      <c r="E1" s="114" t="str">
+        <f>'TC09-Create New User'!E1</f>
+        <v>UserCompanyName</v>
+      </c>
+      <c r="F1" s="114" t="str">
+        <f>'TC09-Create New User'!F1</f>
+        <v>DefaultCompany</v>
+      </c>
+      <c r="G1" s="114" t="str">
+        <f>'TC09-Create New User'!G1</f>
+        <v>UserRole</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="str">
+        <f>'TC09-Create New User'!A2</f>
+        <v>musyarustb2</v>
+      </c>
+      <c r="B2" s="23" t="str">
+        <f>'TC09-Create New User'!B2</f>
+        <v>musyarustb2</v>
+      </c>
+      <c r="C2" s="23" t="str">
+        <f>'TC09-Create New User'!C2</f>
+        <v>musyarustb2@outlook.com</v>
+      </c>
+      <c r="D2" s="23" t="str">
+        <f>'TC09-Create New User'!D2</f>
+        <v>PK-CUS-POC-S13-5</v>
+      </c>
+      <c r="E2" s="23" t="str">
+        <f>'TC09-Create New User'!E2</f>
+        <v>PK-CUS by Upload S13-5</v>
+      </c>
+      <c r="F2" s="23" t="str">
+        <f>'TC09-Create New User'!F2</f>
+        <v>PK-CUS-POC-S13-5 ( PK-CUS by Upload S13-5 )</v>
+      </c>
+      <c r="G2" s="23" t="str">
+        <f>'TC09-Create New User'!G2</f>
+        <v>RoleA</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD6870-87F3-4941-BFA6-FB0F0EDE2000}">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>219</v>
       </c>
@@ -9736,7 +9814,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
         <v>B-231101-TBA-10</v>
@@ -9806,7 +9884,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
         <v>B-231101-TBA-10</v>
@@ -9874,133 +9952,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="43.6640625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="114" t="str">
-        <f>'TC09-Create New User'!A1</f>
-        <v>LoginID</v>
-      </c>
-      <c r="C1" s="114" t="str">
-        <f>'TC09-Create New User'!B1</f>
-        <v>Username</v>
-      </c>
-      <c r="D1" s="114" t="str">
-        <f>'TC09-Create New User'!C1</f>
-        <v>Email</v>
-      </c>
-      <c r="E1" s="114" t="str">
-        <f>'TC09-Create New User'!D1</f>
-        <v>UserCompanyCode</v>
-      </c>
-      <c r="F1" s="114" t="str">
-        <f>'TC09-Create New User'!E1</f>
-        <v>UserCompanyName</v>
-      </c>
-      <c r="G1" s="114" t="str">
-        <f>'TC09-Create New User'!F1</f>
-        <v>DefaultCompany</v>
-      </c>
-      <c r="H1" s="114" t="str">
-        <f>'TC09-Create New User'!G1</f>
-        <v>UserRole</v>
-      </c>
-      <c r="I1" s="116" t="str">
-        <f>'TC09-Create New User'!H1</f>
-        <v>BriVgeVerificationCode</v>
-      </c>
-      <c r="J1" s="114" t="str">
-        <f>'TC09-Create New User'!I1</f>
-        <v>BriVgeUserGenCode</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="115" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="str">
-        <f>'TC09-Create New User'!A2</f>
-        <v>musyarustb2</v>
-      </c>
-      <c r="C2" s="23" t="str">
-        <f>'TC09-Create New User'!B2</f>
-        <v>musyarustb2</v>
-      </c>
-      <c r="D2" s="23" t="str">
-        <f>'TC09-Create New User'!C2</f>
-        <v>musyarustb2@outlook.com</v>
-      </c>
-      <c r="E2" s="23" t="str">
-        <f>'TC09-Create New User'!D2</f>
-        <v>PK-CUS-POC-S13-5</v>
-      </c>
-      <c r="F2" s="23" t="str">
-        <f>'TC09-Create New User'!E2</f>
-        <v>PK-CUS by Upload S13-5</v>
-      </c>
-      <c r="G2" s="23" t="str">
-        <f>'TC09-Create New User'!F2</f>
-        <v>PK-CUS-POC-S13-5 ( PK-CUS by Upload S13-5 )</v>
-      </c>
-      <c r="H2" s="23" t="str">
-        <f>'TC09-Create New User'!G2</f>
-        <v>RoleA</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="23" t="str">
-        <f>'TC09-Create New User'!I2</f>
-        <v>u55F}</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5B5AF-A084-4EF7-9F9D-0F10CC18FDD7}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5B5AF-A084-4EF7-9F9D-0F10CC18FDD7}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -10008,12 +9966,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -10027,7 +9985,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.2" r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -10059,7 +10017,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -10073,47 +10031,167 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="39.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="43.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="114" t="str">
+        <f>'TC09-Create New User'!A1</f>
+        <v>LoginID</v>
+      </c>
+      <c r="C1" s="114" t="str">
+        <f>'TC09-Create New User'!B1</f>
+        <v>Username</v>
+      </c>
+      <c r="D1" s="114" t="str">
+        <f>'TC09-Create New User'!C1</f>
+        <v>Email</v>
+      </c>
+      <c r="E1" s="114" t="str">
+        <f>'TC09-Create New User'!D1</f>
+        <v>UserCompanyCode</v>
+      </c>
+      <c r="F1" s="114" t="str">
+        <f>'TC09-Create New User'!E1</f>
+        <v>UserCompanyName</v>
+      </c>
+      <c r="G1" s="114" t="str">
+        <f>'TC09-Create New User'!F1</f>
+        <v>DefaultCompany</v>
+      </c>
+      <c r="H1" s="114" t="str">
+        <f>'TC09-Create New User'!G1</f>
+        <v>UserRole</v>
+      </c>
+      <c r="I1" s="116" t="str">
+        <f>'TC09-Create New User'!H1</f>
+        <v>BriVgeVerificationCode</v>
+      </c>
+      <c r="J1" s="114" t="str">
+        <f>'TC09-Create New User'!I1</f>
+        <v>BriVgeUserGenCode</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row ht="29.4" r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="str">
+        <f>'TC09-Create New User'!A2</f>
+        <v>musyarustb2</v>
+      </c>
+      <c r="C2" s="23" t="str">
+        <f>'TC09-Create New User'!B2</f>
+        <v>musyarustb2</v>
+      </c>
+      <c r="D2" s="23" t="str">
+        <f>'TC09-Create New User'!C2</f>
+        <v>musyarustb2@outlook.com</v>
+      </c>
+      <c r="E2" s="23" t="str">
+        <f>'TC09-Create New User'!D2</f>
+        <v>PK-CUS-POC-S13-5</v>
+      </c>
+      <c r="F2" s="23" t="str">
+        <f>'TC09-Create New User'!E2</f>
+        <v>PK-CUS by Upload S13-5</v>
+      </c>
+      <c r="G2" s="23" t="str">
+        <f>'TC09-Create New User'!F2</f>
+        <v>PK-CUS-POC-S13-5 ( PK-CUS by Upload S13-5 )</v>
+      </c>
+      <c r="H2" s="23" t="str">
+        <f>'TC09-Create New User'!G2</f>
+        <v>RoleA</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="23" t="str">
+        <f>'TC09-Create New User'!I2</f>
+        <v>u55F}</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" ht="15" r="1" s="27" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="117" t="s">
         <v>39</v>
       </c>
@@ -10187,7 +10265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15" r="2" s="27" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f>"CNTWSUP-PKCUS "&amp;AutoIncrement!C2</f>
         <v>CNTWSUP-PKCUS TBA</v>
@@ -10264,39 +10342,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O1" location="RANGE!A1" display="ETDWeekDay (click here to set ETD days)" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
-    <hyperlink ref="X1" location="RANGE!A1" display="Shipping Frequency Weeks (Click here to add week)" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
+    <hyperlink display="ETDWeekDay (click here to set ETD days)" location="RANGE!A1" ref="O1" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
+    <hyperlink display="Shipping Frequency Weeks (Click here to add week)" location="RANGE!A1" ref="X1" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
-  <dimension ref="A1:O2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.44140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.6640625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.88671875" style="27" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="10.44140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="27" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="11.33203125" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="27" width="29.88671875" collapsed="true"/>
+    <col min="16" max="16384" style="27" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>70</v>
       </c>
@@ -10343,7 +10421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>85</v>
       </c>
@@ -10392,49 +10470,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="str">
-        <f>"RequestPartTB-"&amp;AutoIncrement!A2</f>
-        <v>RequestPartTB-10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -10605,22 +10660,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C04EBEA-A692-4245-ACA9-C2F3A01D3C88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10637,21 +10694,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC43D65-E2A1-4713-A048-292816DF3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D26756-0E8A-4B08-9DC3-7D4CA923ED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-16488" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="618" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5856" yWindow="84" windowWidth="17280" windowHeight="8880" tabRatio="618" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="66" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="311">
   <si>
     <t>Color</t>
   </si>
@@ -1039,6 +1039,12 @@
   </si>
   <si>
     <t>Parts No.</t>
+  </si>
+  <si>
+    <t>Part No</t>
+  </si>
+  <si>
+    <t>OrderReference</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1777,6 +1783,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1784,7 +1803,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2285,6 +2304,28 @@
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2681,7 +2722,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2966,7 +3007,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3012,7 +3053,7 @@
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B2" s="56" t="str">
-        <f>'TC35-Contract Parts Info'!B2</f>
+        <f>'TC35-Contract Parts Info'!$B$2</f>
         <v>TBAscenario1320230614011</v>
       </c>
       <c r="C2" s="56" t="str">
@@ -3043,7 +3084,7 @@
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B3" s="52" t="str">
-        <f>'TC35-Contract Parts Info'!B3</f>
+        <f>'TC35-Contract Parts Info'!$B$3</f>
         <v>TBAscenario1320230614012</v>
       </c>
       <c r="C3" s="52" t="str">
@@ -3074,7 +3115,7 @@
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B4" s="53" t="str">
-        <f>'TC35-Contract Parts Info'!B4</f>
+        <f>'TC35-Contract Parts Info'!$B$4</f>
         <v>TBAscenario1320230614013</v>
       </c>
       <c r="C4" s="53" t="str">
@@ -3401,7 +3442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3429,7 +3470,7 @@
       </c>
       <c r="C2" s="42" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>01 Jan 2024</v>
+        <v>03 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -3441,7 +3482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2961C8-2794-49C8-9EF8-51062C289C1A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3469,7 +3512,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3581,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F2D55E-AAFD-4294-90CF-A3D8D0EF5DA0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3633,68 +3676,84 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="4" max="5" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="179" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="56" t="str">
+        <f>'TC35-Contract Parts Info'!$B$2</f>
+        <v>TBAscenario1320230614011</v>
+      </c>
+      <c r="C2" s="181">
         <v>150</v>
       </c>
-      <c r="C2" s="62">
+      <c r="D2" s="181">
         <v>150</v>
       </c>
-      <c r="D2" s="63"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="182"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="52" t="str">
+        <f>'TC35-Contract Parts Info'!$B$3</f>
+        <v>TBAscenario1320230614012</v>
+      </c>
+      <c r="C3" s="183">
         <v>150</v>
       </c>
-      <c r="C3" s="28">
+      <c r="D3" s="183">
         <v>100</v>
       </c>
-      <c r="D3" s="59">
+      <c r="E3" s="184">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="53" t="str">
+        <f>'TC35-Contract Parts Info'!$B$4</f>
+        <v>TBAscenario1320230614013</v>
+      </c>
+      <c r="C4" s="185">
         <v>50</v>
       </c>
-      <c r="C4" s="29">
+      <c r="D4" s="185">
         <v>0</v>
       </c>
-      <c r="D4" s="30">
+      <c r="E4" s="186">
         <v>50</v>
       </c>
     </row>
@@ -3706,10 +3765,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3717,9 +3776,10 @@
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3729,18 +3789,33 @@
       <c r="C1" s="115" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="180" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="str">
+      <c r="B2" s="42" t="str">
+        <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd MMM yyyy")</f>
+        <v>29 Feb 2024</v>
+      </c>
+      <c r="C2" s="42" t="str">
+        <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))+20), "dd MMM yyyy")</f>
+        <v>20 Mar 2024</v>
+      </c>
+      <c r="D2" t="str">
+        <f>AutoIncrement!$C$2&amp;AutoIncrement!$A$2&amp;"-TC-47"</f>
+        <v>TBA10-TC-47</v>
+      </c>
+      <c r="F2" s="23" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+3), "dd MMM yyyy")</f>
-        <v>04 Jan 2024</v>
-      </c>
-      <c r="C2" s="32" t="str">
+        <v>06 Jan 2024</v>
+      </c>
+      <c r="G2" s="32" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+5), "dd MMM yyyy")</f>
-        <v>06 Jan 2024</v>
+        <v>08 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -4473,7 +4548,7 @@
       </c>
       <c r="E2" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"dd/m/yyyy")</f>
-        <v>01/11/2023</v>
+        <v>03/11/2023</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>195</v>
@@ -4532,18 +4607,18 @@
       </c>
       <c r="B2" s="130" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231101-10</v>
+        <v>o-CNTW-SUP-POC-231103-10</v>
       </c>
       <c r="C2" s="131" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="D2" s="131" t="s">
         <v>202</v>
       </c>
       <c r="E2" s="131" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231101-10</v>
+        <v>O-231103-10</v>
       </c>
       <c r="F2" s="131" t="s">
         <v>203</v>
@@ -4558,18 +4633,18 @@
       </c>
       <c r="B3" s="133" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231101-10</v>
+        <v>o-CNTW-SUP-POC-231103-10</v>
       </c>
       <c r="C3" s="134" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="D3" s="134" t="s">
         <v>205</v>
       </c>
       <c r="E3" s="134" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231101-10</v>
+        <v>O-231103-10</v>
       </c>
       <c r="F3" s="134" t="s">
         <v>206</v>
@@ -4584,16 +4659,16 @@
       </c>
       <c r="B4" s="136" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231101-10</v>
+        <v>o-CNTW-SUP-POC-231103-10</v>
       </c>
       <c r="C4" s="137" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="137" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231101-10</v>
+        <v>O-231103-10</v>
       </c>
       <c r="F4" s="137" t="s">
         <v>203</v>
@@ -4636,7 +4711,7 @@
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!A2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
     </row>
   </sheetData>
@@ -5545,7 +5620,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -5615,7 +5690,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -5685,7 +5760,7 @@
     <row r="4" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35" t="s">
@@ -5827,7 +5902,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -5847,18 +5922,18 @@
       </c>
       <c r="G2" s="84">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="H2" s="84">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45233</v>
       </c>
       <c r="I2" s="83" t="s">
         <v>256</v>
       </c>
       <c r="J2" s="84">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="K2" s="83" t="s">
         <v>257</v>
@@ -5879,7 +5954,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -5899,18 +5974,18 @@
       </c>
       <c r="G3" s="78">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="H3" s="78">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45233</v>
       </c>
       <c r="I3" s="77" t="s">
         <v>256</v>
       </c>
       <c r="J3" s="78">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="K3" s="77" t="s">
         <v>257</v>
@@ -5931,7 +6006,7 @@
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="80" t="s">
@@ -5948,18 +6023,18 @@
       </c>
       <c r="G4" s="81">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="H4" s="81">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45233</v>
       </c>
       <c r="I4" s="80" t="s">
         <v>256</v>
       </c>
       <c r="J4" s="81">
         <f ca="1">TODAY()-2</f>
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="K4" s="80" t="s">
         <v>257</v>
@@ -6103,8 +6178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF25709-9C2B-4E3D-B69D-6D4636930677}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6274,7 +6349,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -6418,7 +6493,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -6571,7 +6646,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -6641,7 +6716,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -7349,7 +7424,7 @@
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231101-10</v>
+        <v>o-CNTW-SUP-POC-231103-10</v>
       </c>
       <c r="C2" s="62" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
@@ -7376,7 +7451,7 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231101-10</v>
+        <v>o-CNTW-SUP-POC-231103-10</v>
       </c>
       <c r="C3" s="28" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -7401,7 +7476,7 @@
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231101-10</v>
+        <v>o-CNTW-SUP-POC-231103-10</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7595,7 +7670,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7728,7 +7803,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7932,7 +8007,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -8002,7 +8077,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -8180,7 +8255,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -8321,7 +8396,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -8471,7 +8546,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -8541,7 +8616,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -8691,7 +8766,7 @@
       </c>
       <c r="C2" s="62" t="str">
         <f ca="1">'TC069'!B2</f>
-        <v>o-CNTW-SUP-POC-231101-10</v>
+        <v>o-CNTW-SUP-POC-231103-10</v>
       </c>
       <c r="D2" s="62" t="str">
         <f>'TC069'!C2</f>
@@ -8703,11 +8778,11 @@
       </c>
       <c r="F2" s="151" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231101-TBA-001</v>
+        <v>i-CNTW-SUP-POC-231103-TBA-001</v>
       </c>
       <c r="G2" s="62" t="str">
         <f ca="1">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>1 Nov 2023</v>
+        <v>3 Nov 2023</v>
       </c>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
@@ -8733,7 +8808,7 @@
       </c>
       <c r="C3" s="28" t="str">
         <f ca="1">'TC069'!B3</f>
-        <v>o-CNTW-SUP-POC-231101-10</v>
+        <v>o-CNTW-SUP-POC-231103-10</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>'TC069'!C3</f>
@@ -8745,11 +8820,11 @@
       </c>
       <c r="F3" s="153" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231101-TBA-001</v>
+        <v>i-CNTW-SUP-POC-231103-TBA-001</v>
       </c>
       <c r="G3" s="28" t="str">
         <f t="shared" ref="G3:G4" ca="1" si="0">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>1 Nov 2023</v>
+        <v>3 Nov 2023</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -8781,7 +8856,7 @@
       </c>
       <c r="C4" s="29" t="str">
         <f ca="1">'TC069'!B4</f>
-        <v>o-CNTW-SUP-POC-231101-10</v>
+        <v>o-CNTW-SUP-POC-231103-10</v>
       </c>
       <c r="D4" s="29" t="str">
         <f>'TC069'!C4</f>
@@ -8793,11 +8868,11 @@
       </c>
       <c r="F4" s="155" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231101-TBA-001</v>
+        <v>i-CNTW-SUP-POC-231103-TBA-001</v>
       </c>
       <c r="G4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1 Nov 2023</v>
+        <v>3 Nov 2023</v>
       </c>
       <c r="H4" s="29">
         <v>1</v>
@@ -9478,7 +9553,7 @@
       </c>
       <c r="B2" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="C2" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D2="","",'TC52-Upload Obound Form'!D2)</f>
@@ -9498,7 +9573,7 @@
       </c>
       <c r="B3" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="C3" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D3="","",'TC52-Upload Obound Form'!D3)</f>
@@ -9518,7 +9593,7 @@
       </c>
       <c r="B4" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="C4" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
@@ -9701,7 +9776,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9831,7 +9906,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9980,7 +10055,7 @@
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -10050,7 +10125,7 @@
     <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
@@ -10154,7 +10229,7 @@
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="C2" s="101" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -10170,7 +10245,7 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="C3" s="99" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -10186,7 +10261,7 @@
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231101-TBA-10</v>
+        <v>B-231103-TBA-10</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="30" t="s">

--- a/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
@@ -1,82 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC32E78-5AEC-4A07-87F1-6ED16A6B3A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{60F02829-B2CA-4B8D-BB70-F0013CA845C4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" firstSheet="22" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" firstSheet="3" tabRatio="618" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" sheetId="66" r:id="rId1"/>
-    <sheet name="AutoGen" sheetId="67" r:id="rId2"/>
-    <sheet name="AutoIncrement" sheetId="14" r:id="rId3"/>
-    <sheet name="TC09-Create New User" sheetId="18" r:id="rId4"/>
-    <sheet name="TC14n15" sheetId="65" r:id="rId5"/>
-    <sheet name="TC019-Activate User" sheetId="61" r:id="rId6"/>
-    <sheet name="TC021-Forget Password" sheetId="59" r:id="rId7"/>
-    <sheet name="TC033" sheetId="19" r:id="rId8"/>
-    <sheet name="TC033_ETAnWeek" sheetId="20" r:id="rId9"/>
-    <sheet name="TC34" sheetId="9" r:id="rId10"/>
-    <sheet name="TC35-Contract Parts Info" sheetId="6" r:id="rId11"/>
-    <sheet name="TC35" sheetId="3" r:id="rId12"/>
-    <sheet name="TC038" sheetId="21" r:id="rId13"/>
-    <sheet name="TC039" sheetId="23" r:id="rId14"/>
-    <sheet name="S13_TC40" sheetId="44" r:id="rId15"/>
-    <sheet name="TC041 - Place Order (Regular)" sheetId="2" r:id="rId16"/>
-    <sheet name="TC041-Inbound Date" sheetId="13" r:id="rId17"/>
-    <sheet name="TC041-Reference" sheetId="68" r:id="rId18"/>
-    <sheet name="TC42" sheetId="4" r:id="rId19"/>
-    <sheet name="TC44" sheetId="5" r:id="rId20"/>
-    <sheet name="TC46-Price" sheetId="69" r:id="rId21"/>
-    <sheet name="TC47-Change Order" sheetId="7" r:id="rId22"/>
-    <sheet name="TC47-Change Inbound Dates" sheetId="8" r:id="rId23"/>
-    <sheet name="TC48" sheetId="10" r:id="rId24"/>
-    <sheet name="TC049" sheetId="24" r:id="rId25"/>
-    <sheet name="TC050" sheetId="25" r:id="rId26"/>
-    <sheet name="TC051" sheetId="70" r:id="rId27"/>
-    <sheet name="TC52-Download Obound Form" sheetId="11" r:id="rId28"/>
-    <sheet name="TC52-Upload Obound Form" sheetId="12" r:id="rId29"/>
-    <sheet name="TC52-Upload Obound Setup" sheetId="17" r:id="rId30"/>
-    <sheet name="TC52-Autogen Outbound Data" sheetId="57" r:id="rId31"/>
-    <sheet name="TC053" sheetId="26" r:id="rId32"/>
-    <sheet name="TC054" sheetId="27" r:id="rId33"/>
-    <sheet name="TC55" sheetId="22" r:id="rId34"/>
-    <sheet name="TC56-Custom Invoice Exp" sheetId="15" r:id="rId35"/>
-    <sheet name="TC57-Custom Invoice Imp" sheetId="16" r:id="rId36"/>
-    <sheet name="TC58n59" sheetId="28" r:id="rId37"/>
-    <sheet name="TC62" sheetId="51" r:id="rId38"/>
-    <sheet name="TC62-Setup Data" sheetId="55" r:id="rId39"/>
-    <sheet name="TC063" sheetId="29" r:id="rId40"/>
-    <sheet name="TC64n65_ForecastContainer" sheetId="37" r:id="rId41"/>
-    <sheet name="TC64n65_ForecastContainer-Manua" sheetId="47" r:id="rId42"/>
-    <sheet name="TC64n65_NonFContainer" sheetId="38" r:id="rId43"/>
-    <sheet name="TC067" sheetId="30" r:id="rId44"/>
-    <sheet name="TC068" sheetId="31" r:id="rId45"/>
-    <sheet name="TC069" sheetId="52" r:id="rId46"/>
-    <sheet name="TC070" sheetId="54" r:id="rId47"/>
-    <sheet name="TC072" sheetId="45" r:id="rId48"/>
-    <sheet name="TC073n074_ForecastContainer" sheetId="32" r:id="rId49"/>
-    <sheet name="TC073n074_Forecast-Manual" sheetId="48" r:id="rId50"/>
-    <sheet name="TC073n074_NonFContainer" sheetId="39" r:id="rId51"/>
-    <sheet name="TC075" sheetId="46" r:id="rId52"/>
-    <sheet name="TC076n077_ForecastContainer" sheetId="40" r:id="rId53"/>
-    <sheet name="TC076n077_Forecast-Manaul" sheetId="49" r:id="rId54"/>
-    <sheet name="TC076n077_NonFContainer" sheetId="41" r:id="rId55"/>
-    <sheet name="TC078" sheetId="58" r:id="rId56"/>
-    <sheet name="TC079" sheetId="34" r:id="rId57"/>
-    <sheet name="TC080" sheetId="35" r:id="rId58"/>
-    <sheet name="TC82-New Buyer GR Invoice" sheetId="64" r:id="rId59"/>
-    <sheet name="TC83-Inbound Shipping Details" sheetId="56" r:id="rId60"/>
-    <sheet name="TC084n085_ForecastContainer" sheetId="42" r:id="rId61"/>
-    <sheet name="TC084n085_Forecast-Manual" sheetId="50" r:id="rId62"/>
-    <sheet name="TC084n085_NonFContainer" sheetId="43" r:id="rId63"/>
-    <sheet name="TC086" sheetId="62" r:id="rId64"/>
+    <sheet name="Indicator" r:id="rId1" sheetId="66"/>
+    <sheet name="AutoGen" r:id="rId2" sheetId="67"/>
+    <sheet name="AutoIncrement" r:id="rId3" sheetId="14"/>
+    <sheet name="TC09-Create New User" r:id="rId4" sheetId="18"/>
+    <sheet name="TC14n15" r:id="rId5" sheetId="65"/>
+    <sheet name="TC019-Activate User" r:id="rId6" sheetId="61"/>
+    <sheet name="TC021-Forget Password" r:id="rId7" sheetId="59"/>
+    <sheet name="TC033" r:id="rId8" sheetId="19"/>
+    <sheet name="TC033_ETAnWeek" r:id="rId9" sheetId="20"/>
+    <sheet name="TC34" r:id="rId10" sheetId="9"/>
+    <sheet name="TC35-Contract Parts Info" r:id="rId11" sheetId="6"/>
+    <sheet name="TC35" r:id="rId12" sheetId="3"/>
+    <sheet name="TC038" r:id="rId13" sheetId="21"/>
+    <sheet name="TC039" r:id="rId14" sheetId="23"/>
+    <sheet name="S13_TC40" r:id="rId15" sheetId="44"/>
+    <sheet name="TC041 - Place Order (Regular)" r:id="rId16" sheetId="2"/>
+    <sheet name="TC041-Inbound Date" r:id="rId17" sheetId="13"/>
+    <sheet name="TC041-Reference" r:id="rId18" sheetId="68"/>
+    <sheet name="TC42" r:id="rId19" sheetId="4"/>
+    <sheet name="TC44" r:id="rId20" sheetId="5"/>
+    <sheet name="TC46-Price" r:id="rId21" sheetId="69"/>
+    <sheet name="TC47-Change Order" r:id="rId22" sheetId="7"/>
+    <sheet name="TC47-Change Inbound Dates" r:id="rId23" sheetId="8"/>
+    <sheet name="TC48" r:id="rId24" sheetId="10"/>
+    <sheet name="TC049" r:id="rId25" sheetId="24"/>
+    <sheet name="TC050" r:id="rId26" sheetId="25"/>
+    <sheet name="TC051" r:id="rId27" sheetId="70"/>
+    <sheet name="TC52-Download Obound Form" r:id="rId28" sheetId="11"/>
+    <sheet name="TC52-Upload Obound Form" r:id="rId29" sheetId="12"/>
+    <sheet name="TC52-Upload Obound Setup" r:id="rId30" sheetId="17"/>
+    <sheet name="TC52-Autogen Outbound Data" r:id="rId31" sheetId="57"/>
+    <sheet name="TC053" r:id="rId32" sheetId="26"/>
+    <sheet name="TC054" r:id="rId33" sheetId="27"/>
+    <sheet name="TC55" r:id="rId34" sheetId="22"/>
+    <sheet name="TC56-Custom Invoice Exp" r:id="rId35" sheetId="15"/>
+    <sheet name="TC57-Custom Invoice Imp" r:id="rId36" sheetId="16"/>
+    <sheet name="TC58n59" r:id="rId37" sheetId="28"/>
+    <sheet name="TC62" r:id="rId38" sheetId="51"/>
+    <sheet name="TC62-Setup Data" r:id="rId39" sheetId="55"/>
+    <sheet name="TC063" r:id="rId40" sheetId="29"/>
+    <sheet name="TC64n65_ForecastContainer" r:id="rId41" sheetId="37"/>
+    <sheet name="TC64n65_ForecastContainer-Manua" r:id="rId42" sheetId="47"/>
+    <sheet name="TC64n65_NonFContainer" r:id="rId43" sheetId="38"/>
+    <sheet name="TC067" r:id="rId44" sheetId="30"/>
+    <sheet name="TC068" r:id="rId45" sheetId="31"/>
+    <sheet name="TC069" r:id="rId46" sheetId="52"/>
+    <sheet name="TC070" r:id="rId47" sheetId="54"/>
+    <sheet name="TC072" r:id="rId48" sheetId="45"/>
+    <sheet name="TC073n074_ForecastContainer" r:id="rId49" sheetId="32"/>
+    <sheet name="TC073n074_Forecast-Manual" r:id="rId50" sheetId="48"/>
+    <sheet name="TC073n074_NonFContainer" r:id="rId51" sheetId="39"/>
+    <sheet name="TC075" r:id="rId52" sheetId="46"/>
+    <sheet name="TC076n077_ForecastContainer" r:id="rId53" sheetId="40"/>
+    <sheet name="TC076n077_Forecast-Manaul" r:id="rId54" sheetId="49"/>
+    <sheet name="TC076n077_NonFContainer" r:id="rId55" sheetId="41"/>
+    <sheet name="TC078" r:id="rId56" sheetId="58"/>
+    <sheet name="TC079" r:id="rId57" sheetId="34"/>
+    <sheet name="TC080" r:id="rId58" sheetId="35"/>
+    <sheet name="TC82-New Buyer GR Invoice" r:id="rId59" sheetId="64"/>
+    <sheet name="TC83-Inbound Shipping Details" r:id="rId60" sheetId="56"/>
+    <sheet name="TC084n085_ForecastContainer" r:id="rId61" sheetId="42"/>
+    <sheet name="TC084n085_Forecast-Manual" r:id="rId62" sheetId="50"/>
+    <sheet name="TC084n085_NonFContainer" r:id="rId63" sheetId="43"/>
+    <sheet name="TC086" r:id="rId64" sheetId="62"/>
   </sheets>
   <definedNames>
     <definedName name="activeFlagListArr">#REF!</definedName>
@@ -94,7 +94,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="321">
   <si>
     <t>Color</t>
   </si>
@@ -745,15 +745,6 @@
     <t>outboundETA</t>
   </si>
   <si>
-    <t>o-CNTW-SUP-POC-230927001</t>
-  </si>
-  <si>
-    <t>Oct 9, 2023</t>
-  </si>
-  <si>
-    <t>Oct 19, 2023</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -1064,6 +1055,27 @@
   </si>
   <si>
     <t>Delivery Plan 3</t>
+  </si>
+  <si>
+    <t>Receiver Requested Inbound Date</t>
+  </si>
+  <si>
+    <t>o-CNTW-SUP-POC-231106001</t>
+  </si>
+  <si>
+    <t>Nov 10, 2023</t>
+  </si>
+  <si>
+    <t>Nov 20, 2023</t>
+  </si>
+  <si>
+    <t>Planoutin plan 3</t>
+  </si>
+  <si>
+    <t>Planoutin status 3</t>
+  </si>
+  <si>
+    <t>TW12311003</t>
   </si>
 </sst>
 </file>
@@ -1231,6 +1243,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -1355,7 +1368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1831,544 +1844,556 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="188">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="7" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="7" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="13" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="8" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="12" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="16" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="22" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="25" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="26" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="3" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="15" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="14" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="14" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="10" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="9" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="24" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="27" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="29" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="30" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="31" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="32" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="6" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="18" fontId="21" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="3" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="20" numFmtId="4" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="19" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="19" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="19" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="20" fontId="21" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="22" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{5BE18606-4F8F-4CCD-9137-17B790CEBD76}"/>
     <cellStyle name="Normal 6 2 2" xfId="3" xr:uid="{8F4233B3-4354-4AAF-AA97-E0549C984B4E}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2385,10 +2410,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2423,7 +2448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2458,7 +2483,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2552,21 +2577,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2583,7 +2608,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2635,15 +2660,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -2651,13 +2676,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="2:4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row ht="15" r="2" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
@@ -2695,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="6" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="162"/>
       <c r="C6" s="163" t="s">
         <v>9</v>
@@ -2705,13 +2730,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2719,13 +2744,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -2733,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -2743,16 +2768,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2760,13 +2785,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -2780,7 +2805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2797,7 +2822,7 @@
         <v>CNTW-SUP-TBA-scenario13-20230604-001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2814,7 +2839,7 @@
         <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="27" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2832,50 +2857,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="68.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="44.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="68.44140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -2949,12 +2974,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C2" s="23" t="str">
         <f>"CNTWSUP-PKCUS-"&amp;'TC35'!K2&amp;"-0"&amp;AutoIncrement!A2</f>
@@ -3027,17 +3052,17 @@
         <v>119</v>
       </c>
       <c r="X2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3045,16 +3070,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>120</v>
       </c>
@@ -3080,7 +3105,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="19.5" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -3111,7 +3136,7 @@
         <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="27" r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -3142,7 +3167,7 @@
         <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="30" r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -3174,31 +3199,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>120</v>
       </c>
@@ -3224,7 +3249,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="12" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -3290,7 +3315,7 @@
         <v>CNTWSUP-PKCUS TBA</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="16.5" r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f>'TC35'!X2</f>
         <v>CR-PK-CUS-POC-S13-5-2311001</v>
@@ -3324,29 +3349,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>131</v>
       </c>
@@ -3366,7 +3391,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>67</v>
       </c>
@@ -3390,13 +3415,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13:G14"/>
@@ -3404,13 +3429,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
         <v>33</v>
       </c>
@@ -3452,7 +3477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="60">
         <v>3</v>
       </c>
@@ -3467,25 +3492,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>33</v>
       </c>
@@ -3493,7 +3518,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -3503,17 +3528,17 @@
       </c>
       <c r="C2" s="42" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>06 Jan 2024</v>
+        <v>07 Jan 2024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2961C8-2794-49C8-9EF8-51062C289C1A}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2961C8-2794-49C8-9EF8-51062C289C1A}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3521,12 +3546,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -3536,13 +3561,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3550,8 +3575,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3562,10 +3587,10 @@
         <v>142</v>
       </c>
       <c r="C1" s="175" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3574,17 +3599,17 @@
         <v>cTBA-2311001</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC73214-8B66-4496-A999-3457BA70A84F}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC73214-8B66-4496-A999-3457BA70A84F}">
+  <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3592,28 +3617,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="173" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3621,11 +3646,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3633,10 +3658,10 @@
         <v>143</v>
       </c>
       <c r="C1" s="175" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3645,17 +3670,17 @@
         <v>sTBA-2311001</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F2D55E-AAFD-4294-90CF-A3D8D0EF5DA0}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F2D55E-AAFD-4294-90CF-A3D8D0EF5DA0}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3663,13 +3688,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="176" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B1" s="177" t="s">
         <v>163</v>
@@ -3703,13 +3728,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3717,16 +3742,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="179" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>144</v>
@@ -3738,7 +3763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3754,7 +3779,7 @@
       </c>
       <c r="E2" s="63"/>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3772,7 +3797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="29.4" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3792,27 +3817,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3823,10 +3848,10 @@
         <v>148</v>
       </c>
       <c r="D1" s="180" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3844,22 +3869,22 @@
       </c>
       <c r="F2" s="23" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+3), "dd MMM yyyy")</f>
-        <v>09 Jan 2024</v>
+        <v>10 Jan 2024</v>
       </c>
       <c r="G2" s="32" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+5), "dd MMM yyyy")</f>
-        <v>11 Jan 2024</v>
+        <v>12 Jan 2024</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -3867,11 +3892,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3879,10 +3904,10 @@
         <v>149</v>
       </c>
       <c r="C1" s="181" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -3891,49 +3916,49 @@
         <v>rcTBA-2311001</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>150</v>
       </c>
@@ -4007,10 +4032,10 @@
         <v>171</v>
       </c>
       <c r="Y1" s="50" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.5" r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTBA-2311001</v>
@@ -4155,7 +4180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -4226,37 +4251,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
@@ -4336,7 +4361,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTBA-2311001</v>
@@ -4479,7 +4504,7 @@
       </c>
       <c r="Y3" s="67"/>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -4549,93 +4574,113 @@
       <c r="Y4" s="36"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7924362-69F4-490E-B640-A04EBD292624}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7924362-69F4-490E-B640-A04EBD292624}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="185" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" t="s">
         <v>314</v>
       </c>
+      <c r="B1" s="185" t="s">
+        <v>305</v>
+      </c>
       <c r="C1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="str">
+        <v>312</v>
+      </c>
+      <c r="E1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="str">
+        <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd-MMM-yyyy")</f>
+        <v>29-Feb-2024</v>
+      </c>
+      <c r="B2" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
         <v>TBAscenario1320230614011</v>
       </c>
-      <c r="B2" s="186">
+      <c r="C2" s="186">
         <v>150</v>
       </c>
-      <c r="C2" s="186"/>
       <c r="D2" s="186"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="str">
+      <c r="E2" s="186"/>
+    </row>
+    <row ht="15" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="str">
+        <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd-MMM-yyyy")</f>
+        <v>29-Feb-2024</v>
+      </c>
+      <c r="B3" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
         <v>TBAscenario1320230614012</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186">
+      <c r="C3" s="186"/>
+      <c r="D3" s="186">
         <v>100</v>
       </c>
-      <c r="D3" s="186"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="str">
+      <c r="E3" s="186"/>
+    </row>
+    <row ht="15" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="str">
+        <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))+20), "dd-MMM-yyyy")</f>
+        <v>20-Mar-2024</v>
+      </c>
+      <c r="B4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
         <v>TBAscenario1320230614012</v>
       </c>
-      <c r="B4" s="186"/>
       <c r="C4" s="186"/>
-      <c r="D4" s="186">
+      <c r="D4" s="186"/>
+      <c r="E4" s="186">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="str">
+    <row ht="15" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="str">
+        <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))+20), "dd-MMM-yyyy")</f>
+        <v>20-Mar-2024</v>
+      </c>
+      <c r="B5" s="53" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
         <v>TBAscenario1320230614013</v>
       </c>
-      <c r="B5" s="186"/>
       <c r="C5" s="186"/>
-      <c r="D5" s="186">
+      <c r="D5" s="186"/>
+      <c r="E5" s="186">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
@@ -4643,14 +4688,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4670,7 +4716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -4687,37 +4733,37 @@
       </c>
       <c r="E2" s="72" t="str">
         <f ca="1">TEXT(TODAY(),"dd/m/yyyy")</f>
-        <v>06/11/2023</v>
+        <v>07/11/2023</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4746,18 +4792,18 @@
       </c>
       <c r="B2" s="130" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231106-10</v>
+        <v>o-CNTW-SUP-POC-231107-10</v>
       </c>
       <c r="C2" s="131" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="D2" s="131" t="s">
         <v>202</v>
       </c>
       <c r="E2" s="131" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231106-10</v>
+        <v>O-231107-10</v>
       </c>
       <c r="F2" s="131" t="s">
         <v>203</v>
@@ -4772,18 +4818,18 @@
       </c>
       <c r="B3" s="133" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231106-10</v>
+        <v>o-CNTW-SUP-POC-231107-10</v>
       </c>
       <c r="C3" s="134" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="D3" s="134" t="s">
         <v>205</v>
       </c>
       <c r="E3" s="134" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231106-10</v>
+        <v>O-231107-10</v>
       </c>
       <c r="F3" s="134" t="s">
         <v>206</v>
@@ -4792,22 +4838,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="136" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231106-10</v>
+        <v>o-CNTW-SUP-POC-231107-10</v>
       </c>
       <c r="C4" s="137" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="137" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231106-10</v>
+        <v>O-231107-10</v>
       </c>
       <c r="F4" s="137" t="s">
         <v>203</v>
@@ -4817,13 +4863,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
@@ -4831,12 +4877,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103" t="s">
         <v>11</v>
       </c>
@@ -4847,24 +4893,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="102" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B2" s="32">
         <v>5</v>
       </c>
       <c r="C2" s="169" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4873,12 +4919,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4886,41 +4932,41 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!A2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400BBE19-7391-40E2-B8EE-A3263958B10A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400BBE19-7391-40E2-B8EE-A3263958B10A}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="116" t="s">
         <v>207</v>
       </c>
       <c r="C1" s="116" t="s">
@@ -4930,48 +4976,51 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>212</v>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BCD4A-9E59-457E-8F07-757864EE6B7B}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BCD4A-9E59-457E-8F07-757864EE6B7B}">
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>177</v>
       </c>
@@ -5041,14 +5090,20 @@
       <c r="W1" s="50" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X1" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y1" s="50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -5081,14 +5136,14 @@
       <c r="M2" s="57">
         <v>150</v>
       </c>
-      <c r="N2" s="57">
-        <v>2.0499999999999998</v>
+      <c r="N2" s="182">
+        <v>3.05</v>
       </c>
       <c r="O2" s="57" t="s">
         <v>114</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="57">
         <v>150</v>
@@ -5111,8 +5166,14 @@
       <c r="W2" s="71" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="X2" s="187">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row ht="28.8" r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -5146,14 +5207,14 @@
       <c r="M3" s="51">
         <v>150</v>
       </c>
-      <c r="N3" s="51">
-        <v>2.0499999999999998</v>
+      <c r="N3" s="183">
+        <v>1.05</v>
       </c>
       <c r="O3" s="51" t="s">
         <v>114</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q3" s="51">
         <v>150</v>
@@ -5165,19 +5226,25 @@
         <v>0</v>
       </c>
       <c r="T3" s="51">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U3" s="51" t="s">
         <v>174</v>
       </c>
       <c r="V3" s="51">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W3" s="67" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X3" s="187">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row ht="29.4" r="4" spans="1:25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5211,14 +5278,14 @@
       <c r="M4" s="35">
         <v>50</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="184">
         <v>2.0499999999999998</v>
       </c>
       <c r="O4" s="35" t="s">
         <v>114</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="35">
         <v>50</v>
@@ -5236,47 +5303,53 @@
         <v>174</v>
       </c>
       <c r="V4" s="35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W4" s="36" t="s">
         <v>174</v>
       </c>
+      <c r="X4" s="187">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="36" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D7E12-5300-4A09-AA7E-C1C955B569DD}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D7E12-5300-4A09-AA7E-C1C955B569DD}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>150</v>
       </c>
@@ -5347,7 +5420,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTBA-2311001</v>
@@ -5388,14 +5461,14 @@
       <c r="N2" s="57">
         <v>0</v>
       </c>
-      <c r="O2" s="57">
-        <v>2.0499999999999998</v>
+      <c r="O2" s="182">
+        <v>3.05</v>
       </c>
       <c r="P2" s="57" t="s">
         <v>114</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R2" s="57">
         <v>0</v>
@@ -5452,14 +5525,14 @@
       <c r="N3" s="51">
         <v>0</v>
       </c>
-      <c r="O3" s="51">
-        <v>2.0499999999999998</v>
+      <c r="O3" s="183">
+        <v>1.05</v>
       </c>
       <c r="P3" s="51" t="s">
         <v>114</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R3" s="51">
         <v>0</v>
@@ -5480,7 +5553,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5516,14 +5589,14 @@
       <c r="N4" s="35">
         <v>0</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="184">
         <v>2.0499999999999998</v>
       </c>
       <c r="P4" s="35" t="s">
         <v>114</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R4" s="35">
         <v>0</v>
@@ -5545,13 +5618,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4216E-849B-435B-9F17-D9E1A9EDF9D8}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4216E-849B-435B-9F17-D9E1A9EDF9D8}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5559,33 +5632,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="139" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>216</v>
+      <c r="B2" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1701B649-547E-4FB3-9112-ED34471CFB15}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1701B649-547E-4FB3-9112-ED34471CFB15}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -5593,35 +5666,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="24.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="106" t="str">
         <f>'TC55'!B2</f>
-        <v>TW12309001</v>
+        <v>TW12311003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF9481-7D4D-4350-A942-13BCBB2DB6C8}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF9481-7D4D-4350-A942-13BCBB2DB6C8}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5629,419 +5702,419 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="str">
         <f>'TC56-Custom Invoice Exp'!B2</f>
-        <v>TW12309001</v>
+        <v>TW12311003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03306B6-D5F9-45C7-B4C8-70393277B99F}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03306B6-D5F9-45C7-B4C8-70393277B99F}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="31" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="18.75" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="G1" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="M1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="S1" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="V1" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U3" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V3" s="67" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="4" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D772A37-567D-4E83-92B1-382F9C11B95F}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D772A37-567D-4E83-92B1-382F9C11B95F}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="G1" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="H1" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="86" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="J1" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="K1" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="L1" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="M1" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="N1" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="O1" s="87" t="s">
         <v>251</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="N1" s="86" t="s">
-        <v>253</v>
-      </c>
-      <c r="O1" s="87" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -6057,28 +6130,28 @@
         <v>86</v>
       </c>
       <c r="F2" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="84" t="n">
+        <f ca="1">TODAY()-2</f>
+        <v>45235.0</v>
+      </c>
+      <c r="H2" s="84" t="n">
+        <f ca="1">TODAY()</f>
+        <v>45237.0</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="84" t="n">
+        <f ca="1">TODAY()-2</f>
+        <v>45235.0</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="83" t="s">
         <v>255</v>
-      </c>
-      <c r="G2" s="84">
-        <f ca="1">TODAY()-2</f>
-        <v>45234</v>
-      </c>
-      <c r="H2" s="84">
-        <f ca="1">TODAY()</f>
-        <v>45236</v>
-      </c>
-      <c r="I2" s="83" t="s">
-        <v>256</v>
-      </c>
-      <c r="J2" s="84">
-        <f ca="1">TODAY()-2</f>
-        <v>45234</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>258</v>
       </c>
       <c r="M2" s="83">
         <v>1</v>
@@ -6093,44 +6166,44 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" s="78">
+        <v>220</v>
+      </c>
+      <c r="G3" s="78" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45234</v>
-      </c>
-      <c r="H3" s="78">
+        <v>45235.0</v>
+      </c>
+      <c r="H3" s="78" t="n">
         <f ca="1">TODAY()</f>
-        <v>45236</v>
+        <v>45237.0</v>
       </c>
       <c r="I3" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="J3" s="78">
+        <v>253</v>
+      </c>
+      <c r="J3" s="78" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45234</v>
+        <v>45235.0</v>
       </c>
       <c r="K3" s="77" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L3" s="77" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M3" s="77">
         <v>1</v>
@@ -6142,44 +6215,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="80" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="81">
+        <v>220</v>
+      </c>
+      <c r="G4" s="81" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45234</v>
-      </c>
-      <c r="H4" s="81">
+        <v>45235.0</v>
+      </c>
+      <c r="H4" s="81" t="n">
         <f ca="1">TODAY()</f>
-        <v>45236</v>
+        <v>45237.0</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="J4" s="81">
+        <v>253</v>
+      </c>
+      <c r="J4" s="81" t="n">
         <f ca="1">TODAY()-2</f>
-        <v>45234</v>
+        <v>45235.0</v>
       </c>
       <c r="K4" s="80" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L4" s="80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M4" s="80">
         <v>1</v>
@@ -6193,13 +6266,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD02FE-AA4B-428E-9B78-278B57847991}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD02FE-AA4B-428E-9B78-278B57847991}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -6207,42 +6280,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="3.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="12" t="s">
+    </row>
+    <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="B2" s="23" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="C2" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D2" s="23">
         <v>1</v>
@@ -6255,32 +6328,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF25709-9C2B-4E3D-B69D-6D4636930677}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF25709-9C2B-4E3D-B69D-6D4636930677}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="48.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="41.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="48.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -6312,7 +6385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="58.2" r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -6349,15 +6422,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4D98E823-CA4F-482C-9BAD-E97C9E972293}"/>
+    <hyperlink r:id="rId1" ref="C2" xr:uid="{4D98E823-CA4F-482C-9BAD-E97C9E972293}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0AD79-4FCB-46DC-A08C-112B19B717BD}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0AD79-4FCB-46DC-A08C-112B19B717BD}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -6365,137 +6438,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="26.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="27.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="142" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="143" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="143" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row ht="15" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348AADB4-8411-4027-B481-AA1BBB3ACA38}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348AADB4-8411-4027-B481-AA1BBB3ACA38}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="9" max="15" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -6506,140 +6579,140 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E62800-D4A5-472B-9BE2-2F94BD717192}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E62800-D4A5-472B-9BE2-2F94BD717192}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -6650,303 +6723,303 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FF13D-341C-43F0-8A8A-D4F730016CCF}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FF13D-341C-43F0-8A8A-D4F730016CCF}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="40.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="40.5546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="M1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="S1" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="V1" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808944C-B0B2-4920-AD71-CE618523B6BF}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808944C-B0B2-4920-AD71-CE618523B6BF}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="31.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="147" t="s">
         <v>177</v>
       </c>
@@ -7017,13 +7090,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -7063,7 +7136,7 @@
         <v>114</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="57">
         <v>150</v>
@@ -7087,7 +7160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -7128,7 +7201,7 @@
         <v>114</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q3" s="51">
         <v>150</v>
@@ -7152,7 +7225,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="29.4" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -7193,7 +7266,7 @@
         <v>114</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="35">
         <v>50</v>
@@ -7218,13 +7291,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F40A71-BF3A-496C-A7FF-1B4DB5531565}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F40A71-BF3A-496C-A7FF-1B4DB5531565}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
@@ -7232,20 +7305,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="46.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -7316,13 +7389,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -7364,7 +7437,7 @@
         <v>114</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R2" s="57">
         <v>0</v>
@@ -7427,7 +7500,7 @@
         <v>114</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R3" s="51">
         <v>0</v>
@@ -7448,7 +7521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7491,7 +7564,7 @@
         <v>114</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R4" s="35">
         <v>0</v>
@@ -7513,13 +7586,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0931027-A5AD-49AE-810F-7FADA3157995}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0931027-A5AD-49AE-810F-7FADA3157995}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -7527,14 +7600,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -7545,13 +7618,13 @@
         <v>198</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E1" s="149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F1" s="149" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>23</v>
@@ -7563,25 +7636,25 @@
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231106-10</v>
+        <v>o-CNTW-SUP-POC-231107-10</v>
       </c>
       <c r="C2" s="62" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
         <v/>
       </c>
       <c r="D2" s="62" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E2" s="94" t="str">
         <f>'TC52-Autogen Outbound Data'!$C$2</f>
-        <v>Oct 9, 2023</v>
+        <v>Nov 10, 2023</v>
       </c>
       <c r="F2" s="94" t="str">
         <f>'TC52-Autogen Outbound Data'!D$2</f>
-        <v>Oct 19, 2023</v>
+        <v>Nov 20, 2023</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -7590,60 +7663,60 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231106-10</v>
+        <v>o-CNTW-SUP-POC-231107-10</v>
       </c>
       <c r="C3" s="28" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E3" s="92" t="str">
         <f>'TC52-Autogen Outbound Data'!C$2</f>
-        <v>Oct 9, 2023</v>
+        <v>Nov 10, 2023</v>
       </c>
       <c r="F3" s="92" t="str">
         <f>'TC52-Autogen Outbound Data'!D$2</f>
-        <v>Oct 19, 2023</v>
+        <v>Nov 20, 2023</v>
       </c>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231106-10</v>
+        <v>o-CNTW-SUP-POC-231107-10</v>
       </c>
       <c r="C4" s="29" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E4" s="93" t="str">
         <f>'TC52-Autogen Outbound Data'!C$2</f>
-        <v>Oct 9, 2023</v>
+        <v>Nov 10, 2023</v>
       </c>
       <c r="F4" s="93" t="str">
         <f>'TC52-Autogen Outbound Data'!D$2</f>
-        <v>Oct 19, 2023</v>
+        <v>Nov 20, 2023</v>
       </c>
       <c r="G4" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="1200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6DCE6-F15B-496A-A206-2533B2496A1A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6DCE6-F15B-496A-A206-2533B2496A1A}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -7651,49 +7724,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D1" s="115" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="str">
         <f>'TC55'!B2</f>
-        <v>TW12309001</v>
+        <v>TW12311003</v>
       </c>
       <c r="C2" s="96" t="str">
         <f>'TC52-Autogen Outbound Data'!D$2</f>
-        <v>Oct 19, 2023</v>
+        <v>Nov 20, 2023</v>
       </c>
       <c r="D2" s="97" t="str">
         <f>'TC52-Autogen Outbound Data'!$C$2</f>
-        <v>Oct 9, 2023</v>
+        <v>Nov 10, 2023</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B90B1-1C0F-4D16-8A2E-70D3AF44BB6D}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B90B1-1C0F-4D16-8A2E-70D3AF44BB6D}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
@@ -7701,28 +7774,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C1" s="115" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="str">
         <f>'TC56-Custom Invoice Exp'!B2</f>
-        <v>TW12309001</v>
+        <v>TW12311003</v>
       </c>
       <c r="C2" s="32" t="str">
         <f>'TC35'!C2</f>
@@ -7730,93 +7803,93 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D05459-7404-4903-8ECD-BB35C359893B}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D05459-7404-4903-8ECD-BB35C359893B}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -7827,50 +7900,50 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -7878,12 +7951,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -7897,7 +7970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="str">
         <f>"PK-SUP-POC-"&amp;AutoIncrement!B2</f>
         <v>PK-SUP-POC-5</v>
@@ -7916,92 +7989,92 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1DACA5-2EF3-4469-B44A-F4DA1792D9DF}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1DACA5-2EF3-4469-B44A-F4DA1792D9DF}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -8012,282 +8085,282 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B7B88-2829-4C6F-982F-5A668DC56303}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B7B88-2829-4C6F-982F-5A668DC56303}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="25.109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="M1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="S1" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="V1" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F1CFB-64E3-4394-A87B-83BC582160E0}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F1CFB-64E3-4394-A87B-83BC582160E0}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
@@ -8295,113 +8368,113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="str">
         <f>'TC56-Custom Invoice Exp'!B2</f>
-        <v>TW12309001</v>
+        <v>TW12311003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3AE7A-F993-419E-BE5E-9D8E310A742B}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3AE7A-F993-419E-BE5E-9D8E310A742B}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -8412,137 +8485,137 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6107947-A69E-40DB-BE93-3997BF1B55A0}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6107947-A69E-40DB-BE93-3997BF1B55A0}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -8553,303 +8626,303 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290B96C-15D8-4BA3-B982-FC9C29C6AD4B}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290B96C-15D8-4BA3-B982-FC9C29C6AD4B}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="M1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="S1" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="V1" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBE0E9-79E8-418F-9849-CFC8B8CDB64E}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBE0E9-79E8-418F-9849-CFC8B8CDB64E}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:13" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="str">
         <f>'TC069'!A1</f>
         <v>No</v>
@@ -8870,34 +8943,34 @@
         <v>InboundNo</v>
       </c>
       <c r="F1" s="114" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="114" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="J1" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="8" t="n">
         <f>'TC069'!A2</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="150" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
@@ -8905,7 +8978,7 @@
       </c>
       <c r="C2" s="62" t="str">
         <f ca="1">'TC069'!B2</f>
-        <v>o-CNTW-SUP-POC-231106-10</v>
+        <v>o-CNTW-SUP-POC-231107-10</v>
       </c>
       <c r="D2" s="62" t="str">
         <f>'TC069'!C2</f>
@@ -8917,11 +8990,11 @@
       </c>
       <c r="F2" s="151" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231106-TBA-001</v>
+        <v>i-CNTW-SUP-POC-231107-TBA-001</v>
       </c>
       <c r="G2" s="62" t="str">
         <f ca="1">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>6 Nov 2023</v>
+        <v>7 Nov 2023</v>
       </c>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
@@ -8937,9 +9010,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="9" t="n">
         <f>'TC069'!A3</f>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="152" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
@@ -8947,7 +9020,7 @@
       </c>
       <c r="C3" s="28" t="str">
         <f ca="1">'TC069'!B3</f>
-        <v>o-CNTW-SUP-POC-231106-10</v>
+        <v>o-CNTW-SUP-POC-231107-10</v>
       </c>
       <c r="D3" s="28" t="str">
         <f>'TC069'!C3</f>
@@ -8959,11 +9032,11 @@
       </c>
       <c r="F3" s="153" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231106-TBA-001</v>
+        <v>i-CNTW-SUP-POC-231107-TBA-001</v>
       </c>
       <c r="G3" s="28" t="str">
-        <f t="shared" ref="G3:G4" ca="1" si="0">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>6 Nov 2023</v>
+        <f ca="1" ref="G3:G4" si="0" t="shared">TEXT(TODAY(),"d mmm yyyy")</f>
+        <v>7 Nov 2023</v>
       </c>
       <c r="H3" s="28">
         <v>1</v>
@@ -8984,10 +9057,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+    <row ht="15" r="4" spans="1:13" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="n">
         <f>'TC069'!A4</f>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="154" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
@@ -8995,7 +9068,7 @@
       </c>
       <c r="C4" s="29" t="str">
         <f ca="1">'TC069'!B4</f>
-        <v>o-CNTW-SUP-POC-231106-10</v>
+        <v>o-CNTW-SUP-POC-231107-10</v>
       </c>
       <c r="D4" s="29" t="str">
         <f>'TC069'!C4</f>
@@ -9007,11 +9080,11 @@
       </c>
       <c r="F4" s="155" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231106-TBA-001</v>
+        <v>i-CNTW-SUP-POC-231107-TBA-001</v>
       </c>
       <c r="G4" s="29" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>6 Nov 2023</v>
+        <f ca="1" si="0" t="shared"/>
+        <v>7 Nov 2023</v>
       </c>
       <c r="H4" s="29">
         <v>1</v>
@@ -9034,35 +9107,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66732EE-4FDA-4DBC-BEA7-44295A7F0311}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66732EE-4FDA-4DBC-BEA7-44295A7F0311}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="49.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="49.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>150</v>
       </c>
@@ -9130,13 +9203,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC42'!B2</f>
         <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -9178,7 +9251,7 @@
         <v>114</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R2" s="57">
         <v>150</v>
@@ -9196,7 +9269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -9239,7 +9312,7 @@
         <v>114</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R3" s="51">
         <v>150</v>
@@ -9257,7 +9330,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="29.4" r="4" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -9300,7 +9373,7 @@
         <v>114</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R4" s="35">
         <v>50</v>
@@ -9319,30 +9392,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BE75F-BAF6-44E6-8F2F-031535BEC4F7}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BE75F-BAF6-44E6-8F2F-031535BEC4F7}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>177</v>
       </c>
@@ -9413,13 +9486,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC44'!B2</f>
         <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -9459,7 +9532,7 @@
         <v>114</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="57">
         <v>150</v>
@@ -9483,7 +9556,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -9524,7 +9597,7 @@
         <v>114</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q3" s="51">
         <v>150</v>
@@ -9548,7 +9621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="43.8" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -9589,7 +9662,7 @@
         <v>114</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="35">
         <v>50</v>
@@ -9614,13 +9687,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13277385-296B-48F5-ABFB-2898AB800E9A}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13277385-296B-48F5-ABFB-2898AB800E9A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -9628,33 +9701,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="139" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -9662,16 +9735,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="113" t="str">
         <f>'TC09-Create New User'!A1</f>
         <v>LoginID</v>
@@ -9704,7 +9777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="str">
         <f>'TC09-Create New User'!A2</f>
         <v>musyarustb2</v>
@@ -9738,13 +9811,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478A9AA-0EB8-4607-A679-CAA9C8DC9ACC}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478A9AA-0EB8-4607-A679-CAA9C8DC9ACC}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
@@ -9752,11 +9825,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="158" collapsed="1"/>
-    <col min="2" max="2" width="16.109375" style="158" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" style="158" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.6640625" style="158" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="158" collapsed="1"/>
+    <col min="1" max="1" style="158" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="158" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="158" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="158" width="38.6640625" collapsed="true"/>
+    <col min="5" max="16384" style="158" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -9770,7 +9843,7 @@
         <v>198</v>
       </c>
       <c r="D1" s="156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>201</v>
@@ -9782,14 +9855,14 @@
       </c>
       <c r="B2" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="C2" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D2="","",'TC52-Upload Obound Form'!D2)</f>
         <v>SEGU5069987</v>
       </c>
       <c r="D2" s="159" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E2" s="160" t="str">
         <f>'TC52-Upload Obound Form'!G2</f>
@@ -9802,14 +9875,14 @@
       </c>
       <c r="B3" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="C3" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D3="","",'TC52-Upload Obound Form'!D3)</f>
         <v>CNO1234</v>
       </c>
       <c r="D3" s="159" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>'TC52-Upload Obound Form'!G3</f>
@@ -9822,14 +9895,14 @@
       </c>
       <c r="B4" s="160" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="C4" s="160" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
         <v/>
       </c>
       <c r="D4" s="159" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E4" s="160" t="str">
         <f>'TC52-Upload Obound Form'!G4</f>
@@ -9838,91 +9911,91 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ABFAF8-D337-497A-8E07-5F791D04721C}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ABFAF8-D337-497A-8E07-5F791D04721C}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -9933,126 +10006,126 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321F03C-7E3F-491D-84BC-0DD6B062080D}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321F03C-7E3F-491D-84BC-0DD6B062080D}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="K1" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="L1" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="M1" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="O1" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="P1" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="Q1" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row ht="15" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>'TC063'!B2</f>
@@ -10063,279 +10136,279 @@
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD6870-87F3-4941-BFA6-FB0F0EDE2000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD6870-87F3-4941-BFA6-FB0F0EDE2000}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="H1" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="J1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="K1" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="M1" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="N1" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="Q1" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="S1" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="T1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="U1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="V1" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="V1" s="126" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row customFormat="1" r="2" s="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="V2" s="71" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="str">
         <f ca="1">'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5B5AF-A084-4EF7-9F9D-0F10CC18FDD7}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5B5AF-A084-4EF7-9F9D-0F10CC18FDD7}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -10343,12 +10416,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -10359,23 +10432,23 @@
         <v>198</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.2" r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="62" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="C2" s="101" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -10384,57 +10457,57 @@
       </c>
       <c r="B3" s="28" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="C3" s="99" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row ht="15" r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="29" t="str">
         <f ca="1">'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBA-10</v>
+        <v>B-231107-TBA-10</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="43.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="113" t="s">
         <v>33</v>
       </c>
@@ -10481,7 +10554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="29.4" r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -10528,47 +10601,47 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="39.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15" r="1" s="27" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="117" t="s">
         <v>39</v>
       </c>
@@ -10642,7 +10715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15" r="2" s="27" spans="1:24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="str">
         <f>"CNTWSUP-PKCUS "&amp;AutoIncrement!C2</f>
         <v>CNTWSUP-PKCUS TBA</v>
@@ -10719,39 +10792,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O1" location="RANGE!A1" display="ETDWeekDay (click here to set ETD days)" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
-    <hyperlink ref="X1" location="RANGE!A1" display="Shipping Frequency Weeks (Click here to add week)" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
+    <hyperlink display="ETDWeekDay (click here to set ETD days)" location="RANGE!A1" ref="O1" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
+    <hyperlink display="Shipping Frequency Weeks (Click here to add week)" location="RANGE!A1" ref="X1" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.44140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.6640625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.33203125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.88671875" style="27" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="10.44140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="27" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="11.33203125" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="27" width="29.88671875" collapsed="true"/>
+    <col min="16" max="16384" style="27" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10798,7 +10871,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>84</v>
       </c>
@@ -10847,11 +10920,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -11022,22 +11104,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C04EBEA-A692-4245-ACA9-C2F3A01D3C88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11056,19 +11137,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
@@ -1,87 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{CF21371A-B0B2-4217-B9C8-DA4E9670E6AB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A35302-433D-4D83-9EF8-F8C646116A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="48" firstSheet="47" tabRatio="618" windowHeight="8880" windowWidth="22140" xWindow="-20832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1320"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" firstSheet="32" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" r:id="rId1" sheetId="66"/>
-    <sheet name="AutoGen" r:id="rId2" sheetId="67"/>
-    <sheet name="AutoIncrement" r:id="rId3" sheetId="14"/>
-    <sheet name="TC03-Company" r:id="rId4" sheetId="72"/>
-    <sheet name="TC04-Customer" r:id="rId5" sheetId="71"/>
-    <sheet name="TC05-BU" r:id="rId6" sheetId="73"/>
-    <sheet name="TC06-Supplier" r:id="rId7" sheetId="74"/>
-    <sheet name="TC07-DC" r:id="rId8" sheetId="75"/>
-    <sheet name="TC09-Create New User" r:id="rId9" sheetId="18"/>
-    <sheet name="TC14n15" r:id="rId10" sheetId="65"/>
-    <sheet name="TC019-Activate User" r:id="rId11" sheetId="61"/>
-    <sheet name="TC021-Forget Password" r:id="rId12" sheetId="59"/>
-    <sheet name="TC033" r:id="rId13" sheetId="19"/>
-    <sheet name="TC033_ETAnWeek" r:id="rId14" sheetId="20"/>
-    <sheet name="TC34" r:id="rId15" sheetId="9"/>
-    <sheet name="TC35-Contract Parts Info" r:id="rId16" sheetId="6"/>
-    <sheet name="TC35" r:id="rId17" sheetId="3"/>
-    <sheet name="TC038" r:id="rId18" sheetId="21"/>
-    <sheet name="TC039" r:id="rId19" sheetId="23"/>
-    <sheet name="S13_TC40" r:id="rId20" sheetId="44"/>
-    <sheet name="TC041 - Place Order (Regular)" r:id="rId21" sheetId="2"/>
-    <sheet name="TC041-Inbound Date" r:id="rId22" sheetId="13"/>
-    <sheet name="TC041-Reference" r:id="rId23" sheetId="68"/>
-    <sheet name="TC42" r:id="rId24" sheetId="4"/>
-    <sheet name="TC44" r:id="rId25" sheetId="5"/>
-    <sheet name="TC46-Price" r:id="rId26" sheetId="69"/>
-    <sheet name="TC47-Change Order" r:id="rId27" sheetId="7"/>
-    <sheet name="TC47-Change Inbound Dates" r:id="rId28" sheetId="8"/>
-    <sheet name="TC48" r:id="rId29" sheetId="10"/>
-    <sheet name="TC049" r:id="rId30" sheetId="24"/>
-    <sheet name="TC050" r:id="rId31" sheetId="25"/>
-    <sheet name="TC051" r:id="rId32" sheetId="70"/>
-    <sheet name="TC52-Download Obound Form" r:id="rId33" sheetId="11"/>
-    <sheet name="TC52-Upload Obound Form" r:id="rId34" sheetId="12"/>
-    <sheet name="TC52-Upload Obound Setup" r:id="rId35" sheetId="17"/>
-    <sheet name="TC52-Autogen Outbound Data" r:id="rId36" sheetId="57"/>
-    <sheet name="TC053" r:id="rId37" sheetId="26"/>
-    <sheet name="TC054" r:id="rId38" sheetId="27"/>
-    <sheet name="TC55" r:id="rId39" sheetId="22"/>
-    <sheet name="TC56-Custom Invoice Exp" r:id="rId40" sheetId="15"/>
-    <sheet name="TC57-Custom Invoice Imp" r:id="rId41" sheetId="16"/>
-    <sheet name="TC58n59" r:id="rId42" sheetId="28"/>
-    <sheet name="TC62" r:id="rId43" sheetId="51"/>
-    <sheet name="TC62-Setup Data" r:id="rId44" sheetId="55"/>
-    <sheet name="TC063" r:id="rId45" sheetId="29"/>
-    <sheet name="TC64n65_ForecastContainer" r:id="rId46" sheetId="37"/>
-    <sheet name="TC64n65_ForecastContainer-Manua" r:id="rId47" sheetId="47"/>
-    <sheet name="TC64n65_NonFContainer" r:id="rId48" sheetId="38"/>
-    <sheet name="TC067" r:id="rId49" sheetId="30"/>
-    <sheet name="TC068" r:id="rId50" sheetId="31"/>
-    <sheet name="TC069" r:id="rId51" sheetId="52"/>
-    <sheet name="TC070" r:id="rId52" sheetId="54"/>
-    <sheet name="TC072" r:id="rId53" sheetId="45"/>
-    <sheet name="TC073n074_ForecastContainer" r:id="rId54" sheetId="32"/>
-    <sheet name="TC073n074_Forecast-Manual" r:id="rId55" sheetId="48"/>
-    <sheet name="TC073n074_NonFContainer" r:id="rId56" sheetId="39"/>
-    <sheet name="TC075" r:id="rId57" sheetId="46"/>
-    <sheet name="TC076n077_ForecastContainer" r:id="rId58" sheetId="40"/>
-    <sheet name="TC076n077_Forecast-Manaul" r:id="rId59" sheetId="49"/>
-    <sheet name="TC076n077_NonFContainer" r:id="rId60" sheetId="41"/>
-    <sheet name="TC078" r:id="rId61" sheetId="58"/>
-    <sheet name="TC079" r:id="rId62" sheetId="34"/>
-    <sheet name="TC080" r:id="rId63" sheetId="35"/>
-    <sheet name="TC82-New Buyer GR Invoice" r:id="rId64" sheetId="64"/>
-    <sheet name="TC83-Inbound Shipping Details" r:id="rId65" sheetId="56"/>
-    <sheet name="TC084n085_ForecastContainer" r:id="rId66" sheetId="42"/>
-    <sheet name="TC084n085_Forecast-Manual" r:id="rId67" sheetId="50"/>
-    <sheet name="TC084n085_NonFContainer" r:id="rId68" sheetId="43"/>
-    <sheet name="TC086" r:id="rId69" sheetId="62"/>
+    <sheet name="Indicator" sheetId="66" r:id="rId1"/>
+    <sheet name="AutoGen" sheetId="67" r:id="rId2"/>
+    <sheet name="AutoIncrement" sheetId="14" r:id="rId3"/>
+    <sheet name="TC03-Company" sheetId="72" r:id="rId4"/>
+    <sheet name="TC04-Customer" sheetId="71" r:id="rId5"/>
+    <sheet name="TC05-BU" sheetId="73" r:id="rId6"/>
+    <sheet name="TC06-Supplier" sheetId="74" r:id="rId7"/>
+    <sheet name="TC07-DC" sheetId="75" r:id="rId8"/>
+    <sheet name="TC09-Create New User" sheetId="18" r:id="rId9"/>
+    <sheet name="TC14n15" sheetId="65" r:id="rId10"/>
+    <sheet name="TC019-Activate User" sheetId="61" r:id="rId11"/>
+    <sheet name="TC021-Forget Password" sheetId="59" r:id="rId12"/>
+    <sheet name="TC033" sheetId="19" r:id="rId13"/>
+    <sheet name="TC033_ETAnWeek" sheetId="20" r:id="rId14"/>
+    <sheet name="TC34" sheetId="9" r:id="rId15"/>
+    <sheet name="TC35-Contract Parts Info" sheetId="6" r:id="rId16"/>
+    <sheet name="TC35" sheetId="3" r:id="rId17"/>
+    <sheet name="TC038" sheetId="21" r:id="rId18"/>
+    <sheet name="TC039" sheetId="23" r:id="rId19"/>
+    <sheet name="S13_TC40" sheetId="44" r:id="rId20"/>
+    <sheet name="TC041 - Place Order (Regular)" sheetId="2" r:id="rId21"/>
+    <sheet name="TC041-Inbound Date" sheetId="13" r:id="rId22"/>
+    <sheet name="TC041-Reference" sheetId="68" r:id="rId23"/>
+    <sheet name="TC42" sheetId="4" r:id="rId24"/>
+    <sheet name="TC44" sheetId="5" r:id="rId25"/>
+    <sheet name="TC46-Price" sheetId="69" r:id="rId26"/>
+    <sheet name="TC47-Change Order" sheetId="7" r:id="rId27"/>
+    <sheet name="TC47-Change Inbound Dates" sheetId="8" r:id="rId28"/>
+    <sheet name="TC48" sheetId="10" r:id="rId29"/>
+    <sheet name="TC049" sheetId="24" r:id="rId30"/>
+    <sheet name="TC050" sheetId="25" r:id="rId31"/>
+    <sheet name="TC051" sheetId="70" r:id="rId32"/>
+    <sheet name="TC52-Download Obound Form" sheetId="11" r:id="rId33"/>
+    <sheet name="TC52-Upload Obound Form" sheetId="12" r:id="rId34"/>
+    <sheet name="TC52-Upload Obound Setup" sheetId="17" r:id="rId35"/>
+    <sheet name="TC52-Autogen Outbound Data" sheetId="57" r:id="rId36"/>
+    <sheet name="TC053" sheetId="26" r:id="rId37"/>
+    <sheet name="TC054" sheetId="27" r:id="rId38"/>
+    <sheet name="TC55" sheetId="22" r:id="rId39"/>
+    <sheet name="TC56-Custom Invoice Exp" sheetId="15" r:id="rId40"/>
+    <sheet name="TC57-Custom Invoice Imp" sheetId="16" r:id="rId41"/>
+    <sheet name="TC58n59" sheetId="28" r:id="rId42"/>
+    <sheet name="TC62" sheetId="51" r:id="rId43"/>
+    <sheet name="TC62-Setup Data" sheetId="55" r:id="rId44"/>
+    <sheet name="TC063" sheetId="29" r:id="rId45"/>
+    <sheet name="TC64n65_ForecastContainer" sheetId="37" r:id="rId46"/>
+    <sheet name="TC64n65_ForecastContainer-Manua" sheetId="47" r:id="rId47"/>
+    <sheet name="TC64n65_NonFContainer" sheetId="38" r:id="rId48"/>
+    <sheet name="TC067" sheetId="30" r:id="rId49"/>
+    <sheet name="TC068" sheetId="31" r:id="rId50"/>
+    <sheet name="TC069" sheetId="52" r:id="rId51"/>
+    <sheet name="TC070" sheetId="54" r:id="rId52"/>
+    <sheet name="TC072" sheetId="45" r:id="rId53"/>
+    <sheet name="TC073n074_ForecastContainer" sheetId="32" r:id="rId54"/>
+    <sheet name="TC073n074_Forecast-Manual" sheetId="48" r:id="rId55"/>
+    <sheet name="TC073n074_NonFContainer" sheetId="39" r:id="rId56"/>
+    <sheet name="TC075" sheetId="46" r:id="rId57"/>
+    <sheet name="TC076n077_ForecastContainer" sheetId="40" r:id="rId58"/>
+    <sheet name="TC076n077_Forecast-Manaul" sheetId="49" r:id="rId59"/>
+    <sheet name="TC076n077_NonFContainer" sheetId="41" r:id="rId60"/>
+    <sheet name="TC078" sheetId="58" r:id="rId61"/>
+    <sheet name="TC079" sheetId="34" r:id="rId62"/>
+    <sheet name="TC080" sheetId="35" r:id="rId63"/>
+    <sheet name="TC82-New Buyer GR Invoice" sheetId="64" r:id="rId64"/>
+    <sheet name="TC83-Inbound Shipping Details" sheetId="56" r:id="rId65"/>
+    <sheet name="TC084n085_ForecastContainer" sheetId="42" r:id="rId66"/>
+    <sheet name="TC084n085_Forecast-Manual" sheetId="50" r:id="rId67"/>
+    <sheet name="TC084n085_NonFContainer" sheetId="43" r:id="rId68"/>
+    <sheet name="TC086" sheetId="62" r:id="rId69"/>
   </sheets>
   <definedNames>
     <definedName name="ACTIVE_FLAG">#REF!</definedName>
@@ -101,7 +101,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="353">
   <si>
     <t>Color</t>
   </si>
@@ -1038,9 +1038,6 @@
   </si>
   <si>
     <t>Planoutin status 3</t>
-  </si>
-  <si>
-    <t>TW12311003</t>
   </si>
   <si>
     <t>CompanyCode</t>
@@ -1132,39 +1129,12 @@
     <t>07 Jul 2023</t>
   </si>
   <si>
-    <t>i-PK-CUS-POC-S13-5-231106001</t>
-  </si>
-  <si>
-    <t>i-PK-CUS-POC-S13-5-231106002</t>
-  </si>
-  <si>
-    <t>i-PK-CUS-POC-S13-5-231106003</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
     <t>CR-PK-CUS-POC-S13-5-2311002</t>
   </si>
   <si>
-    <t>cTBC-2311001</t>
-  </si>
-  <si>
-    <t>sTBC-2311001</t>
-  </si>
-  <si>
-    <t>rcTBC-2311001-01</t>
-  </si>
-  <si>
     <t>Estimate date value 3</t>
   </si>
   <si>
-    <t>o-CNTW-SUP-POC-231113001</t>
-  </si>
-  <si>
     <t>Nov 22, 2023</t>
   </si>
   <si>
@@ -1181,6 +1151,36 @@
   </si>
   <si>
     <t>i-PK-CUS-POC-S13-5-231113003</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>CR-PK-CUS-POC-S13-5-2311001</t>
+  </si>
+  <si>
+    <t>cTS1-2311001</t>
+  </si>
+  <si>
+    <t>sTS1-2311001</t>
+  </si>
+  <si>
+    <t>rcTS1-2311001-01</t>
+  </si>
+  <si>
+    <t>o-CNTW-SUP-POC-231116001</t>
+  </si>
+  <si>
+    <t>TW12311001</t>
+  </si>
+  <si>
+    <t>B-231108-TB2-2</t>
+  </si>
+  <si>
+    <t>13 Jun 2023</t>
   </si>
 </sst>
 </file>
@@ -1988,595 +1988,598 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+  <cellXfs count="207">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="7" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="13" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="0" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="0" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="8" numFmtId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="12" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="16" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="22" fillId="11" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="10" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="25" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="26" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="3" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="15" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="14" numFmtId="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="8" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="14" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="10" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="9" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="8" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" borderId="24" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="27" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" borderId="29" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="30" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="31" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="11" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="32" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="6" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="18" fontId="21" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="3" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="20" numFmtId="4" xfId="0">
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="20" fontId="21" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="22" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="6" fontId="5" numFmtId="49" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="6" fontId="5" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="5" numFmtId="49" xfId="4">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="33" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="36" fillId="6" fontId="5" numFmtId="49" xfId="4">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="5" numFmtId="49" xfId="4">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="4">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="4">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="9" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="9" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="10" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="19" fontId="2" numFmtId="4" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="4" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E256C720-EDE8-4307-8576-810A551E1C62}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{5BE18606-4F8F-4CCD-9137-17B790CEBD76}"/>
     <cellStyle name="Normal 6 2 2" xfId="3" xr:uid="{8F4233B3-4354-4AAF-AA97-E0549C984B4E}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2593,10 +2596,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2631,7 +2634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2666,7 +2669,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2760,21 +2763,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2791,7 +2794,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2843,15 +2846,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
-  <dimension ref="B1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -2859,13 +2862,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="2:4" thickBot="1"/>
-    <row ht="15" r="2" spans="2:4" thickBot="1">
+    <row r="1" spans="2:4" ht="15" thickBot="1"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1">
       <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15" r="6" spans="2:4" thickBot="1">
+    <row r="6" spans="2:4" ht="15" thickBot="1">
       <c r="B6" s="160"/>
       <c r="C6" s="161" t="s">
         <v>9</v>
@@ -2913,13 +2916,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -2927,12 +2930,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="1" max="2" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="198" t="s">
         <v>30</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:4" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="20" t="str">
         <f>'TC06-Supplier'!$B$2</f>
         <v>PK-SUP-POC-5</v>
@@ -2965,13 +2968,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -2979,16 +2982,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="1" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="112" t="str">
         <f>'TC09-Create New User'!A1</f>
         <v>LoginID</v>
@@ -3021,7 +3024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:8" thickBot="1">
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2" s="30" t="str">
         <f>'TC09-Create New User'!A2</f>
         <v>musyarustb2</v>
@@ -3055,33 +3058,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="43.6640625" collapsed="true"/>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="43.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:12" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="112" t="s">
         <v>33</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row ht="29.4" r="2" spans="1:12" thickBot="1">
+    <row r="2" spans="1:12" ht="29.4" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -3175,47 +3178,47 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="39.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15" r="1" s="26" spans="1:24" thickBot="1">
+    <row r="1" spans="1:24" s="26" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="116" t="s">
         <v>39</v>
       </c>
@@ -3289,14 +3292,14 @@
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="2" s="26" spans="1:24" thickBot="1">
+    <row r="2" spans="1:24" s="26" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>"CNTWSUP-PKCUS "&amp;AutoIncrement!C2</f>
-        <v>CNTWSUP-PKCUS TBC</v>
+        <v>CNTWSUP-PKCUS TS1</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>A2</f>
-        <v>CNTWSUP-PKCUS TBC</v>
+        <v>CNTWSUP-PKCUS TS1</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>63</v>
@@ -3366,39 +3369,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="ETDWeekDay (click here to set ETD days)" location="RANGE!A1" ref="O1" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
-    <hyperlink display="Shipping Frequency Weeks (Click here to add week)" location="RANGE!A1" ref="X1" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
+    <hyperlink ref="O1" location="RANGE!A1" display="ETDWeekDay (click here to set ETD days)" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
+    <hyperlink ref="X1" location="RANGE!A1" display="Shipping Frequency Weeks (Click here to add week)" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="18.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="26" width="10.44140625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="26" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="26" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="26" width="12.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="26" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="26" width="11.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="26" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="26" width="10.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="26" width="11.33203125" collapsed="true"/>
-    <col min="12" max="14" bestFit="true" customWidth="true" style="26" width="11.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="26" width="29.88671875" collapsed="true"/>
-    <col min="16" max="16384" style="26" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="18.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.44140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.6640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.6640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="11" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.88671875" style="26" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="26" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:15" thickBot="1">
+    <row r="1" spans="1:15" ht="15" thickBot="1">
       <c r="A1" s="39" t="s">
         <v>69</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>83</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:15" thickBot="1">
+    <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="A2" s="36" t="s">
         <v>84</v>
       </c>
@@ -3494,13 +3497,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3508,13 +3511,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3522,26 +3525,26 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="str">
         <f>"RequestPartTB-"&amp;AutoIncrement!A2</f>
-        <v>RequestPartTB-12</v>
+        <v>RequestPartTB-1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3549,13 +3552,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="51.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3569,102 +3572,102 @@
         <v>90</v>
       </c>
     </row>
-    <row ht="26.4" r="2" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="168" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614011"</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="C2" s="169" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>PK-CUS-TBC-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="170" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-001</v>
-      </c>
-    </row>
-    <row ht="26.4" r="3" spans="1:4">
+        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="168" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614012"</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="C3" s="169" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>PK-CUS-TBC-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="170" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-002</v>
-      </c>
-    </row>
-    <row ht="27" r="4" spans="1:4" thickBot="1">
+        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="168" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614013"</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="C4" s="169" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>PK-CUS-TBC-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="170" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="68.44140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="68.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="44.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:24" thickBot="1">
+    <row r="1" spans="1:24" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>111</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:24" thickBot="1">
+    <row r="2" spans="1:24" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -3747,7 +3750,7 @@
       </c>
       <c r="C2" s="23" t="str">
         <f>"CNTWSUP-PKCUS-"&amp;'TC35'!K2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>CNTWSUP-PKCUS-TBC-012</v>
+        <v>CNTWSUP-PKCUS-TS1-01</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>112</v>
@@ -3772,15 +3775,15 @@
       </c>
       <c r="K2" s="23" t="str">
         <f>AutoIncrement!C2</f>
-        <v>TBC</v>
+        <v>TS1</v>
       </c>
       <c r="L2" s="23" t="str">
         <f>"CD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>CD-05-TBC12</v>
+        <v>CD-05-TS11</v>
       </c>
       <c r="M2" s="23" t="str">
-        <f>"TB60BL"&amp;AutoIncrement!$A$2&amp;"(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)"</f>
-        <v>TB60BL12(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</v>
+        <f>"TB60BL"&amp;AutoIncrement!$C$2&amp;"(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)"</f>
+        <v>TB60BLTS1(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>114</v>
@@ -3790,11 +3793,11 @@
       </c>
       <c r="P2" s="23" t="str">
         <f>'TC033'!A2&amp;"("&amp;'TC033'!A2&amp;")"</f>
-        <v>CNTWSUP-PKCUS TBC(CNTWSUP-PKCUS TBC)</v>
+        <v>CNTWSUP-PKCUS TS1(CNTWSUP-PKCUS TS1)</v>
       </c>
       <c r="Q2" s="23" t="str">
         <f>"RD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>RD-05-TBC12</v>
+        <v>RD-05-TS11</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>116</v>
@@ -3816,17 +3819,17 @@
         <v>119</v>
       </c>
       <c r="X2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3834,16 +3837,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="1" max="2" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>120</v>
       </c>
@@ -3869,25 +3872,25 @@
         <v>127</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="64" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311002</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="C2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TBC-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="56" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TBC-012</v>
+        <v>CNTWSUP-PKCUS-TS1-01</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>115</v>
@@ -3897,28 +3900,28 @@
       </c>
       <c r="H2" s="70" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TBC</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
+        <v>CNTWSUP-PKCUS TS1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="64" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311002</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="C3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TBC-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="50" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="50" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TBC-012</v>
+        <v>CNTWSUP-PKCUS-TS1-01</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>115</v>
@@ -3928,28 +3931,28 @@
       </c>
       <c r="H3" s="66" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TBC</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="4" spans="1:8" thickBot="1">
+        <v>CNTWSUP-PKCUS TS1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="33" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311002</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="C4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TBC-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="34" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TBC-012</v>
+        <v>CNTWSUP-PKCUS-TS1-01</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>115</v>
@@ -3959,35 +3962,35 @@
       </c>
       <c r="H4" s="35" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TBC</v>
+        <v>CNTWSUP-PKCUS TS1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:8" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>120</v>
       </c>
@@ -4013,18 +4016,18 @@
         <v>127</v>
       </c>
     </row>
-    <row customHeight="1" ht="12" r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="12" customHeight="1">
       <c r="A2" s="68" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311002</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="C2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="56" t="str">
         <f>TC14n15!$D$2</f>
@@ -4032,7 +4035,7 @@
       </c>
       <c r="E2" s="56" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TBC-012</v>
+        <v>CNTWSUP-PKCUS-TS1-01</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>115</v>
@@ -4043,21 +4046,21 @@
       </c>
       <c r="H2" s="70" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TBC</v>
+        <v>CNTWSUP-PKCUS TS1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="64" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311002</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="C3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="56" t="str">
         <f>TC14n15!$D$2</f>
@@ -4065,7 +4068,7 @@
       </c>
       <c r="E3" s="50" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TBC-012</v>
+        <v>CNTWSUP-PKCUS-TS1-01</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>115</v>
@@ -4076,21 +4079,21 @@
       </c>
       <c r="H3" s="66" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TBC</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.5" r="4" spans="1:8" thickBot="1">
+        <v>CNTWSUP-PKCUS TS1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="33" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311002</v>
+        <v>CR-PK-CUS-POC-S13-5-2311001</v>
       </c>
       <c r="B4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="C4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="56" t="str">
         <f>TC14n15!$D$2</f>
@@ -4098,7 +4101,7 @@
       </c>
       <c r="E4" s="34" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TBC-012</v>
+        <v>CNTWSUP-PKCUS-TS1-01</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>115</v>
@@ -4109,17 +4112,17 @@
       </c>
       <c r="H4" s="35" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TBC</v>
+        <v>CNTWSUP-PKCUS TS1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC73214-8B66-4496-A999-3457BA70A84F}">
-  <dimension ref="B1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC73214-8B66-4496-A999-3457BA70A84F}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4127,8 +4130,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.21875" collapsed="true"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -4138,33 +4141,33 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:6" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="39" t="s">
         <v>131</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>136</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:6" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="36" t="s">
         <v>67</v>
       </c>
@@ -4193,7 +4196,7 @@
       </c>
       <c r="C2" s="37" t="str">
         <f>"Cargo Status Setting for PK-CUS-POC-"&amp;'TC35'!K2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>Cargo Status Setting for PK-CUS-POC-TBC-12</v>
+        <v>Cargo Status Setting for PK-CUS-POC-TS1-1</v>
       </c>
       <c r="D2" s="37" t="str">
         <f>TC14n15!$D$2</f>
@@ -4204,17 +4207,17 @@
       </c>
       <c r="F2" s="38" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TBC-012</v>
+        <v>CNTWSUP-PKCUS-TS1-01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13:G14"/>
@@ -4222,13 +4225,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="63" t="s">
         <v>33</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" thickBot="1">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="59">
         <v>3</v>
       </c>
@@ -4285,25 +4288,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="42" t="s">
         <v>33</v>
       </c>
@@ -4311,27 +4314,27 @@
         <v>141</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="40">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd MMM yyyy")</f>
-        <v>29 二月 2024</v>
+        <v>29 2月 2024</v>
       </c>
       <c r="C2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>14 一月 2024</v>
+        <v>16 1月 2024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2961C8-2794-49C8-9EF8-51062C289C1A}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2961C8-2794-49C8-9EF8-51062C289C1A}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4339,7 +4342,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4350,17 +4353,17 @@
     <row r="2" spans="1:1">
       <c r="A2" t="str">
         <f>AutoIncrement!$C$2&amp;AutoIncrement!$A$2&amp;"-TC-41"</f>
-        <v>TBC12-TC-41</v>
+        <v>TS11-TC-41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -4368,8 +4371,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4383,26 +4386,26 @@
         <v>294</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="29" t="str">
         <f ca="1">"c"&amp;'TC35'!K2&amp;"-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -4410,11 +4413,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4425,26 +4428,26 @@
         <v>293</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="str">
         <f ca="1">"s" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F2D55E-AAFD-4294-90CF-A3D8D0EF5DA0}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F2D55E-AAFD-4294-90CF-A3D8D0EF5DA0}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4452,8 +4455,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="1" max="1" width="30.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4467,7 +4470,7 @@
     <row r="2" spans="1:2">
       <c r="A2" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="B2" s="176">
         <v>3.05</v>
@@ -4476,7 +4479,7 @@
     <row r="3" spans="1:2">
       <c r="A3" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="B3" s="176">
         <v>1.05</v>
@@ -4485,20 +4488,20 @@
     <row r="4" spans="1:2">
       <c r="A4" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="B4" s="176">
         <v>2.0499999999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -4506,11 +4509,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:5" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4533,7 +4536,7 @@
       </c>
       <c r="B2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="C2" s="61">
         <v>150</v>
@@ -4549,7 +4552,7 @@
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="C3" s="27">
         <v>150</v>
@@ -4561,13 +4564,13 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:5" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="C4" s="28">
         <v>50</v>
@@ -4581,13 +4584,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -4595,13 +4598,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4615,40 +4618,40 @@
         <v>297</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:7" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd MMM yyyy")</f>
-        <v>29 二月 2024</v>
+        <v>29 2月 2024</v>
       </c>
       <c r="C2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))+20), "dd MMM yyyy")</f>
-        <v>20 三月 2024</v>
+        <v>20 3月 2024</v>
       </c>
       <c r="D2" t="str">
         <f>AutoIncrement!$C$2&amp;AutoIncrement!$A$2&amp;"-TC-47"</f>
-        <v>TBC12-TC-47</v>
+        <v>TS11-TC-47</v>
       </c>
       <c r="F2" s="23" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+3), "dd MMM yyyy")</f>
-        <v>17 一月 2024</v>
+        <v>19 1月 2024</v>
       </c>
       <c r="G2" s="31" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+5), "dd MMM yyyy")</f>
-        <v>19 一月 2024</v>
+        <v>21 1月 2024</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -4656,11 +4659,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4671,39 +4674,39 @@
         <v>298</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="str">
         <f ca="1">"rc" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>rcTBC-2311001</v>
+        <v>rcTS1-2311001</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="102" t="s">
         <v>11</v>
       </c>
@@ -4714,57 +4717,57 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="101" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B2" s="31">
         <v>5</v>
       </c>
       <c r="C2" s="167" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
-  <dimension ref="A1:Z4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:25" thickBot="1">
+    <row r="1" spans="1:25" ht="15" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>150</v>
       </c>
@@ -4841,10 +4844,10 @@
         <v>299</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="2" spans="1:25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
       <c r="A2" s="68" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>172</v>
@@ -4854,18 +4857,18 @@
       <c r="E2" s="56"/>
       <c r="F2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="G2" s="69" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TBC-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="56" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J2" s="55" t="s">
         <v>67</v>
@@ -4882,7 +4885,7 @@
       <c r="N2" s="56">
         <v>0</v>
       </c>
-      <c r="O2" s="203" t="n">
+      <c r="O2" s="203">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -4925,18 +4928,18 @@
       <c r="E3" s="50"/>
       <c r="F3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="G3" s="65" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TBC-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="50" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J3" s="51" t="s">
         <v>67</v>
@@ -4953,7 +4956,7 @@
       <c r="N3" s="50">
         <v>0</v>
       </c>
-      <c r="O3" s="203" t="n">
+      <c r="O3" s="203">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:25" thickBot="1">
+    <row r="4" spans="1:25" ht="15" thickBot="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -4996,18 +4999,18 @@
       <c r="E4" s="34"/>
       <c r="F4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="G4" s="67" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TBC-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="34" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>67</v>
@@ -5024,9 +5027,9 @@
       <c r="N4" s="34">
         <v>0</v>
       </c>
-      <c r="O4" s="203" t="n">
+      <c r="O4" s="203">
         <f>'TC46-Price'!$B4</f>
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="P4" s="34" t="s">
         <v>114</v>
@@ -5060,42 +5063,42 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="27" max="28" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.21875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.21875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="27" max="28" width="26" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -5181,13 +5184,13 @@
         <v>189</v>
       </c>
       <c r="AB1" s="54" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:28">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="64" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>172</v>
@@ -5197,18 +5200,18 @@
       <c r="E2" s="50"/>
       <c r="F2" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="G2" s="51" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="50" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="50" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J2" s="51" t="str">
         <f>TC14n15!$D$2</f>
@@ -5223,7 +5226,7 @@
       <c r="M2" s="50">
         <v>150</v>
       </c>
-      <c r="N2" s="203" t="n">
+      <c r="N2" s="203">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -5278,18 +5281,18 @@
       <c r="E3" s="50"/>
       <c r="F3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="G3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="50" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J3" s="51" t="str">
         <f>TC14n15!$D$2</f>
@@ -5304,7 +5307,7 @@
       <c r="M3" s="50">
         <v>150</v>
       </c>
-      <c r="N3" s="203" t="n">
+      <c r="N3" s="203">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:28" thickBot="1">
+    <row r="4" spans="1:28" ht="15" thickBot="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -5359,18 +5362,18 @@
       <c r="E4" s="34"/>
       <c r="F4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="G4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="34" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J4" s="51" t="str">
         <f>TC14n15!$D$2</f>
@@ -5385,9 +5388,9 @@
       <c r="M4" s="34">
         <v>50</v>
       </c>
-      <c r="N4" s="203" t="n">
+      <c r="N4" s="203">
         <f>'TC46-Price'!$B4</f>
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O4" s="34" t="s">
         <v>114</v>
@@ -5433,13 +5436,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7924362-69F4-490E-B640-A04EBD292624}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7924362-69F4-490E-B640-A04EBD292624}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -5447,14 +5450,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="26.4" r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="180" t="s">
         <v>303</v>
       </c>
@@ -5471,14 +5474,14 @@
         <v>302</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:5" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd-MMM-yyyy")</f>
-        <v>29-二月-2024</v>
+        <v>29-2月-2024</v>
       </c>
       <c r="B2" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="C2" s="181">
         <v>150</v>
@@ -5486,14 +5489,14 @@
       <c r="D2" s="181"/>
       <c r="E2" s="181"/>
     </row>
-    <row ht="15" r="3" spans="1:5" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd-MMM-yyyy")</f>
-        <v>29-二月-2024</v>
+        <v>29-2月-2024</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="C3" s="181"/>
       <c r="D3" s="181">
@@ -5501,14 +5504,14 @@
       </c>
       <c r="E3" s="181"/>
     </row>
-    <row ht="15" r="4" spans="1:5" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))+20), "dd-MMM-yyyy")</f>
-        <v>20-三月-2024</v>
+        <v>20-3月-2024</v>
       </c>
       <c r="B4" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="C4" s="181"/>
       <c r="D4" s="181"/>
@@ -5516,14 +5519,14 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="15" r="5" spans="1:5" thickBot="1">
+    <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))+20), "dd-MMM-yyyy")</f>
-        <v>20-三月-2024</v>
+        <v>20-3月-2024</v>
       </c>
       <c r="B5" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="C5" s="181"/>
       <c r="D5" s="181"/>
@@ -5533,13 +5536,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
@@ -5547,15 +5550,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:6" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:6" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -5592,37 +5595,37 @@
       </c>
       <c r="E2" s="71" t="str">
         <f ca="1">TEXT(TODAY(),"dd/m/yyyy")</f>
-        <v>14/11/2023</v>
+        <v>16/11/2023</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -5651,18 +5654,18 @@
       </c>
       <c r="B2" s="129" t="str">
         <f>"o-CNTW-SUP-POC-"&amp;"231106" &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231106-12</v>
+        <v>o-CNTW-SUP-POC-231106-1</v>
       </c>
       <c r="C2" s="130" t="str">
-        <f>'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBC-12</v>
+        <f>'TC52-Upload Obound Setup'!$B$2</f>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="D2" s="130" t="s">
         <v>202</v>
       </c>
       <c r="E2" s="130" t="str">
         <f>"O-"&amp;"231108-" &amp; AutoIncrement!$A$2</f>
-        <v>O-231108-12</v>
+        <v>O-231108-1</v>
       </c>
       <c r="F2" s="130" t="s">
         <v>203</v>
@@ -5677,11 +5680,11 @@
       </c>
       <c r="B3" s="129" t="str">
         <f>"o-CNTW-SUP-POC-"&amp;"231106" &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231106-12</v>
-      </c>
-      <c r="C3" s="132" t="str">
-        <f>'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBC-12</v>
+        <v>o-CNTW-SUP-POC-231106-1</v>
+      </c>
+      <c r="C3" s="130" t="str">
+        <f>'TC52-Upload Obound Setup'!$B$2</f>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="D3" s="132" t="s">
         <v>205</v>
@@ -5697,17 +5700,17 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:7" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="129" t="str">
         <f>"o-CNTW-SUP-POC-"&amp;"231106" &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231106-12</v>
-      </c>
-      <c r="C4" s="135" t="str">
-        <f>'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBC-12</v>
+        <v>o-CNTW-SUP-POC-231106-1</v>
+      </c>
+      <c r="C4" s="130" t="str">
+        <f>'TC52-Upload Obound Setup'!$B$2</f>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="D4" s="134"/>
       <c r="E4" s="130" t="str">
@@ -5722,12 +5725,56 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="31" t="str">
+        <f ca="1">"B-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!A2</f>
+        <v>B-231116-TS1-1</v>
+      </c>
+      <c r="D2" s="31" t="str">
+        <f>"B-231106-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!$A$2</f>
+        <v>B-231106-TS1-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400BBE19-7391-40E2-B8EE-A3263958B10A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5736,113 +5783,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="114" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1">
+      <c r="B1" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="137" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="str">
-        <f>"B-231106-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!$A$2</f>
-        <v>B-231106-TBC-12</v>
-      </c>
-      <c r="C2" s="31" t="str">
-        <f ca="1">"B-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!A2</f>
-        <v>B-231114-TBC-12</v>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400BBE19-7391-40E2-B8EE-A3263958B10A}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1">
-      <c r="A1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="137" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row ht="15" r="2" spans="1:4" thickBot="1">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BCD4A-9E59-457E-8F07-757864EE6B7B}">
-  <dimension ref="A1:Z4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BCD4A-9E59-457E-8F07-757864EE6B7B}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:25" thickBot="1">
+    <row r="1" spans="1:25" ht="15" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>177</v>
       </c>
@@ -5919,10 +5925,10 @@
         <v>305</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:25">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="68" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>210</v>
@@ -5932,18 +5938,18 @@
       <c r="E2" s="56"/>
       <c r="F2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="G2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="56" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J2" s="55" t="str">
         <f>TC14n15!$D$2</f>
@@ -5958,7 +5964,7 @@
       <c r="M2" s="56">
         <v>150</v>
       </c>
-      <c r="N2" s="203" t="n">
+      <c r="N2" s="203">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -5996,7 +6002,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="28.8">
       <c r="A3" s="64"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -6004,18 +6010,18 @@
       <c r="E3" s="50"/>
       <c r="F3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="G3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="50" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J3" s="55" t="str">
         <f>TC14n15!$D$2</f>
@@ -6030,7 +6036,7 @@
       <c r="M3" s="50">
         <v>150</v>
       </c>
-      <c r="N3" s="203" t="n">
+      <c r="N3" s="203">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -6068,7 +6074,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="29.4" r="4" spans="1:25" thickBot="1">
+    <row r="4" spans="1:25" ht="29.4" thickBot="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6076,18 +6082,18 @@
       <c r="E4" s="34"/>
       <c r="F4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="G4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="34" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J4" s="55" t="str">
         <f>TC14n15!$D$2</f>
@@ -6102,9 +6108,9 @@
       <c r="M4" s="34">
         <v>50</v>
       </c>
-      <c r="N4" s="203" t="n">
+      <c r="N4" s="203">
         <f>'TC46-Price'!$B4</f>
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O4" s="34" t="s">
         <v>114</v>
@@ -6141,40 +6147,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D7E12-5300-4A09-AA7E-C1C955B569DD}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D7E12-5300-4A09-AA7E-C1C955B569DD}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:23" thickBot="1">
+    <row r="1" spans="1:23" ht="15" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>150</v>
       </c>
@@ -6245,10 +6251,10 @@
         <v>170</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="15" customHeight="1">
       <c r="A2" s="68" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>172</v>
@@ -6258,18 +6264,18 @@
       <c r="E2" s="56"/>
       <c r="F2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="G2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TBC-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="56" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J2" s="55" t="s">
         <v>67</v>
@@ -6286,7 +6292,7 @@
       <c r="N2" s="56">
         <v>0</v>
       </c>
-      <c r="O2" s="203" t="n">
+      <c r="O2" s="203">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -6323,18 +6329,18 @@
       <c r="E3" s="50"/>
       <c r="F3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="G3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TBC-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="50" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J3" s="51" t="s">
         <v>67</v>
@@ -6351,7 +6357,7 @@
       <c r="N3" s="50">
         <v>0</v>
       </c>
-      <c r="O3" s="203" t="n">
+      <c r="O3" s="203">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -6380,7 +6386,7 @@
         <v>150</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:23" thickBot="1">
+    <row r="4" spans="1:23" ht="15" thickBot="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6388,18 +6394,18 @@
       <c r="E4" s="34"/>
       <c r="F4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="G4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TBC-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="34" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>67</v>
@@ -6416,9 +6422,9 @@
       <c r="N4" s="34">
         <v>0</v>
       </c>
-      <c r="O4" s="203" t="n">
+      <c r="O4" s="203">
         <f>'TC46-Price'!$B4</f>
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="P4" s="34" t="s">
         <v>114</v>
@@ -6446,13 +6452,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4216E-849B-435B-9F17-D9E1A9EDF9D8}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4216E-849B-435B-9F17-D9E1A9EDF9D8}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -6460,10 +6466,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -6471,22 +6477,22 @@
         <v>212</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD750C3-A142-496F-A69C-6EF5A1BBCFAC}">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD750C3-A142-496F-A69C-6EF5A1BBCFAC}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
@@ -6494,80 +6500,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="171" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="C1" t="s">
         <v>308</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="171" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="E1" s="171" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="F1" t="s">
         <v>311</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>312</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>313</v>
-      </c>
-      <c r="H1" t="s">
-        <v>314</v>
       </c>
       <c r="I1" t="s">
         <v>41</v>
       </c>
       <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
         <v>315</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>316</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>317</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>318</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="171" t="s">
         <v>319</v>
       </c>
-      <c r="O1" s="171" t="s">
+      <c r="P1" s="171" t="s">
         <v>320</v>
       </c>
-      <c r="P1" s="171" t="s">
+      <c r="Q1" s="171" t="s">
         <v>321</v>
       </c>
-      <c r="Q1" s="171" t="s">
+      <c r="R1" s="171" t="s">
         <v>322</v>
-      </c>
-      <c r="R1" s="171" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -6591,13 +6597,13 @@
         <v>PK5</v>
       </c>
       <c r="F2" s="183" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="183" t="s">
         <v>324</v>
       </c>
-      <c r="G2" s="183" t="s">
+      <c r="H2" s="183" t="s">
         <v>325</v>
-      </c>
-      <c r="H2" s="183" t="s">
-        <v>326</v>
       </c>
       <c r="I2" t="s">
         <v>63</v>
@@ -6606,16 +6612,16 @@
         <v>254</v>
       </c>
       <c r="K2" s="183" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="L2" s="183" t="s">
+      <c r="M2" s="183" t="s">
         <v>328</v>
       </c>
-      <c r="M2" s="183" t="s">
+      <c r="N2" s="183" t="s">
         <v>329</v>
-      </c>
-      <c r="N2" s="183" t="s">
-        <v>330</v>
       </c>
       <c r="O2" s="184" t="str">
         <f>"PK-CUS-POC-S13-"&amp;AutoIncrement!$B$2</f>
@@ -6636,17 +6642,17 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2" type="list" xr:uid="{B143F713-0793-4937-9216-CD8B48508AA4}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2" xr:uid="{B143F713-0793-4937-9216-CD8B48508AA4}">
       <formula1>tiemzone</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1701B649-547E-4FB3-9112-ED34471CFB15}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1701B649-547E-4FB3-9112-ED34471CFB15}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -6654,10 +6660,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -6665,24 +6671,24 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="105" t="str">
         <f>'TC55'!B2</f>
-        <v>TW12311004</v>
+        <v>TW12311001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF9481-7D4D-4350-A942-13BCBB2DB6C8}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF9481-7D4D-4350-A942-13BCBB2DB6C8}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -6690,10 +6696,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -6701,55 +6707,55 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="str">
         <f>'TC56-Custom Invoice Exp'!B2</f>
-        <v>TW12311004</v>
+        <v>TW12311001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03306B6-D5F9-45C7-B4C8-70393277B99F}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03306B6-D5F9-45C7-B4C8-70393277B99F}">
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="31" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18.75" r="1" s="7" spans="1:22" thickBot="1">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>214</v>
       </c>
@@ -6817,10 +6823,10 @@
         <v>234</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="7" spans="1:22">
+    <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="68" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -6887,10 +6893,10 @@
         <v>237</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="7" spans="1:22">
+    <row r="3" spans="1:22" s="7" customFormat="1">
       <c r="A3" s="64" t="str">
         <f>'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B3" s="50" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -6957,10 +6963,10 @@
         <v>237</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="4" s="7" spans="1:22" thickBot="1">
+    <row r="4" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="33" t="str">
         <f>'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34" t="s">
@@ -7025,34 +7031,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D772A37-567D-4E83-92B1-382F9C11B95F}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D772A37-567D-4E83-92B1-382F9C11B95F}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:15" thickBot="1">
+    <row r="1" spans="1:15" ht="15" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>214</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>238</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>239</v>
@@ -7102,7 +7108,7 @@
     <row r="2" spans="1:15">
       <c r="A2" s="68" t="str">
         <f>'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7120,20 +7126,20 @@
       <c r="F2" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="83" t="n">
+      <c r="G2" s="83">
         <f ca="1">TODAY()-2</f>
-        <v>45242.0</v>
-      </c>
-      <c r="H2" s="83" t="n">
+        <v>45244</v>
+      </c>
+      <c r="H2" s="83">
         <f ca="1">TODAY()</f>
-        <v>45244.0</v>
+        <v>45246</v>
       </c>
       <c r="I2" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="J2" s="83" t="n">
+      <c r="J2" s="83">
         <f ca="1">TODAY()-2</f>
-        <v>45242.0</v>
+        <v>45244</v>
       </c>
       <c r="K2" s="82" t="s">
         <v>252</v>
@@ -7154,7 +7160,7 @@
     <row r="3" spans="1:15">
       <c r="A3" s="64" t="str">
         <f>'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B3" s="50" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -7172,20 +7178,20 @@
       <c r="F3" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="77" t="n">
+      <c r="G3" s="77">
         <f ca="1">TODAY()-2</f>
-        <v>45242.0</v>
-      </c>
-      <c r="H3" s="77" t="n">
+        <v>45244</v>
+      </c>
+      <c r="H3" s="77">
         <f ca="1">TODAY()</f>
-        <v>45244.0</v>
+        <v>45246</v>
       </c>
       <c r="I3" s="76" t="s">
         <v>251</v>
       </c>
-      <c r="J3" s="77" t="n">
+      <c r="J3" s="77">
         <f ca="1">TODAY()-2</f>
-        <v>45242.0</v>
+        <v>45244</v>
       </c>
       <c r="K3" s="76" t="s">
         <v>252</v>
@@ -7203,10 +7209,10 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:15" thickBot="1">
+    <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="33" t="str">
         <f>'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="79" t="s">
@@ -7221,20 +7227,20 @@
       <c r="F4" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="80" t="n">
+      <c r="G4" s="80">
         <f ca="1">TODAY()-2</f>
-        <v>45242.0</v>
-      </c>
-      <c r="H4" s="80" t="n">
+        <v>45244</v>
+      </c>
+      <c r="H4" s="80">
         <f ca="1">TODAY()</f>
-        <v>45244.0</v>
+        <v>45246</v>
       </c>
       <c r="I4" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="J4" s="80" t="n">
+      <c r="J4" s="80">
         <f ca="1">TODAY()-2</f>
-        <v>45242.0</v>
+        <v>45244</v>
       </c>
       <c r="K4" s="79" t="s">
         <v>252</v>
@@ -7254,13 +7260,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD02FE-AA4B-428E-9B78-278B57847991}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD02FE-AA4B-428E-9B78-278B57847991}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -7268,14 +7274,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="3.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:6" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>243</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>249</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:6" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="30" t="s">
         <v>251</v>
       </c>
@@ -7316,13 +7322,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0AD79-4FCB-46DC-A08C-112B19B717BD}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A0AD79-4FCB-46DC-A08C-112B19B717BD}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -7330,15 +7336,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="26.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="27.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="1" max="1" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="200" t="s">
         <v>255</v>
       </c>
@@ -7352,10 +7358,10 @@
         <v>258</v>
       </c>
       <c r="E1" s="201" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="201" t="s">
         <v>332</v>
-      </c>
-      <c r="F1" s="201" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7366,50 +7372,50 @@
         <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
         <v>260</v>
       </c>
       <c r="E2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" t="s">
         <v>334</v>
-      </c>
-      <c r="F2" t="s">
-        <v>335</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348AADB4-8411-4027-B481-AA1BBB3ACA38}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348AADB4-8411-4027-B481-AA1BBB3ACA38}">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:19" thickBot="1">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
       <c r="A1" s="143" t="s">
         <v>214</v>
       </c>
@@ -7426,10 +7432,10 @@
         <v>263</v>
       </c>
       <c r="F1" s="202" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="202" t="s">
         <v>332</v>
-      </c>
-      <c r="G1" s="202" t="s">
-        <v>333</v>
       </c>
       <c r="H1" s="88" t="s">
         <v>264</v>
@@ -7468,10 +7474,10 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:19" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7480,12 +7486,12 @@
       <c r="C2" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="87" t="str">
-        <f>'TC063'!B2</f>
-        <v>14 Jun 2023</v>
-      </c>
-      <c r="E2" s="87" t="str">
-        <f>'TC063'!C2</f>
+      <c r="D2" s="206" t="str">
+        <f>'TC063'!$C$2</f>
+        <v>13 Jun 2023</v>
+      </c>
+      <c r="E2" s="206" t="str">
+        <f>'TC063'!$B$2</f>
         <v>14 Jun 2023</v>
       </c>
       <c r="F2" s="23" t="str">
@@ -7534,40 +7540,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E62800-D4A5-472B-9BE2-2F94BD717192}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E62800-D4A5-472B-9BE2-2F94BD717192}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
       <c r="A1" s="143" t="s">
         <v>214</v>
       </c>
@@ -7620,10 +7626,10 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -7638,7 +7644,7 @@
       </c>
       <c r="E2" s="87" t="str">
         <f>'TC063'!C2</f>
-        <v>14 Jun 2023</v>
+        <v>13 Jun 2023</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>276</v>
@@ -7678,34 +7684,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FF13D-341C-43F0-8A8A-D4F730016CCF}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FF13D-341C-43F0-8A8A-D4F730016CCF}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="40.5546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="40.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>214</v>
       </c>
@@ -7773,10 +7779,10 @@
         <v>234</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="7" spans="1:22">
+    <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="68" t="str">
         <f>'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -7843,10 +7849,10 @@
         <v>237</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1">
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="33" t="str">
         <f>'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34" t="s">
@@ -7911,36 +7917,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808944C-B0B2-4920-AD71-CE618523B6BF}">
-  <dimension ref="A1:Z4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808944C-B0B2-4920-AD71-CE618523B6BF}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:25" thickBot="1">
+    <row r="1" spans="1:25" ht="15" thickBot="1">
       <c r="A1" s="145" t="s">
         <v>177</v>
       </c>
@@ -8017,10 +8023,10 @@
         <v>305</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:25">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="68" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>210</v>
@@ -8030,18 +8036,18 @@
       <c r="E2" s="56"/>
       <c r="F2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="G2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="56" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J2" s="55" t="str">
         <f>TC14n15!$D$2</f>
@@ -8056,7 +8062,7 @@
       <c r="M2" s="56">
         <v>150</v>
       </c>
-      <c r="N2" s="204" t="n">
+      <c r="N2" s="204">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -8094,7 +8100,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="28.8">
       <c r="A3" s="64"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -8102,18 +8108,18 @@
       <c r="E3" s="50"/>
       <c r="F3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="G3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="50" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J3" s="55" t="str">
         <f>TC14n15!$D$2</f>
@@ -8128,7 +8134,7 @@
       <c r="M3" s="50">
         <v>150</v>
       </c>
-      <c r="N3" s="204" t="n">
+      <c r="N3" s="204">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="29.4" r="4" spans="1:25" thickBot="1">
+    <row r="4" spans="1:25" ht="29.4" thickBot="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -8174,18 +8180,18 @@
       <c r="E4" s="34"/>
       <c r="F4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="G4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="34" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J4" s="55" t="str">
         <f>TC14n15!$D$2</f>
@@ -8200,9 +8206,9 @@
       <c r="M4" s="34">
         <v>50</v>
       </c>
-      <c r="N4" s="204" t="n">
+      <c r="N4" s="204">
         <f>'TC46-Price'!$B4</f>
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O4" s="34" t="s">
         <v>114</v>
@@ -8239,13 +8245,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586BCA17-3EC0-4360-B92A-8DA298113376}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586BCA17-3EC0-4360-B92A-8DA298113376}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -8253,53 +8259,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="185" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="186" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="185" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="186" t="s">
-        <v>320</v>
-      </c>
-      <c r="C1" s="185" t="s">
+      <c r="D1" s="185" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="185" t="s">
+      <c r="E1" s="185" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="185" t="s">
+      <c r="F1" s="185" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="G1" s="185" t="s">
         <v>313</v>
-      </c>
-      <c r="G1" s="185" t="s">
-        <v>314</v>
       </c>
       <c r="H1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="185" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="185" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="185" t="s">
+      <c r="K1" s="185" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="185" t="s">
+      <c r="L1" s="185" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="185" t="s">
+      <c r="M1" s="185" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="185" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row ht="66" r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:13" ht="66">
       <c r="A2" s="187" t="str">
         <f>'TC03-Company'!$C$2</f>
         <v>PK-PK-CUS-S13-5</v>
@@ -8317,13 +8323,13 @@
         <v>PK5</v>
       </c>
       <c r="E2" s="188" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="188" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="G2" s="188" t="s">
         <v>325</v>
-      </c>
-      <c r="G2" s="188" t="s">
-        <v>326</v>
       </c>
       <c r="H2" s="189" t="s">
         <v>63</v>
@@ -8332,31 +8338,31 @@
         <v>254</v>
       </c>
       <c r="J2" s="188" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="188" t="s">
         <v>327</v>
       </c>
-      <c r="K2" s="188" t="s">
+      <c r="L2" s="188" t="s">
         <v>328</v>
       </c>
-      <c r="L2" s="188" t="s">
+      <c r="M2" s="188" t="s">
         <v>329</v>
-      </c>
-      <c r="M2" s="188" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G2" type="list" xr:uid="{7B73B7F0-2942-4D7C-B48D-CE5C018FADEC}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2" xr:uid="{7B73B7F0-2942-4D7C-B48D-CE5C018FADEC}">
       <formula1>tiemzone</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F40A71-BF3A-496C-A7FF-1B4DB5531565}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F40A71-BF3A-496C-A7FF-1B4DB5531565}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O4"/>
@@ -8364,20 +8370,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="46.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:23" thickBot="1">
+    <row r="1" spans="1:23" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -8448,10 +8454,10 @@
         <v>170</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="15" customHeight="1">
       <c r="A2" s="3" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>211</v>
@@ -8461,18 +8467,18 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TBC-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>67</v>
@@ -8489,7 +8495,7 @@
       <c r="N2" s="56">
         <v>0</v>
       </c>
-      <c r="O2" s="204" t="n">
+      <c r="O2" s="204">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -8525,18 +8531,18 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TBC-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>67</v>
@@ -8553,7 +8559,7 @@
       <c r="N3" s="50">
         <v>0</v>
       </c>
-      <c r="O3" s="204" t="n">
+      <c r="O3" s="204">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>150</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:23" thickBot="1">
+    <row r="4" spans="1:23" ht="15" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8590,18 +8596,18 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TBC-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="3" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>67</v>
@@ -8618,9 +8624,9 @@
       <c r="N4" s="34">
         <v>0</v>
       </c>
-      <c r="O4" s="204" t="n">
+      <c r="O4" s="204">
         <f>'TC46-Price'!$B4</f>
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="P4" s="34" t="s">
         <v>114</v>
@@ -8648,13 +8654,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0931027-A5AD-49AE-810F-7FADA3157995}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0931027-A5AD-49AE-810F-7FADA3157995}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -8662,14 +8668,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -8698,14 +8704,14 @@
       </c>
       <c r="B2" s="61" t="str">
         <f>'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231106-12</v>
+        <v>o-CNTW-SUP-POC-231106-1</v>
       </c>
       <c r="C2" s="61" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
         <v/>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E2" s="93" t="str">
         <f>'TC52-Autogen Outbound Data'!$C$2</f>
@@ -8725,14 +8731,14 @@
       </c>
       <c r="B3" s="27" t="str">
         <f>'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231106-12</v>
+        <v>o-CNTW-SUP-POC-231106-1</v>
       </c>
       <c r="C3" s="27" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="D3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E3" s="91" t="str">
         <f>'TC52-Autogen Outbound Data'!C$2</f>
@@ -8744,20 +8750,20 @@
       </c>
       <c r="G3" s="58"/>
     </row>
-    <row ht="15" r="4" spans="1:7" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="28" t="str">
         <f>'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231106-12</v>
+        <v>o-CNTW-SUP-POC-231106-1</v>
       </c>
       <c r="C4" s="28" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="D4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E4" s="92" t="str">
         <f>'TC52-Autogen Outbound Data'!C$2</f>
@@ -8771,14 +8777,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6DCE6-F15B-496A-A206-2533B2496A1A}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6DCE6-F15B-496A-A206-2533B2496A1A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -8786,11 +8792,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -8804,13 +8810,13 @@
         <v>278</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:4" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="str">
         <f>'TC55'!B2</f>
-        <v>TW12311004</v>
+        <v>TW12311001</v>
       </c>
       <c r="C2" s="95" t="str">
         <f>'TC52-Autogen Outbound Data'!D$2</f>
@@ -8822,13 +8828,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B90B1-1C0F-4D16-8A2E-70D3AF44BB6D}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B90B1-1C0F-4D16-8A2E-70D3AF44BB6D}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
@@ -8836,11 +8842,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:3" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -8851,44 +8857,44 @@
         <v>92</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:3" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="str">
         <f>'TC56-Custom Invoice Exp'!B2</f>
-        <v>TW12311004</v>
+        <v>TW12311001</v>
       </c>
       <c r="C2" s="31" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TBC-012</v>
+        <v>CNTWSUP-PKCUS-TS1-01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D05459-7404-4903-8ECD-BB35C359893B}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D05459-7404-4903-8ECD-BB35C359893B}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
       <c r="A1" s="143" t="s">
         <v>214</v>
       </c>
@@ -8941,10 +8947,10 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -8959,7 +8965,7 @@
       </c>
       <c r="E2" s="87" t="str">
         <f>'TC063'!C2</f>
-        <v>14 Jun 2023</v>
+        <v>13 Jun 2023</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>276</v>
@@ -8999,29 +9005,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1DACA5-2EF3-4469-B44A-F4DA1792D9DF}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1DACA5-2EF3-4469-B44A-F4DA1792D9DF}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
       <c r="A1" s="143" t="s">
         <v>214</v>
       </c>
@@ -9074,10 +9080,10 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9092,7 +9098,7 @@
       </c>
       <c r="E2" s="87" t="str">
         <f>'TC063'!C2</f>
-        <v>14 Jun 2023</v>
+        <v>13 Jun 2023</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>276</v>
@@ -9132,33 +9138,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B7B88-2829-4C6F-982F-5A668DC56303}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B7B88-2829-4C6F-982F-5A668DC56303}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>214</v>
       </c>
@@ -9226,10 +9234,10 @@
         <v>234</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="7" spans="1:22">
+    <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="68" t="str">
         <f>'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -9296,10 +9304,10 @@
         <v>237</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1">
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="33" t="str">
         <f>'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34" t="s">
@@ -9364,13 +9372,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F1CFB-64E3-4394-A87B-83BC582160E0}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F1CFB-64E3-4394-A87B-83BC582160E0}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
@@ -9378,11 +9386,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -9390,38 +9398,38 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="str">
         <f>'TC56-Custom Invoice Exp'!B2</f>
-        <v>TW12311004</v>
+        <v>TW12311001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3AE7A-F993-419E-BE5E-9D8E310A742B}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E3AE7A-F993-419E-BE5E-9D8E310A742B}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
       <c r="A1" s="143" t="s">
         <v>214</v>
       </c>
@@ -9474,10 +9482,10 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9492,7 +9500,7 @@
       </c>
       <c r="E2" s="87" t="str">
         <f>'TC063'!C2</f>
-        <v>14 Jun 2023</v>
+        <v>13 Jun 2023</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>276</v>
@@ -9532,37 +9540,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6107947-A69E-40DB-BE93-3997BF1B55A0}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6107947-A69E-40DB-BE93-3997BF1B55A0}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
       <c r="A1" s="143" t="s">
         <v>214</v>
       </c>
@@ -9615,10 +9623,10 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -9633,7 +9641,7 @@
       </c>
       <c r="E2" s="87" t="str">
         <f>'TC063'!C2</f>
-        <v>14 Jun 2023</v>
+        <v>13 Jun 2023</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>276</v>
@@ -9673,13 +9681,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56334AC-EB51-4D24-9F1F-824D475B3DB8}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56334AC-EB51-4D24-9F1F-824D475B3DB8}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -9687,54 +9695,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="190" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="191" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="190" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="191" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" s="190" t="s">
+      <c r="D1" s="185" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="185" t="s">
+      <c r="E1" s="185" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="185" t="s">
+      <c r="F1" s="185" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="G1" s="185" t="s">
         <v>313</v>
-      </c>
-      <c r="G1" s="185" t="s">
-        <v>314</v>
       </c>
       <c r="H1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="185" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="185" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="185" t="s">
+      <c r="K1" s="185" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="185" t="s">
+      <c r="L1" s="185" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="185" t="s">
+      <c r="M1" s="185" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="185" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="57.75" r="2" s="192" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" s="192" customFormat="1" ht="57.75" customHeight="1">
       <c r="A2" s="187" t="str">
         <f>'TC03-Company'!$C$2</f>
         <v>PK-PK-CUS-S13-5</v>
@@ -9752,13 +9760,13 @@
         <v>PK5</v>
       </c>
       <c r="E2" s="188" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="188" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="G2" s="188" t="s">
         <v>325</v>
-      </c>
-      <c r="G2" s="188" t="s">
-        <v>326</v>
       </c>
       <c r="H2" s="189" t="s">
         <v>63</v>
@@ -9767,51 +9775,51 @@
         <v>254</v>
       </c>
       <c r="J2" s="188" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="188" t="s">
         <v>327</v>
       </c>
-      <c r="K2" s="188" t="s">
+      <c r="L2" s="188" t="s">
         <v>328</v>
       </c>
-      <c r="L2" s="188" t="s">
+      <c r="M2" s="188" t="s">
         <v>329</v>
-      </c>
-      <c r="M2" s="188" t="s">
-        <v>330</v>
       </c>
       <c r="O2" s="193"/>
       <c r="Q2" s="194"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G2" type="list" xr:uid="{443B0E05-B78D-4936-953A-6DE571B44364}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2" xr:uid="{443B0E05-B78D-4936-953A-6DE571B44364}">
       <formula1>tiemzone</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290B96C-15D8-4BA3-B982-FC9C29C6AD4B}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290B96C-15D8-4BA3-B982-FC9C29C6AD4B}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>214</v>
       </c>
@@ -9879,10 +9887,10 @@
         <v>234</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="7" spans="1:22">
+    <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="68" t="str">
         <f>'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -9949,10 +9957,10 @@
         <v>237</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1">
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="33" t="str">
         <f>'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34" t="s">
@@ -10017,36 +10025,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBE0E9-79E8-418F-9849-CFC8B8CDB64E}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBE0E9-79E8-418F-9849-CFC8B8CDB64E}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:13" thickBot="1">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="11" t="str">
         <f>'TC069'!A1</f>
         <v>No</v>
@@ -10092,17 +10100,17 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="8">
         <f>'TC069'!A2</f>
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="148" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="C2" s="61" t="str">
         <f>'TC069'!B2</f>
-        <v>o-CNTW-SUP-POC-231106-12</v>
+        <v>o-CNTW-SUP-POC-231106-1</v>
       </c>
       <c r="D2" s="61" t="str">
         <f>'TC069'!C2</f>
@@ -10114,11 +10122,11 @@
       </c>
       <c r="F2" s="149" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231114-TBC-001</v>
+        <v>i-CNTW-SUP-POC-231116-TS1-001</v>
       </c>
       <c r="G2" s="61" t="str">
         <f ca="1">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>14 十一月 2023</v>
+        <v>16 11月 2023</v>
       </c>
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
@@ -10134,17 +10142,17 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="9">
         <f>'TC069'!A3</f>
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="150" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="C3" s="27" t="str">
         <f>'TC069'!B3</f>
-        <v>o-CNTW-SUP-POC-231106-12</v>
+        <v>o-CNTW-SUP-POC-231106-1</v>
       </c>
       <c r="D3" s="27" t="str">
         <f>'TC069'!C3</f>
@@ -10156,11 +10164,11 @@
       </c>
       <c r="F3" s="151" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231114-TBC-001</v>
+        <v>i-CNTW-SUP-POC-231116-TS1-001</v>
       </c>
       <c r="G3" s="27" t="str">
-        <f ca="1" ref="G3:G4" si="0" t="shared">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>14 十一月 2023</v>
+        <f t="shared" ref="G3:G4" ca="1" si="0">TEXT(TODAY(),"d mmm yyyy")</f>
+        <v>16 11月 2023</v>
       </c>
       <c r="H3" s="27">
         <v>1</v>
@@ -10181,18 +10189,18 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:13" thickBot="1">
-      <c r="A4" s="10" t="n">
+    <row r="4" spans="1:13" ht="15" thickBot="1">
+      <c r="A4" s="10">
         <f>'TC069'!A4</f>
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="152" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="C4" s="28" t="str">
         <f>'TC069'!B4</f>
-        <v>o-CNTW-SUP-POC-231106-12</v>
+        <v>o-CNTW-SUP-POC-231106-1</v>
       </c>
       <c r="D4" s="28" t="str">
         <f>'TC069'!C4</f>
@@ -10204,11 +10212,11 @@
       </c>
       <c r="F4" s="153" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231114-TBC-001</v>
+        <v>i-CNTW-SUP-POC-231116-TS1-001</v>
       </c>
       <c r="G4" s="28" t="str">
-        <f ca="1" si="0" t="shared"/>
-        <v>14 十一月 2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16 11月 2023</v>
       </c>
       <c r="H4" s="28">
         <v>1</v>
@@ -10231,35 +10239,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66732EE-4FDA-4DBC-BEA7-44295A7F0311}">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66732EE-4FDA-4DBC-BEA7-44295A7F0311}">
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="49.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="19" max="20" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:22" thickBot="1">
+    <row r="1" spans="1:22" ht="15" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>150</v>
       </c>
@@ -10327,10 +10335,10 @@
         <v>169</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:22">
+    <row r="2" spans="1:22" ht="15" customHeight="1">
       <c r="A2" s="68" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>210</v>
@@ -10340,18 +10348,18 @@
       <c r="E2" s="56"/>
       <c r="F2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="G2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TBC-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="56" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J2" s="55" t="s">
         <v>67</v>
@@ -10368,7 +10376,7 @@
       <c r="N2" s="56">
         <v>0</v>
       </c>
-      <c r="O2" s="204" t="n">
+      <c r="O2" s="204">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -10394,7 +10402,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="28.8">
       <c r="A3" s="9"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -10402,18 +10410,18 @@
       <c r="E3" s="50"/>
       <c r="F3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="G3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TBC-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="50" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J3" s="51" t="s">
         <v>67</v>
@@ -10430,7 +10438,7 @@
       <c r="N3" s="50">
         <v>0</v>
       </c>
-      <c r="O3" s="204" t="n">
+      <c r="O3" s="204">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -10456,7 +10464,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="29.4" r="4" spans="1:22" thickBot="1">
+    <row r="4" spans="1:22" ht="29.4" thickBot="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -10464,18 +10472,18 @@
       <c r="E4" s="34"/>
       <c r="F4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="G4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TBC-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="34" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>67</v>
@@ -10492,9 +10500,9 @@
       <c r="N4" s="34">
         <v>0</v>
       </c>
-      <c r="O4" s="204" t="n">
+      <c r="O4" s="204">
         <f>'TC46-Price'!$B4</f>
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="P4" s="34" t="s">
         <v>114</v>
@@ -10519,30 +10527,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BE75F-BAF6-44E6-8F2F-031535BEC4F7}">
-  <dimension ref="A1:Z4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3BE75F-BAF6-44E6-8F2F-031535BEC4F7}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:25" thickBot="1">
+    <row r="1" spans="1:25" ht="15" thickBot="1">
       <c r="A1" s="39" t="s">
         <v>177</v>
       </c>
@@ -10619,10 +10627,10 @@
         <v>305</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:25">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="68" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTBC-2311001</v>
+        <v>sTS1-2311001</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>210</v>
@@ -10632,18 +10640,18 @@
       <c r="E2" s="56"/>
       <c r="F2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TBCscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="G2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="56" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J2" s="55" t="str">
         <f>TC14n15!$D$2</f>
@@ -10658,7 +10666,7 @@
       <c r="M2" s="56">
         <v>150</v>
       </c>
-      <c r="N2" s="204" t="n">
+      <c r="N2" s="204">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -10696,7 +10704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="43.2">
       <c r="A3" s="64"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -10704,18 +10712,18 @@
       <c r="E3" s="50"/>
       <c r="F3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TBCscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="G3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="50" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J3" s="55" t="str">
         <f>TC14n15!$D$2</f>
@@ -10730,7 +10738,7 @@
       <c r="M3" s="50">
         <v>150</v>
       </c>
-      <c r="N3" s="204" t="n">
+      <c r="N3" s="204">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -10768,7 +10776,7 @@
         <v>174</v>
       </c>
     </row>
-    <row ht="43.8" r="4" spans="1:25" thickBot="1">
+    <row r="4" spans="1:25" ht="43.8" thickBot="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -10776,18 +10784,18 @@
       <c r="E4" s="34"/>
       <c r="F4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TBCscenario1320230614013</v>
+        <v>TS1scenario1320230614013</v>
       </c>
       <c r="G4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TBC-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="34" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTBC-2311001</v>
+        <v>cTS1-2311001</v>
       </c>
       <c r="J4" s="55" t="str">
         <f>TC14n15!$D$2</f>
@@ -10802,9 +10810,9 @@
       <c r="M4" s="34">
         <v>50</v>
       </c>
-      <c r="N4" s="204" t="n">
+      <c r="N4" s="204">
         <f>'TC46-Price'!$B4</f>
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O4" s="34" t="s">
         <v>114</v>
@@ -10841,13 +10849,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13277385-296B-48F5-ABFB-2898AB800E9A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13277385-296B-48F5-ABFB-2898AB800E9A}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -10855,10 +10863,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:2" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -10866,22 +10874,22 @@
         <v>288</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:2" thickBot="1">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478A9AA-0EB8-4607-A679-CAA9C8DC9ACC}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478A9AA-0EB8-4607-A679-CAA9C8DC9ACC}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
@@ -10889,11 +10897,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" style="156" width="8.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="156" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="156" width="12.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="156" width="38.6640625" collapsed="true"/>
-    <col min="5" max="16384" style="156" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="8.88671875" style="156" collapsed="1"/>
+    <col min="2" max="2" width="16.109375" style="156" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" style="156" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.6640625" style="156" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="156" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10919,7 +10927,7 @@
       </c>
       <c r="B2" s="158" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="C2" s="158" t="str">
         <f>IF('TC52-Upload Obound Form'!D2="","",'TC52-Upload Obound Form'!D2)</f>
@@ -10939,7 +10947,7 @@
       </c>
       <c r="B3" s="158" t="str">
         <f>'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="C3" s="158" t="str">
         <f>IF('TC52-Upload Obound Form'!D3="","",'TC52-Upload Obound Form'!D3)</f>
@@ -10959,7 +10967,7 @@
       </c>
       <c r="B4" s="158" t="str">
         <f>'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="C4" s="158" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
@@ -10975,28 +10983,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ABFAF8-D337-497A-8E07-5F791D04721C}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ABFAF8-D337-497A-8E07-5F791D04721C}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="6" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
       <c r="A1" s="143" t="s">
         <v>214</v>
       </c>
@@ -11049,10 +11057,10 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -11067,7 +11075,7 @@
       </c>
       <c r="E2" s="87" t="str">
         <f>'TC063'!C2</f>
-        <v>14 Jun 2023</v>
+        <v>13 Jun 2023</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>276</v>
@@ -11107,26 +11115,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321F03C-7E3F-491D-84BC-0DD6B062080D}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321F03C-7E3F-491D-84BC-0DD6B062080D}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="65.25" r="1" s="7" spans="1:17" thickBot="1">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
       <c r="A1" s="143" t="s">
         <v>214</v>
       </c>
@@ -11179,10 +11187,10 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:17" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>'TC52-Upload Obound Form'!C2</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -11197,7 +11205,7 @@
       </c>
       <c r="E2" s="87" t="str">
         <f>'TC063'!C2</f>
-        <v>14 Jun 2023</v>
+        <v>13 Jun 2023</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>276</v>
@@ -11237,30 +11245,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD6870-87F3-4941-BFA6-FB0F0EDE2000}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD6870-87F3-4941-BFA6-FB0F0EDE2000}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.2" r="1" s="7" spans="1:22" thickBot="1">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>214</v>
       </c>
@@ -11328,10 +11336,10 @@
         <v>234</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="7" spans="1:22">
+    <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="68" t="str">
         <f>'TC52-Upload Obound Form'!C3</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B2" s="56" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -11398,10 +11406,10 @@
         <v>276</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="3" s="7" spans="1:22" thickBot="1">
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="33" t="str">
         <f>'TC52-Upload Obound Form'!C4</f>
-        <v>B-231106-TBC-12</v>
+        <v>B-231108-TB2-2</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34" t="s">
@@ -11466,13 +11474,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5B5AF-A084-4EF7-9F9D-0F10CC18FDD7}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5B5AF-A084-4EF7-9F9D-0F10CC18FDD7}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -11480,12 +11488,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -11499,13 +11507,13 @@
         <v>240</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.2" r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="13.2" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="61" t="str">
-        <f>'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBC-12</v>
+        <f>'TC52-Upload Obound Setup'!D2</f>
+        <v>B-231106-TS1-1</v>
       </c>
       <c r="C2" s="100" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
@@ -11520,8 +11528,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="str">
-        <f>'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBC-12</v>
+        <f>'TC52-Upload Obound Setup'!D2</f>
+        <v>B-231106-TS1-1</v>
       </c>
       <c r="C3" s="98" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
@@ -11531,13 +11539,13 @@
         <v>219</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" thickBot="1">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="28" t="str">
-        <f>'TC52-Upload Obound Setup'!B2</f>
-        <v>B-231106-TBC-12</v>
+        <f>'TC52-Upload Obound Setup'!D2</f>
+        <v>B-231106-TS1-1</v>
       </c>
       <c r="C4" s="99"/>
       <c r="D4" s="29" t="s">
@@ -11545,13 +11553,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C92756-F081-489F-B58C-E4B4585C2469}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C92756-F081-489F-B58C-E4B4585C2469}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -11559,55 +11567,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="185" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="191" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="185" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="191" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" s="185" t="s">
+      <c r="D1" s="185" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="185" t="s">
+      <c r="E1" s="185" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="185" t="s">
+      <c r="F1" s="185" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="G1" s="185" t="s">
         <v>313</v>
-      </c>
-      <c r="G1" s="185" t="s">
-        <v>314</v>
       </c>
       <c r="H1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="185" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="185" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="185" t="s">
+      <c r="K1" s="185" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="185" t="s">
+      <c r="L1" s="185" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="185" t="s">
+      <c r="M1" s="185" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="185" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="57.75" r="2" s="192" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" s="192" customFormat="1" ht="57.75" customHeight="1">
       <c r="A2" s="187" t="str">
         <f>'TC03-Company'!$C$2</f>
         <v>PK-PK-CUS-S13-5</v>
@@ -11625,13 +11633,13 @@
         <v>PK5</v>
       </c>
       <c r="E2" s="188" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="188" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="G2" s="188" t="s">
         <v>325</v>
-      </c>
-      <c r="G2" s="188" t="s">
-        <v>326</v>
       </c>
       <c r="H2" s="189" t="s">
         <v>63</v>
@@ -11640,33 +11648,33 @@
         <v>254</v>
       </c>
       <c r="J2" s="188" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="188" t="s">
         <v>327</v>
       </c>
-      <c r="K2" s="188" t="s">
+      <c r="L2" s="188" t="s">
         <v>328</v>
       </c>
-      <c r="L2" s="188" t="s">
+      <c r="M2" s="188" t="s">
         <v>329</v>
-      </c>
-      <c r="M2" s="188" t="s">
-        <v>330</v>
       </c>
       <c r="O2" s="193"/>
       <c r="Q2" s="194"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G2" type="list" xr:uid="{3A435968-4F1C-485F-B84D-1A30A5C29BC8}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2" xr:uid="{3A435968-4F1C-485F-B84D-1A30A5C29BC8}">
       <formula1>tiemzone</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE49198F-F8EB-44E1-833E-4D97F8A8542A}">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE49198F-F8EB-44E1-833E-4D97F8A8542A}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -11674,58 +11682,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="2" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="185" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="171" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="185" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="185" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="171" t="s">
-        <v>323</v>
-      </c>
-      <c r="C1" s="185" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" s="185" t="s">
+      <c r="E1" s="185" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="185" t="s">
+      <c r="F1" s="185" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="G1" s="185" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="185" t="s">
+      <c r="H1" s="185" t="s">
         <v>313</v>
-      </c>
-      <c r="H1" s="185" t="s">
-        <v>314</v>
       </c>
       <c r="I1" s="185" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="185" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="185" t="s">
         <v>315</v>
       </c>
-      <c r="K1" s="185" t="s">
+      <c r="L1" s="185" t="s">
         <v>316</v>
       </c>
-      <c r="L1" s="185" t="s">
+      <c r="M1" s="185" t="s">
         <v>317</v>
       </c>
-      <c r="M1" s="185" t="s">
+      <c r="N1" s="185" t="s">
         <v>318</v>
-      </c>
-      <c r="N1" s="185" t="s">
-        <v>319</v>
       </c>
       <c r="O1" s="195"/>
       <c r="P1" s="195"/>
@@ -11735,7 +11743,7 @@
       <c r="T1" s="195"/>
       <c r="U1" s="195"/>
     </row>
-    <row ht="66" r="2" spans="1:21">
+    <row r="2" spans="1:21" ht="66">
       <c r="A2" s="187" t="str">
         <f>'TC03-Company'!$C$2</f>
         <v>PK-PK-CUS-S13-5</v>
@@ -11757,13 +11765,13 @@
         <v>PK5</v>
       </c>
       <c r="F2" s="188" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="188" t="s">
         <v>324</v>
       </c>
-      <c r="G2" s="188" t="s">
+      <c r="H2" s="188" t="s">
         <v>325</v>
-      </c>
-      <c r="H2" s="188" t="s">
-        <v>326</v>
       </c>
       <c r="I2" s="189" t="s">
         <v>63</v>
@@ -11772,16 +11780,16 @@
         <v>254</v>
       </c>
       <c r="K2" s="188" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" s="188" t="s">
         <v>327</v>
       </c>
-      <c r="L2" s="188" t="s">
+      <c r="M2" s="188" t="s">
         <v>328</v>
       </c>
-      <c r="M2" s="188" t="s">
+      <c r="N2" s="188" t="s">
         <v>329</v>
-      </c>
-      <c r="N2" s="188" t="s">
-        <v>330</v>
       </c>
       <c r="O2" s="196"/>
       <c r="T2" s="196"/>
@@ -11789,39 +11797,39 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="U2" type="list" xr:uid="{4FB4A5E7-2514-40AE-B281-D476E3954F3E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="U2" xr:uid="{4FB4A5E7-2514-40AE-B281-D476E3954F3E}">
       <formula1>ACTIVE_FLAG</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="T1:T2 H2" type="list" xr:uid="{6931F143-4CFB-40AE-8033-425724D2AFAF}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T1:T2 H2" xr:uid="{6931F143-4CFB-40AE-8033-425724D2AFAF}">
       <formula1>tiemzone</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF25709-9C2B-4E3D-B69D-6D4636930677}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF25709-9C2B-4E3D-B69D-6D4636930677}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="41.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="48.44140625" collapsed="true"/>
+    <col min="1" max="2" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="48.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:10" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -11853,7 +11861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="58.2" r="2" spans="1:10" thickBot="1">
+    <row r="2" spans="1:10" ht="58.2" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -11890,9 +11898,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2" xr:uid="{4D98E823-CA4F-482C-9BAD-E97C9E972293}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4D98E823-CA4F-482C-9BAD-E97C9E972293}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 13/S13_TestCases_Data.xlsx
@@ -1,87 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A35302-433D-4D83-9EF8-F8C646116A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1B13D76B-2CA3-4494-9565-460365218149}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" firstSheet="32" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="16" firstSheet="12" tabRatio="618" windowHeight="8880" windowWidth="22140" xWindow="-22176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1056"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator" sheetId="66" r:id="rId1"/>
-    <sheet name="AutoGen" sheetId="67" r:id="rId2"/>
-    <sheet name="AutoIncrement" sheetId="14" r:id="rId3"/>
-    <sheet name="TC03-Company" sheetId="72" r:id="rId4"/>
-    <sheet name="TC04-Customer" sheetId="71" r:id="rId5"/>
-    <sheet name="TC05-BU" sheetId="73" r:id="rId6"/>
-    <sheet name="TC06-Supplier" sheetId="74" r:id="rId7"/>
-    <sheet name="TC07-DC" sheetId="75" r:id="rId8"/>
-    <sheet name="TC09-Create New User" sheetId="18" r:id="rId9"/>
-    <sheet name="TC14n15" sheetId="65" r:id="rId10"/>
-    <sheet name="TC019-Activate User" sheetId="61" r:id="rId11"/>
-    <sheet name="TC021-Forget Password" sheetId="59" r:id="rId12"/>
-    <sheet name="TC033" sheetId="19" r:id="rId13"/>
-    <sheet name="TC033_ETAnWeek" sheetId="20" r:id="rId14"/>
-    <sheet name="TC34" sheetId="9" r:id="rId15"/>
-    <sheet name="TC35-Contract Parts Info" sheetId="6" r:id="rId16"/>
-    <sheet name="TC35" sheetId="3" r:id="rId17"/>
-    <sheet name="TC038" sheetId="21" r:id="rId18"/>
-    <sheet name="TC039" sheetId="23" r:id="rId19"/>
-    <sheet name="S13_TC40" sheetId="44" r:id="rId20"/>
-    <sheet name="TC041 - Place Order (Regular)" sheetId="2" r:id="rId21"/>
-    <sheet name="TC041-Inbound Date" sheetId="13" r:id="rId22"/>
-    <sheet name="TC041-Reference" sheetId="68" r:id="rId23"/>
-    <sheet name="TC42" sheetId="4" r:id="rId24"/>
-    <sheet name="TC44" sheetId="5" r:id="rId25"/>
-    <sheet name="TC46-Price" sheetId="69" r:id="rId26"/>
-    <sheet name="TC47-Change Order" sheetId="7" r:id="rId27"/>
-    <sheet name="TC47-Change Inbound Dates" sheetId="8" r:id="rId28"/>
-    <sheet name="TC48" sheetId="10" r:id="rId29"/>
-    <sheet name="TC049" sheetId="24" r:id="rId30"/>
-    <sheet name="TC050" sheetId="25" r:id="rId31"/>
-    <sheet name="TC051" sheetId="70" r:id="rId32"/>
-    <sheet name="TC52-Download Obound Form" sheetId="11" r:id="rId33"/>
-    <sheet name="TC52-Upload Obound Form" sheetId="12" r:id="rId34"/>
-    <sheet name="TC52-Upload Obound Setup" sheetId="17" r:id="rId35"/>
-    <sheet name="TC52-Autogen Outbound Data" sheetId="57" r:id="rId36"/>
-    <sheet name="TC053" sheetId="26" r:id="rId37"/>
-    <sheet name="TC054" sheetId="27" r:id="rId38"/>
-    <sheet name="TC55" sheetId="22" r:id="rId39"/>
-    <sheet name="TC56-Custom Invoice Exp" sheetId="15" r:id="rId40"/>
-    <sheet name="TC57-Custom Invoice Imp" sheetId="16" r:id="rId41"/>
-    <sheet name="TC58n59" sheetId="28" r:id="rId42"/>
-    <sheet name="TC62" sheetId="51" r:id="rId43"/>
-    <sheet name="TC62-Setup Data" sheetId="55" r:id="rId44"/>
-    <sheet name="TC063" sheetId="29" r:id="rId45"/>
-    <sheet name="TC64n65_ForecastContainer" sheetId="37" r:id="rId46"/>
-    <sheet name="TC64n65_ForecastContainer-Manua" sheetId="47" r:id="rId47"/>
-    <sheet name="TC64n65_NonFContainer" sheetId="38" r:id="rId48"/>
-    <sheet name="TC067" sheetId="30" r:id="rId49"/>
-    <sheet name="TC068" sheetId="31" r:id="rId50"/>
-    <sheet name="TC069" sheetId="52" r:id="rId51"/>
-    <sheet name="TC070" sheetId="54" r:id="rId52"/>
-    <sheet name="TC072" sheetId="45" r:id="rId53"/>
-    <sheet name="TC073n074_ForecastContainer" sheetId="32" r:id="rId54"/>
-    <sheet name="TC073n074_Forecast-Manual" sheetId="48" r:id="rId55"/>
-    <sheet name="TC073n074_NonFContainer" sheetId="39" r:id="rId56"/>
-    <sheet name="TC075" sheetId="46" r:id="rId57"/>
-    <sheet name="TC076n077_ForecastContainer" sheetId="40" r:id="rId58"/>
-    <sheet name="TC076n077_Forecast-Manaul" sheetId="49" r:id="rId59"/>
-    <sheet name="TC076n077_NonFContainer" sheetId="41" r:id="rId60"/>
-    <sheet name="TC078" sheetId="58" r:id="rId61"/>
-    <sheet name="TC079" sheetId="34" r:id="rId62"/>
-    <sheet name="TC080" sheetId="35" r:id="rId63"/>
-    <sheet name="TC82-New Buyer GR Invoice" sheetId="64" r:id="rId64"/>
-    <sheet name="TC83-Inbound Shipping Details" sheetId="56" r:id="rId65"/>
-    <sheet name="TC084n085_ForecastContainer" sheetId="42" r:id="rId66"/>
-    <sheet name="TC084n085_Forecast-Manual" sheetId="50" r:id="rId67"/>
-    <sheet name="TC084n085_NonFContainer" sheetId="43" r:id="rId68"/>
-    <sheet name="TC086" sheetId="62" r:id="rId69"/>
+    <sheet name="Indicator" r:id="rId1" sheetId="66"/>
+    <sheet name="AutoGen" r:id="rId2" sheetId="67"/>
+    <sheet name="AutoIncrement" r:id="rId3" sheetId="14"/>
+    <sheet name="TC03-Company" r:id="rId4" sheetId="72"/>
+    <sheet name="TC04-Customer" r:id="rId5" sheetId="71"/>
+    <sheet name="TC05-BU" r:id="rId6" sheetId="73"/>
+    <sheet name="TC06-Supplier" r:id="rId7" sheetId="74"/>
+    <sheet name="TC07-DC" r:id="rId8" sheetId="75"/>
+    <sheet name="TC09-Create New User" r:id="rId9" sheetId="18"/>
+    <sheet name="TC14n15" r:id="rId10" sheetId="65"/>
+    <sheet name="TC019-Activate User" r:id="rId11" sheetId="61"/>
+    <sheet name="TC021-Forget Password" r:id="rId12" sheetId="59"/>
+    <sheet name="TC033" r:id="rId13" sheetId="19"/>
+    <sheet name="TC033_ETAnWeek" r:id="rId14" sheetId="20"/>
+    <sheet name="TC34" r:id="rId15" sheetId="9"/>
+    <sheet name="TC35-Contract Parts Info" r:id="rId16" sheetId="6"/>
+    <sheet name="TC35" r:id="rId17" sheetId="3"/>
+    <sheet name="TC038" r:id="rId18" sheetId="21"/>
+    <sheet name="TC039" r:id="rId19" sheetId="23"/>
+    <sheet name="S13_TC40" r:id="rId20" sheetId="44"/>
+    <sheet name="TC041 - Place Order (Regular)" r:id="rId21" sheetId="2"/>
+    <sheet name="TC041-Inbound Date" r:id="rId22" sheetId="13"/>
+    <sheet name="TC041-Reference" r:id="rId23" sheetId="68"/>
+    <sheet name="TC42" r:id="rId24" sheetId="4"/>
+    <sheet name="TC44" r:id="rId25" sheetId="5"/>
+    <sheet name="TC46-Price" r:id="rId26" sheetId="69"/>
+    <sheet name="TC47-Change Order" r:id="rId27" sheetId="7"/>
+    <sheet name="TC47-Change Inbound Dates" r:id="rId28" sheetId="8"/>
+    <sheet name="TC48" r:id="rId29" sheetId="10"/>
+    <sheet name="TC049" r:id="rId30" sheetId="24"/>
+    <sheet name="TC050" r:id="rId31" sheetId="25"/>
+    <sheet name="TC051" r:id="rId32" sheetId="70"/>
+    <sheet name="TC52-Download Obound Form" r:id="rId33" sheetId="11"/>
+    <sheet name="TC52-Upload Obound Form" r:id="rId34" sheetId="12"/>
+    <sheet name="TC52-Upload Obound Setup" r:id="rId35" sheetId="17"/>
+    <sheet name="TC52-Autogen Outbound Data" r:id="rId36" sheetId="57"/>
+    <sheet name="TC053" r:id="rId37" sheetId="26"/>
+    <sheet name="TC054" r:id="rId38" sheetId="27"/>
+    <sheet name="TC55" r:id="rId39" sheetId="22"/>
+    <sheet name="TC56-Custom Invoice Exp" r:id="rId40" sheetId="15"/>
+    <sheet name="TC57-Custom Invoice Imp" r:id="rId41" sheetId="16"/>
+    <sheet name="TC58n59" r:id="rId42" sheetId="28"/>
+    <sheet name="TC62" r:id="rId43" sheetId="51"/>
+    <sheet name="TC62-Setup Data" r:id="rId44" sheetId="55"/>
+    <sheet name="TC063" r:id="rId45" sheetId="29"/>
+    <sheet name="TC64n65_ForecastContainer" r:id="rId46" sheetId="37"/>
+    <sheet name="TC64n65_ForecastContainer-Manua" r:id="rId47" sheetId="47"/>
+    <sheet name="TC64n65_NonFContainer" r:id="rId48" sheetId="38"/>
+    <sheet name="TC067" r:id="rId49" sheetId="30"/>
+    <sheet name="TC068" r:id="rId50" sheetId="31"/>
+    <sheet name="TC069" r:id="rId51" sheetId="52"/>
+    <sheet name="TC070" r:id="rId52" sheetId="54"/>
+    <sheet name="TC072" r:id="rId53" sheetId="45"/>
+    <sheet name="TC073n074_ForecastContainer" r:id="rId54" sheetId="32"/>
+    <sheet name="TC073n074_Forecast-Manual" r:id="rId55" sheetId="48"/>
+    <sheet name="TC073n074_NonFContainer" r:id="rId56" sheetId="39"/>
+    <sheet name="TC075" r:id="rId57" sheetId="46"/>
+    <sheet name="TC076n077_ForecastContainer" r:id="rId58" sheetId="40"/>
+    <sheet name="TC076n077_Forecast-Manaul" r:id="rId59" sheetId="49"/>
+    <sheet name="TC076n077_NonFContainer" r:id="rId60" sheetId="41"/>
+    <sheet name="TC078" r:id="rId61" sheetId="58"/>
+    <sheet name="TC079" r:id="rId62" sheetId="34"/>
+    <sheet name="TC080" r:id="rId63" sheetId="35"/>
+    <sheet name="TC82-New Buyer GR Invoice" r:id="rId64" sheetId="64"/>
+    <sheet name="TC83-Inbound Shipping Details" r:id="rId65" sheetId="56"/>
+    <sheet name="TC084n085_ForecastContainer" r:id="rId66" sheetId="42"/>
+    <sheet name="TC084n085_Forecast-Manual" r:id="rId67" sheetId="50"/>
+    <sheet name="TC084n085_NonFContainer" r:id="rId68" sheetId="43"/>
+    <sheet name="TC086" r:id="rId69" sheetId="62"/>
   </sheets>
   <definedNames>
     <definedName name="ACTIVE_FLAG">#REF!</definedName>
@@ -101,7 +101,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="358">
   <si>
     <t>Color</t>
   </si>
@@ -1129,58 +1129,73 @@
     <t>07 Jul 2023</t>
   </si>
   <si>
+    <t>Estimate date value 3</t>
+  </si>
+  <si>
+    <t>CR-PK-CUS-POC-S13-5-2311001</t>
+  </si>
+  <si>
+    <t>cTS1-2311001</t>
+  </si>
+  <si>
+    <t>sTS1-2311001</t>
+  </si>
+  <si>
+    <t>rcTS1-2311001-01</t>
+  </si>
+  <si>
+    <t>TW12311001</t>
+  </si>
+  <si>
+    <t>B-231108-TB2-2</t>
+  </si>
+  <si>
+    <t>add alert</t>
+  </si>
+  <si>
+    <t>test1234 ver22</t>
+  </si>
+  <si>
+    <t>o-CNTW-SUP-POC-231120001</t>
+  </si>
+  <si>
+    <t>Nov 24, 2023</t>
+  </si>
+  <si>
+    <t>Dec 4, 2023</t>
+  </si>
+  <si>
+    <t>i-PK-CUS-POC-S13-5-231120001</t>
+  </si>
+  <si>
+    <t>i-PK-CUS-POC-S13-5-231120002</t>
+  </si>
+  <si>
+    <t>i-PK-CUS-POC-S13-5-231120003</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TS2</t>
+  </si>
+  <si>
     <t>CR-PK-CUS-POC-S13-5-2311002</t>
   </si>
   <si>
-    <t>Estimate date value 3</t>
-  </si>
-  <si>
-    <t>Nov 22, 2023</t>
-  </si>
-  <si>
-    <t>Dec 2, 2023</t>
-  </si>
-  <si>
-    <t>TW12311004</t>
-  </si>
-  <si>
-    <t>i-PK-CUS-POC-S13-5-231113001</t>
-  </si>
-  <si>
-    <t>i-PK-CUS-POC-S13-5-231113002</t>
-  </si>
-  <si>
-    <t>i-PK-CUS-POC-S13-5-231113003</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TS1</t>
-  </si>
-  <si>
-    <t>CR-PK-CUS-POC-S13-5-2311001</t>
-  </si>
-  <si>
-    <t>cTS1-2311001</t>
-  </si>
-  <si>
-    <t>sTS1-2311001</t>
-  </si>
-  <si>
-    <t>rcTS1-2311001-01</t>
-  </si>
-  <si>
-    <t>o-CNTW-SUP-POC-231116001</t>
-  </si>
-  <si>
-    <t>TW12311001</t>
-  </si>
-  <si>
-    <t>B-231108-TB2-2</t>
-  </si>
-  <si>
-    <t>13 Jun 2023</t>
+    <t>cTS2-2311001</t>
+  </si>
+  <si>
+    <t>sTS2-2311001</t>
+  </si>
+  <si>
+    <t>rcTS2-2311001-01</t>
+  </si>
+  <si>
+    <t>o-CNTW-SUP-POC-231120002</t>
+  </si>
+  <si>
+    <t>TW12311002</t>
   </si>
 </sst>
 </file>
@@ -1988,598 +2003,598 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="207">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="7" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="13" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="0" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="8" numFmtId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="12" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="12" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="17" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="18" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="16" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="22" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="25" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="26" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="10" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="3" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="15" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="14" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="16" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="14" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="10" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="14" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="9" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="24" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="27" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="29" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="30" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="31" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="11" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="32" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="6" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="18" fontId="21" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="3" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="20" numFmtId="4" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="34" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="20" fontId="21" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="22" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="6" fontId="5" numFmtId="49" xfId="4">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="6" fontId="5" numFmtId="0" xfId="4">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="4">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="5" numFmtId="49" xfId="4">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="33" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="36" fillId="6" fontId="5" numFmtId="49" xfId="4">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="5" numFmtId="49" xfId="4">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="4">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="4">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="9" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="9" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="10" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="19" fontId="2" numFmtId="4" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="4" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="11" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E256C720-EDE8-4307-8576-810A551E1C62}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{5BE18606-4F8F-4CCD-9137-17B790CEBD76}"/>
     <cellStyle name="Normal 6 2 2" xfId="3" xr:uid="{8F4233B3-4354-4AAF-AA97-E0549C984B4E}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2596,10 +2611,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2634,7 +2649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2669,7 +2684,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2763,21 +2778,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2794,7 +2809,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2846,15 +2861,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FA380-2332-419D-92D4-3DED642A9F2E}">
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -2862,13 +2877,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="3.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="2:4" thickBot="1"/>
+    <row ht="15" r="2" spans="2:4" thickBot="1">
       <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
@@ -2906,7 +2921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1">
+    <row ht="15" r="6" spans="2:4" thickBot="1">
       <c r="B6" s="160"/>
       <c r="C6" s="161" t="s">
         <v>9</v>
@@ -2916,13 +2931,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6165B-D20D-407C-823C-94F6FF43EA38}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -2930,12 +2945,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:4" thickBot="1">
       <c r="A1" s="198" t="s">
         <v>30</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:4" thickBot="1">
       <c r="A2" s="20" t="str">
         <f>'TC06-Supplier'!$B$2</f>
         <v>PK-SUP-POC-5</v>
@@ -2968,13 +2983,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D533D95-AD39-48EC-B951-49490EA0F3F5}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -2982,16 +2997,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:8" thickBot="1">
       <c r="A1" s="112" t="str">
         <f>'TC09-Create New User'!A1</f>
         <v>LoginID</v>
@@ -3024,7 +3039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:8" thickBot="1">
       <c r="A2" s="30" t="str">
         <f>'TC09-Create New User'!A2</f>
         <v>musyarustb2</v>
@@ -3058,33 +3073,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258DC1C-8896-4F4B-9771-916B41AD5BA2}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="43.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:12" thickBot="1">
       <c r="A1" s="112" t="s">
         <v>33</v>
       </c>
@@ -3131,7 +3146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1">
+    <row ht="29.4" r="2" spans="1:12" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -3178,47 +3193,47 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB854658-39D8-47DC-9D78-84E99B505506}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="39.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" ht="15" thickBot="1">
+    <row customFormat="1" ht="15" r="1" s="26" spans="1:24" thickBot="1">
       <c r="A1" s="116" t="s">
         <v>39</v>
       </c>
@@ -3292,14 +3307,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="26" customFormat="1" ht="15" thickBot="1">
+    <row customFormat="1" ht="15" r="2" s="26" spans="1:24" thickBot="1">
       <c r="A2" s="36" t="str">
         <f>"CNTWSUP-PKCUS "&amp;AutoIncrement!C2</f>
-        <v>CNTWSUP-PKCUS TS1</v>
+        <v>CNTWSUP-PKCUS TS2</v>
       </c>
       <c r="B2" s="37" t="str">
         <f>A2</f>
-        <v>CNTWSUP-PKCUS TS1</v>
+        <v>CNTWSUP-PKCUS TS2</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>63</v>
@@ -3369,39 +3384,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O1" location="RANGE!A1" display="ETDWeekDay (click here to set ETD days)" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
-    <hyperlink ref="X1" location="RANGE!A1" display="Shipping Frequency Weeks (Click here to add week)" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
+    <hyperlink display="ETDWeekDay (click here to set ETD days)" location="RANGE!A1" ref="O1" xr:uid="{1F69A7D3-D82F-49EA-8E2B-2F081CF3AD5F}"/>
+    <hyperlink display="Shipping Frequency Weeks (Click here to add week)" location="RANGE!A1" ref="X1" xr:uid="{0A79869C-AFB0-45FC-A885-72EA2DEBDAB1}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A6C7A-40F5-4748-86CB-58CB8F567E5B}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.44140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.6640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.33203125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="11" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.88671875" style="26" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="26" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="18.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="26" width="10.44140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="26" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="26" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="26" width="12.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="26" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="26" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="26" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="26" width="10.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="26" width="11.33203125" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="26" width="11.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="26" width="29.88671875" collapsed="true"/>
+    <col min="16" max="16384" style="26" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:15" thickBot="1">
       <c r="A1" s="39" t="s">
         <v>69</v>
       </c>
@@ -3448,7 +3463,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:15" thickBot="1">
       <c r="A2" s="36" t="s">
         <v>84</v>
       </c>
@@ -3497,13 +3512,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5AB3B-C2A6-44EC-82C6-9299EF0B7F3A}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3511,13 +3526,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:2" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3525,26 +3540,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:2" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="str">
         <f>"RequestPartTB-"&amp;AutoIncrement!A2</f>
-        <v>RequestPartTB-1</v>
+        <v>RequestPartTB-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99736192-CBE2-4B0B-92E9-CE004F0C74AC}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3552,13 +3567,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:4" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3578,15 +3593,15 @@
       </c>
       <c r="B2" s="168" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614011"</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="C2" s="169" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="170" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3595,79 +3610,76 @@
       </c>
       <c r="B3" s="168" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614012"</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="C3" s="169" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="170" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+        <v>CNTW-SUP-TS2-scenario13-20230604-002</v>
+      </c>
+    </row>
+    <row ht="15" r="4" spans="1:4" thickBot="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="168" t="str">
         <f>AutoIncrement!$C$2&amp;"scenario1320230614013"</f>
-        <v>TS1scenario1320230614013</v>
+        <v>TS2scenario1320230614013</v>
       </c>
       <c r="C4" s="169" t="str">
         <f>"PK-CUS-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>PK-CUS-TS1-scenario13-20230604-003</v>
+        <v>PK-CUS-TS2-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="170" t="str">
         <f>"CNTW-SUP-"&amp;AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="68.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="44.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="68.44140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="27.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:24" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -3704,7 +3716,7 @@
       <c r="L1" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="113" t="s">
         <v>101</v>
       </c>
       <c r="N1" s="12" t="s">
@@ -3741,7 +3753,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:24" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -3750,7 +3762,7 @@
       </c>
       <c r="C2" s="23" t="str">
         <f>"CNTWSUP-PKCUS-"&amp;'TC35'!K2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>CNTWSUP-PKCUS-TS1-01</v>
+        <v>CNTWSUP-PKCUS-TS2-02</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>112</v>
@@ -3775,15 +3787,15 @@
       </c>
       <c r="K2" s="23" t="str">
         <f>AutoIncrement!C2</f>
-        <v>TS1</v>
+        <v>TS2</v>
       </c>
       <c r="L2" s="23" t="str">
         <f>"CD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>CD-05-TS11</v>
+        <v>CD-05-TS22</v>
       </c>
       <c r="M2" s="23" t="str">
         <f>"TB60BL"&amp;AutoIncrement!$C$2&amp;"(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)"</f>
-        <v>TB60BLTS1(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</v>
+        <v>TB60BLTS2(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>114</v>
@@ -3793,11 +3805,11 @@
       </c>
       <c r="P2" s="23" t="str">
         <f>'TC033'!A2&amp;"("&amp;'TC033'!A2&amp;")"</f>
-        <v>CNTWSUP-PKCUS TS1(CNTWSUP-PKCUS TS1)</v>
+        <v>CNTWSUP-PKCUS TS2(CNTWSUP-PKCUS TS2)</v>
       </c>
       <c r="Q2" s="23" t="str">
         <f>"RD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>RD-05-TS11</v>
+        <v>RD-05-TS22</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>116</v>
@@ -3819,17 +3831,17 @@
         <v>119</v>
       </c>
       <c r="X2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A216D79B-D155-40DD-8598-1007B12C5FAC}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3837,16 +3849,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:8" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>120</v>
       </c>
@@ -3872,25 +3884,25 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="2" spans="1:8">
       <c r="A2" s="64" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311001</v>
+        <v>CR-PK-CUS-POC-S13-5-2311002</v>
       </c>
       <c r="B2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="C2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="56" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TS1-01</v>
+        <v>CNTWSUP-PKCUS-TS2-02</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>115</v>
@@ -3900,28 +3912,28 @@
       </c>
       <c r="H2" s="70" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TS1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+        <v>CNTWSUP-PKCUS TS2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" spans="1:8">
       <c r="A3" s="64" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311001</v>
+        <v>CR-PK-CUS-POC-S13-5-2311002</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="C3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="50" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="50" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TS1-01</v>
+        <v>CNTWSUP-PKCUS-TS2-02</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>115</v>
@@ -3931,28 +3943,28 @@
       </c>
       <c r="H3" s="66" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TS1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1">
+        <v>CNTWSUP-PKCUS TS2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="4" spans="1:8" thickBot="1">
       <c r="A4" s="33" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311001</v>
+        <v>CR-PK-CUS-POC-S13-5-2311002</v>
       </c>
       <c r="B4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TS1scenario1320230614013</v>
+        <v>TS2scenario1320230614013</v>
       </c>
       <c r="C4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TS1-scenario13-20230604-003</v>
+        <v>PK-CUS-TS2-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="34" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TS1-01</v>
+        <v>CNTWSUP-PKCUS-TS2-02</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>115</v>
@@ -3962,35 +3974,35 @@
       </c>
       <c r="H4" s="35" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TS1</v>
+        <v>CNTWSUP-PKCUS TS2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5CBA9-1B67-4C68-B90C-C4C48BFF1735}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:8" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>120</v>
       </c>
@@ -4016,18 +4028,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="2" spans="1:8">
       <c r="A2" s="68" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311001</v>
+        <v>CR-PK-CUS-POC-S13-5-2311002</v>
       </c>
       <c r="B2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="C2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-001</v>
       </c>
       <c r="D2" s="56" t="str">
         <f>TC14n15!$D$2</f>
@@ -4035,7 +4047,7 @@
       </c>
       <c r="E2" s="56" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TS1-01</v>
+        <v>CNTWSUP-PKCUS-TS2-02</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>115</v>
@@ -4046,21 +4058,21 @@
       </c>
       <c r="H2" s="70" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TS1</v>
+        <v>CNTWSUP-PKCUS TS2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="64" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311001</v>
+        <v>CR-PK-CUS-POC-S13-5-2311002</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="C3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-002</v>
       </c>
       <c r="D3" s="56" t="str">
         <f>TC14n15!$D$2</f>
@@ -4068,7 +4080,7 @@
       </c>
       <c r="E3" s="50" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TS1-01</v>
+        <v>CNTWSUP-PKCUS-TS2-02</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>115</v>
@@ -4079,21 +4091,21 @@
       </c>
       <c r="H3" s="66" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TS1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+        <v>CNTWSUP-PKCUS TS2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="4" spans="1:8" thickBot="1">
       <c r="A4" s="33" t="str">
         <f>'TC35'!X2</f>
-        <v>CR-PK-CUS-POC-S13-5-2311001</v>
+        <v>CR-PK-CUS-POC-S13-5-2311002</v>
       </c>
       <c r="B4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TS1scenario1320230614013</v>
+        <v>TS2scenario1320230614013</v>
       </c>
       <c r="C4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-003</v>
       </c>
       <c r="D4" s="56" t="str">
         <f>TC14n15!$D$2</f>
@@ -4101,7 +4113,7 @@
       </c>
       <c r="E4" s="34" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TS1-01</v>
+        <v>CNTWSUP-PKCUS-TS2-02</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>115</v>
@@ -4112,17 +4124,17 @@
       </c>
       <c r="H4" s="35" t="str">
         <f>'TC033'!$A$2</f>
-        <v>CNTWSUP-PKCUS TS1</v>
+        <v>CNTWSUP-PKCUS TS2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC73214-8B66-4496-A999-3457BA70A84F}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC73214-8B66-4496-A999-3457BA70A84F}">
+  <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4130,8 +4142,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -4141,33 +4153,34 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101EF903-CB9B-405E-AB81-9D99826BC180}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:7" thickBot="1">
       <c r="A1" s="39" t="s">
         <v>131</v>
       </c>
@@ -4186,8 +4199,11 @@
       <c r="F1" s="125" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="G1" s="206" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row ht="15" r="2" spans="1:7" thickBot="1">
       <c r="A2" s="36" t="s">
         <v>67</v>
       </c>
@@ -4196,7 +4212,7 @@
       </c>
       <c r="C2" s="37" t="str">
         <f>"Cargo Status Setting for PK-CUS-POC-"&amp;'TC35'!K2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>Cargo Status Setting for PK-CUS-POC-TS1-1</v>
+        <v>Cargo Status Setting for PK-CUS-POC-TS2-2</v>
       </c>
       <c r="D2" s="37" t="str">
         <f>TC14n15!$D$2</f>
@@ -4207,17 +4223,20 @@
       </c>
       <c r="F2" s="38" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TS1-01</v>
+        <v>CNTWSUP-PKCUS-TS2-02</v>
+      </c>
+      <c r="G2" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C279E-E004-47FE-A307-187837839328}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13:G14"/>
@@ -4225,13 +4244,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:4" thickBot="1">
       <c r="A1" s="63" t="s">
         <v>33</v>
       </c>
@@ -4273,7 +4292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+    <row ht="15" r="4" spans="1:4" thickBot="1">
       <c r="A4" s="59">
         <v>3</v>
       </c>
@@ -4288,25 +4307,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486D3B2-2E86-4C5E-A1A8-752D6537FB2E}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:3" thickBot="1">
       <c r="A1" s="42" t="s">
         <v>33</v>
       </c>
@@ -4314,27 +4333,27 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:3" thickBot="1">
       <c r="A2" s="40">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd MMM yyyy")</f>
-        <v>29 2月 2024</v>
+        <v>29 二月 2024</v>
       </c>
       <c r="C2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>16 1月 2024</v>
+        <v>20 一月 2024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2961C8-2794-49C8-9EF8-51062C289C1A}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2961C8-2794-49C8-9EF8-51062C289C1A}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4342,7 +4361,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4353,26 +4372,26 @@
     <row r="2" spans="1:1">
       <c r="A2" t="str">
         <f>AutoIncrement!$C$2&amp;AutoIncrement!$A$2&amp;"-TC-41"</f>
-        <v>TS11-TC-41</v>
+        <v>TS22-TC-41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBEC281-42C7-4E2C-927A-BA0D9D968813}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4386,26 +4405,26 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:3" thickBot="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="29" t="str">
         <f ca="1">"c"&amp;'TC35'!K2&amp;"-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>cTS1-2311001</v>
+        <v>cTS2-2311001</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4EF1C-C1CC-42BB-AB0D-F219FF6B8D92}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -4413,11 +4432,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:3" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4428,26 +4447,26 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:3" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="str">
         <f ca="1">"s" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>sTS1-2311001</v>
+        <v>sTS2-2311001</v>
       </c>
       <c r="C2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F2D55E-AAFD-4294-90CF-A3D8D0EF5DA0}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F2D55E-AAFD-4294-90CF-A3D8D0EF5DA0}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4455,8 +4474,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4470,7 +4489,7 @@
     <row r="2" spans="1:2">
       <c r="A2" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="B2" s="176">
         <v>3.05</v>
@@ -4479,7 +4498,7 @@
     <row r="3" spans="1:2">
       <c r="A3" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="B3" s="176">
         <v>1.05</v>
@@ -4488,20 +4507,20 @@
     <row r="4" spans="1:2">
       <c r="A4" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TS1scenario1320230614013</v>
+        <v>TS2scenario1320230614013</v>
       </c>
       <c r="B4" s="176">
         <v>2.0499999999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC6CE-D3DC-4FFA-B335-EBFDC662A3D4}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -4509,11 +4528,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:5" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4536,7 +4555,7 @@
       </c>
       <c r="B2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="C2" s="61">
         <v>150</v>
@@ -4552,7 +4571,7 @@
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="C3" s="27">
         <v>150</v>
@@ -4564,13 +4583,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row ht="15" r="4" spans="1:5" thickBot="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TS1scenario1320230614013</v>
+        <v>TS2scenario1320230614013</v>
       </c>
       <c r="C4" s="28">
         <v>50</v>
@@ -4584,13 +4603,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F963028-BD12-414D-A351-39D6A26BAB42}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -4598,13 +4617,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:7" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4618,40 +4637,40 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:7" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd MMM yyyy")</f>
-        <v>29 2月 2024</v>
+        <v>29 二月 2024</v>
       </c>
       <c r="C2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))+20), "dd MMM yyyy")</f>
-        <v>20 3月 2024</v>
+        <v>20 三月 2024</v>
       </c>
       <c r="D2" t="str">
         <f>AutoIncrement!$C$2&amp;AutoIncrement!$A$2&amp;"-TC-47"</f>
-        <v>TS11-TC-47</v>
+        <v>TS22-TC-47</v>
       </c>
       <c r="F2" s="23" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+3), "dd MMM yyyy")</f>
-        <v>19 1月 2024</v>
+        <v>23 一月 2024</v>
       </c>
       <c r="G2" s="31" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+5), "dd MMM yyyy")</f>
-        <v>21 1月 2024</v>
+        <v>25 一月 2024</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9A5B9-9D61-4368-BBCB-A4AD14757B8B}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -4659,11 +4678,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:3" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -4674,39 +4693,39 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:3" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="str">
         <f ca="1">"rc" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>rcTS1-2311001</v>
+        <v>rcTS2-2311001</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A466A-F5B7-4C5E-BA63-D0012D246132}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:3" thickBot="1">
       <c r="A1" s="102" t="s">
         <v>11</v>
       </c>
@@ -4717,57 +4736,57 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:3" thickBot="1">
       <c r="A2" s="101" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B2" s="31">
         <v>5</v>
       </c>
       <c r="C2" s="167" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1600F0-8A4D-4539-B522-3559BBAF175A}">
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:25" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>150</v>
       </c>
@@ -4844,10 +4863,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+    <row customHeight="1" ht="13.5" r="2" spans="1:25">
       <c r="A2" s="68" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTS1-2311001</v>
+        <v>cTS2-2311001</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>172</v>
@@ -4857,18 +4876,18 @@
       <c r="E2" s="56"/>
       <c r="F2" s="55" t="str">
         <f>'TC35-Contract Parts Info'!B2</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="G2" s="69" t="str">
         <f>'TC35-Contract Parts Info'!C2</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="56" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTS1-2311001</v>
+        <v>sTS2-2311001</v>
       </c>
       <c r="J2" s="55" t="s">
         <v>67</v>
@@ -4885,7 +4904,7 @@
       <c r="N2" s="56">
         <v>0</v>
       </c>
-      <c r="O2" s="203">
+      <c r="O2" s="203" t="n">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -4928,18 +4947,18 @@
       <c r="E3" s="50"/>
       <c r="F3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!B3</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="G3" s="65" t="str">
         <f>'TC35-Contract Parts Info'!C3</f>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="50" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTS1-2311001</v>
+        <v>sTS2-2311001</v>
       </c>
       <c r="J3" s="51" t="s">
         <v>67</v>
@@ -4956,7 +4975,7 @@
       <c r="N3" s="50">
         <v>0</v>
       </c>
-      <c r="O3" s="203">
+      <c r="O3" s="203" t="n">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -4991,7 +5010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1">
+    <row ht="15" r="4" spans="1:25" thickBot="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -4999,18 +5018,18 @@
       <c r="E4" s="34"/>
       <c r="F4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!B4</f>
-        <v>TS1scenario1320230614013</v>
+        <v>TS2scenario1320230614013</v>
       </c>
       <c r="G4" s="67" t="str">
         <f>'TC35-Contract Parts Info'!C4</f>
-        <v>PK-CUS-TS1-scenario13-20230604-003</v>
+        <v>PK-CUS-TS2-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="34" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTS1-2311001</v>
+        <v>sTS2-2311001</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>67</v>
@@ -5027,9 +5046,9 @@
       <c r="N4" s="34">
         <v>0</v>
       </c>
-      <c r="O4" s="203">
+      <c r="O4" s="203" t="n">
         <f>'TC46-Price'!$B4</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="P4" s="34" t="s">
         <v>114</v>
@@ -5063,42 +5082,42 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C632A7BA-300F-49F8-AEB2-7C0DADD59FA2}">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="27" max="28" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="27" max="28" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -5184,13 +5203,13 @@
         <v>189</v>
       </c>
       <c r="AB1" s="54" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" spans="1:28">
       <c r="A2" s="64" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTS1-2311001</v>
+        <v>sTS2-2311001</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>172</v>
@@ -5200,18 +5219,18 @@
       <c r="E2" s="50"/>
       <c r="F2" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="G2" s="51" t="str">
         <f>'TC35-Contract Parts Info'!D2</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-001</v>
       </c>
       <c r="H2" s="50" t="s">
         <v>173</v>
       </c>
       <c r="I2" s="50" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTS1-2311001</v>
+        <v>cTS2-2311001</v>
       </c>
       <c r="J2" s="51" t="str">
         <f>TC14n15!$D$2</f>
@@ -5226,7 +5245,7 @@
       <c r="M2" s="50">
         <v>150</v>
       </c>
-      <c r="N2" s="203">
+      <c r="N2" s="203" t="n">
         <f>'TC46-Price'!$B2</f>
         <v>3.05</v>
       </c>
@@ -5281,18 +5300,18 @@
       <c r="E3" s="50"/>
       <c r="F3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="G3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!D3</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-002</v>
       </c>
       <c r="H3" s="50" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="50" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTS1-2311001</v>
+        <v>cTS2-2311001</v>
       </c>
       <c r="J3" s="51" t="str">
         <f>TC14n15!$D$2</f>
@@ -5307,7 +5326,7 @@
       <c r="M3" s="50">
         <v>150</v>
       </c>
-      <c r="N3" s="203">
+      <c r="N3" s="203" t="n">
         <f>'TC46-Price'!$B3</f>
         <v>1.05</v>
       </c>
@@ -5354,7 +5373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" thickBot="1">
+    <row ht="15" r="4" spans="1:28" thickBot="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -5362,18 +5381,18 @@
       <c r="E4" s="34"/>
       <c r="F4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TS1scenario1320230614013</v>
+        <v>TS2scenario1320230614013</v>
       </c>
       <c r="G4" s="52" t="str">
         <f>'TC35-Contract Parts Info'!D4</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-003</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="34" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTS1-2311001</v>
+        <v>cTS2-2311001</v>
       </c>
       <c r="J4" s="51" t="str">
         <f>TC14n15!$D$2</f>
@@ -5388,9 +5407,9 @@
       <c r="M4" s="34">
         <v>50</v>
       </c>
-      <c r="N4" s="203">
+      <c r="N4" s="203" t="n">
         <f>'TC46-Price'!$B4</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="O4" s="34" t="s">
         <v>114</v>
@@ -5436,13 +5455,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7924362-69F4-490E-B640-A04EBD292624}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7924362-69F4-490E-B640-A04EBD292624}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -5450,14 +5469,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row ht="26.4" r="1" spans="1:5">
       <c r="A1" s="180" t="s">
         <v>303</v>
       </c>
@@ -5474,14 +5493,14 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:5" thickBot="1">
       <c r="A2" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd-MMM-yyyy")</f>
-        <v>29-2月-2024</v>
+        <v>29-二月-2024</v>
       </c>
       <c r="B2" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$2</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="C2" s="181">
         <v>150</v>
@@ -5489,14 +5508,14 @@
       <c r="D2" s="181"/>
       <c r="E2" s="181"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row ht="15" r="3" spans="1:5" thickBot="1">
       <c r="A3" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))), "dd-MMM-yyyy")</f>
-        <v>29-2月-2024</v>
+        <v>29-二月-2024</v>
       </c>
       <c r="B3" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="C3" s="181"/>
       <c r="D3" s="181">
@@ -5504,14 +5523,14 @@
       </c>
       <c r="E3" s="181"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row ht="15" r="4" spans="1:5" thickBot="1">
       <c r="A4" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))+20), "dd-MMM-yyyy")</f>
-        <v>20-3月-2024</v>
+        <v>20-三月-2024</v>
       </c>
       <c r="B4" s="51" t="str">
         <f>'TC35-Contract Parts Info'!$B$3</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="C4" s="181"/>
       <c r="D4" s="181"/>
@@ -5519,14 +5538,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row ht="15" r="5" spans="1:5" thickBot="1">
       <c r="A5" s="41" t="str">
         <f ca="1">TEXT(DATE(YEAR(EOMONTH(TODAY(),3)), MONTH(EOMONTH(TODAY(),3)), DAY(EOMONTH(TODAY(),3))+20), "dd-MMM-yyyy")</f>
-        <v>20-3月-2024</v>
+        <v>20-三月-2024</v>
       </c>
       <c r="B5" s="52" t="str">
         <f>'TC35-Contract Parts Info'!$B$4</f>
-        <v>TS1scenario1320230614013</v>
+        <v>TS2scenario1320230614013</v>
       </c>
       <c r="C5" s="181"/>
       <c r="D5" s="181"/>
@@ -5536,13 +5555,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAED6B-07F5-4BAE-8937-F130ED4AAA9E}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
@@ -5550,15 +5569,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:6" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -5578,7 +5597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:6" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -5595,37 +5614,37 @@
       </c>
       <c r="E2" s="71" t="str">
         <f ca="1">TEXT(TODAY(),"dd/m/yyyy")</f>
-        <v>16/11/2023</v>
+        <v>20/11/2023</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F51A9B-FF30-47F1-A4F9-2E8F33F7F68F}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:7" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -5654,7 +5673,7 @@
       </c>
       <c r="B2" s="129" t="str">
         <f>"o-CNTW-SUP-POC-"&amp;"231106" &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231106-1</v>
+        <v>o-CNTW-SUP-POC-231106-2</v>
       </c>
       <c r="C2" s="130" t="str">
         <f>'TC52-Upload Obound Setup'!$B$2</f>
@@ -5665,7 +5684,7 @@
       </c>
       <c r="E2" s="130" t="str">
         <f>"O-"&amp;"231108-" &amp; AutoIncrement!$A$2</f>
-        <v>O-231108-1</v>
+        <v>O-231108-2</v>
       </c>
       <c r="F2" s="130" t="s">
         <v>203</v>
@@ -5680,7 +5699,7 @@
       </c>
       <c r="B3" s="129" t="str">
         <f>"o-CNTW-SUP-POC-"&amp;"231106" &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231106-1</v>
+        <v>o-CNTW-SUP-POC-231106-2</v>
       </c>
       <c r="C3" s="130" t="str">
         <f>'TC52-Upload Obound Setup'!$B$2</f>
@@ -5700,13 +5719,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row ht="15" r="4" spans="1:7" thickBot="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="129" t="str">
         <f>"o-CNTW-SUP-POC-"&amp;"231106" &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231106-1</v>
+        <v>o-CNTW-SUP-POC-231106-2</v>
       </c>
       <c r="C4" s="130" t="str">
         <f>'TC52-Upload Obound Setup'!$B$2</f>
@@ -5725,26 +5744,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294F7F0-2563-4754-9D17-807423865F6C}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row ht="15" r="1" spans="1:4" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
@@ -5752,30 +5771,30 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+    <row ht="15" r="2" spans="1:4" thickBot="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C2" s="31" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!A2</f>
-        <v>B-231116-TS1-1</v>
+        <v>B-231120-TS2-2</v>
       </c>
       <c r="D2" s="31" t="str">
         <f>"B-231106-"&amp; 'TC35'!K2 &amp;"-"&amp; AutoIncrement!$A$2</f>
-        <v>B-231106-TS1-1</v>
+        <v>B-231106-TS2-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMa